--- a/InputData/io-model/LPGRbIC/Labor Productivity Growth Rate by ISIC Code.xlsx
+++ b/InputData/io-model/LPGRbIC/Labor Productivity Growth Rate by ISIC Code.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\io-model\LPGRbIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/ar/io-model/lpgrbic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9017C826-B863-4653-A504-E14BB07C588E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3243BA8A-9370-3E4D-9D40-D7CA2D971084}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -1006,7 +1006,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1070,6 +1070,28 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -1208,27 +1230,6 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1512,21 +1513,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="77.5703125" customWidth="1"/>
+    <col min="2" max="2" width="77.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="36">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1534,37 +1538,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>180</v>
       </c>
@@ -1587,26 +1591,26 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="26" width="10.140625" customWidth="1"/>
-    <col min="27" max="27" width="13.42578125" customWidth="1"/>
-    <col min="28" max="28" width="11.140625" customWidth="1"/>
-    <col min="29" max="43" width="10.140625" customWidth="1"/>
+    <col min="2" max="26" width="10.1640625" customWidth="1"/>
+    <col min="27" max="27" width="13.5" customWidth="1"/>
+    <col min="28" max="28" width="11.1640625" customWidth="1"/>
+    <col min="29" max="43" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>70</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="D1" s="77" t="s">
+      <c r="D1" s="31" t="s">
         <v>186</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -1630,25 +1634,25 @@
       <c r="K1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="76" t="s">
+      <c r="L1" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="M1" s="77" t="s">
+      <c r="M1" s="31" t="s">
         <v>183</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="76" t="s">
+      <c r="O1" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="P1" s="77" t="s">
+      <c r="P1" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="Q1" s="76" t="s">
+      <c r="Q1" s="30" t="s">
         <v>194</v>
       </c>
-      <c r="R1" s="77" t="s">
+      <c r="R1" s="31" t="s">
         <v>195</v>
       </c>
       <c r="S1" s="4" t="s">
@@ -1672,13 +1676,13 @@
       <c r="Y1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="76" t="s">
+      <c r="Z1" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="AA1" s="80" t="s">
+      <c r="AA1" s="34" t="s">
         <v>199</v>
       </c>
-      <c r="AB1" s="77" t="s">
+      <c r="AB1" s="31" t="s">
         <v>200</v>
       </c>
       <c r="AC1" s="4" t="s">
@@ -1727,7 +1731,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:43" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -1735,11 +1739,11 @@
         <f>AVERAGE('OECD Manufacturing'!$D$43:$AB$43)/100</f>
         <v>2.6670610000000004E-2</v>
       </c>
-      <c r="C2" s="78">
+      <c r="C2" s="32">
         <f>AVERAGE('OECD Mining &amp; Utilities'!$D$43:$AB$43)/100</f>
         <v>8.4344252941176458E-3</v>
       </c>
-      <c r="D2" s="79">
+      <c r="D2" s="33">
         <f>AVERAGE('OECD Mining &amp; Utilities'!$D$43:$AB$43)/100</f>
         <v>8.4344252941176458E-3</v>
       </c>
@@ -1771,11 +1775,11 @@
         <f>AVERAGE('OECD Manufacturing'!$D$43:$AB$43)/100</f>
         <v>2.6670610000000004E-2</v>
       </c>
-      <c r="L2" s="78">
+      <c r="L2" s="32">
         <f>AVERAGE('OECD Manufacturing'!$D$43:$AB$43)/100</f>
         <v>2.6670610000000004E-2</v>
       </c>
-      <c r="M2" s="79">
+      <c r="M2" s="33">
         <f>AVERAGE('OECD Manufacturing'!$D$43:$AB$43)/100</f>
         <v>2.6670610000000004E-2</v>
       </c>
@@ -1783,19 +1787,19 @@
         <f>AVERAGE('OECD Manufacturing'!$D$43:$AB$43)/100</f>
         <v>2.6670610000000004E-2</v>
       </c>
-      <c r="O2" s="78">
+      <c r="O2" s="32">
         <f>AVERAGE('OECD Manufacturing'!$D$43:$AB$43)/100</f>
         <v>2.6670610000000004E-2</v>
       </c>
-      <c r="P2" s="79">
+      <c r="P2" s="33">
         <f>AVERAGE('OECD Manufacturing'!$D$43:$AB$43)/100</f>
         <v>2.6670610000000004E-2</v>
       </c>
-      <c r="Q2" s="78">
+      <c r="Q2" s="32">
         <f>AVERAGE('OECD Manufacturing'!$D$43:$AB$43)/100</f>
         <v>2.6670610000000004E-2</v>
       </c>
-      <c r="R2" s="79">
+      <c r="R2" s="33">
         <f>AVERAGE('OECD Manufacturing'!$D$43:$AB$43)/100</f>
         <v>2.6670610000000004E-2</v>
       </c>
@@ -1827,15 +1831,15 @@
         <f>AVERAGE('OECD Manufacturing'!$D$43:$AB$43)/100</f>
         <v>2.6670610000000004E-2</v>
       </c>
-      <c r="Z2" s="78">
+      <c r="Z2" s="32">
         <f>AVERAGE('OECD Mining &amp; Utilities'!$D$43:$AB$43)/100</f>
         <v>8.4344252941176458E-3</v>
       </c>
-      <c r="AA2" s="81">
+      <c r="AA2" s="35">
         <f>AVERAGE('OECD Mining &amp; Utilities'!$D$43:$AB$43)/100</f>
         <v>8.4344252941176458E-3</v>
       </c>
-      <c r="AB2" s="79">
+      <c r="AB2" s="33">
         <f>AVERAGE('OECD Mining &amp; Utilities'!$D$43:$AB$43)/100</f>
         <v>8.4344252941176458E-3</v>
       </c>
@@ -1914,14 +1918,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="75.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="75.1640625" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>157</v>
       </c>
@@ -1932,7 +1936,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1943,8 +1947,8 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="73" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="27" t="s">
         <v>188</v>
       </c>
       <c r="B3" t="s">
@@ -1954,8 +1958,8 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="74" t="s">
+    <row r="4" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
         <v>186</v>
       </c>
       <c r="B4" t="s">
@@ -1965,7 +1969,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1976,7 +1980,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1987,7 +1991,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -1998,7 +2002,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -2009,7 +2013,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -2020,7 +2024,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -2031,7 +2035,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -2042,8 +2046,8 @@
         <v>161</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="73" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="27" t="s">
         <v>182</v>
       </c>
       <c r="B12" t="s">
@@ -2053,8 +2057,8 @@
         <v>161</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="74" t="s">
+    <row r="13" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
         <v>183</v>
       </c>
       <c r="B13" t="s">
@@ -2064,7 +2068,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
@@ -2075,8 +2079,8 @@
         <v>161</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="73" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="27" t="s">
         <v>190</v>
       </c>
       <c r="B15" t="s">
@@ -2086,8 +2090,8 @@
         <v>161</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="74" t="s">
+    <row r="16" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
         <v>191</v>
       </c>
       <c r="B16" t="s">
@@ -2097,8 +2101,8 @@
         <v>161</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="73" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="27" t="s">
         <v>194</v>
       </c>
       <c r="B17" t="s">
@@ -2108,8 +2112,8 @@
         <v>161</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="74" t="s">
+    <row r="18" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="28" t="s">
         <v>195</v>
       </c>
       <c r="B18" t="s">
@@ -2119,7 +2123,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
@@ -2130,7 +2134,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -2141,7 +2145,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
@@ -2152,7 +2156,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -2163,7 +2167,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -2174,7 +2178,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -2185,7 +2189,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -2196,8 +2200,8 @@
         <v>161</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="73" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="27" t="s">
         <v>198</v>
       </c>
       <c r="B26" t="s">
@@ -2207,8 +2211,8 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="75" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="29" t="s">
         <v>199</v>
       </c>
       <c r="B27" t="s">
@@ -2218,8 +2222,8 @@
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="74" t="s">
+    <row r="28" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="28" t="s">
         <v>200</v>
       </c>
       <c r="B28" t="s">
@@ -2229,7 +2233,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>24</v>
       </c>
@@ -2240,7 +2244,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>25</v>
       </c>
@@ -2251,7 +2255,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>26</v>
       </c>
@@ -2262,7 +2266,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>27</v>
       </c>
@@ -2273,7 +2277,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>28</v>
       </c>
@@ -2284,7 +2288,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>29</v>
       </c>
@@ -2295,7 +2299,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>30</v>
       </c>
@@ -2306,7 +2310,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>31</v>
       </c>
@@ -2317,7 +2321,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>32</v>
       </c>
@@ -2328,7 +2332,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>33</v>
       </c>
@@ -2339,7 +2343,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>34</v>
       </c>
@@ -2350,7 +2354,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>35</v>
       </c>
@@ -2361,7 +2365,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>36</v>
       </c>
@@ -2372,7 +2376,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>37</v>
       </c>
@@ -2383,7 +2387,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>38</v>
       </c>
@@ -2408,14 +2412,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="27.42578125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="2.42578125" style="17" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="17"/>
+    <col min="1" max="2" width="27.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="2.5" style="17" customWidth="1"/>
+    <col min="4" max="16384" width="9.1640625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1" s="16" t="e">
         <f ca="1">DotStatQuery(B1)</f>
         <v>#NAME?</v>
@@ -2424,85 +2428,85 @@
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="34.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" ht="39" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A3" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30" t="s">
+      <c r="B3" s="38"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
-      <c r="AA3" s="31"/>
-      <c r="AB3" s="32"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="42"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A4" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="30" t="s">
+      <c r="B4" s="38"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="32"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A5" s="33" t="s">
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="41"/>
+      <c r="X4" s="41"/>
+      <c r="Y4" s="41"/>
+      <c r="Z4" s="41"/>
+      <c r="AA4" s="41"/>
+      <c r="AB4" s="42"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A5" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="35"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="45"/>
       <c r="D5" s="19" t="s">
         <v>79</v>
       </c>
@@ -2579,79 +2583,79 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A6" s="33" t="s">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A6" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="36" t="s">
+      <c r="B6" s="44"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="37"/>
-      <c r="T6" s="37"/>
-      <c r="U6" s="37"/>
-      <c r="V6" s="37"/>
-      <c r="W6" s="37"/>
-      <c r="X6" s="37"/>
-      <c r="Y6" s="37"/>
-      <c r="Z6" s="37"/>
-      <c r="AA6" s="37"/>
-      <c r="AB6" s="38"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A7" s="33" t="s">
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="47"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="47"/>
+      <c r="U6" s="47"/>
+      <c r="V6" s="47"/>
+      <c r="W6" s="47"/>
+      <c r="X6" s="47"/>
+      <c r="Y6" s="47"/>
+      <c r="Z6" s="47"/>
+      <c r="AA6" s="47"/>
+      <c r="AB6" s="48"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A7" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="39" t="s">
+      <c r="B7" s="44"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="40"/>
-      <c r="W7" s="40"/>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="40"/>
-      <c r="Z7" s="40"/>
-      <c r="AA7" s="40"/>
-      <c r="AB7" s="41"/>
-    </row>
-    <row r="8" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="50"/>
+      <c r="U7" s="50"/>
+      <c r="V7" s="50"/>
+      <c r="W7" s="50"/>
+      <c r="X7" s="50"/>
+      <c r="Y7" s="50"/>
+      <c r="Z7" s="50"/>
+      <c r="AA7" s="50"/>
+      <c r="AB7" s="51"/>
+    </row>
+    <row r="8" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A8" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="43"/>
+      <c r="B8" s="53"/>
       <c r="C8" s="20" t="s">
         <v>7</v>
       </c>
@@ -2731,11 +2735,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="s">
+    <row r="9" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A9" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="45"/>
+      <c r="B9" s="55"/>
       <c r="C9" s="20" t="s">
         <v>7</v>
       </c>
@@ -2815,11 +2819,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
+    <row r="10" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A10" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="45"/>
+      <c r="B10" s="55"/>
       <c r="C10" s="20" t="s">
         <v>7</v>
       </c>
@@ -2899,11 +2903,11 @@
         <v>-0.41230499999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="44" t="s">
+    <row r="11" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A11" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="45"/>
+      <c r="B11" s="55"/>
       <c r="C11" s="20" t="s">
         <v>7</v>
       </c>
@@ -2983,11 +2987,11 @@
         <v>5.4578550000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="44" t="s">
+    <row r="12" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A12" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="45"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="20" t="s">
         <v>7</v>
       </c>
@@ -3067,11 +3071,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
+    <row r="13" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A13" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="B13" s="45"/>
+      <c r="B13" s="55"/>
       <c r="C13" s="20" t="s">
         <v>7</v>
       </c>
@@ -3151,11 +3155,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
+    <row r="14" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A14" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="B14" s="45"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="20" t="s">
         <v>7</v>
       </c>
@@ -3235,11 +3239,11 @@
         <v>-0.78041799999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="44" t="s">
+    <row r="15" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A15" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="B15" s="45"/>
+      <c r="B15" s="55"/>
       <c r="C15" s="20" t="s">
         <v>7</v>
       </c>
@@ -3319,11 +3323,11 @@
         <v>-7.306692</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="44" t="s">
+    <row r="16" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A16" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="B16" s="45"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="20" t="s">
         <v>7</v>
       </c>
@@ -3403,11 +3407,11 @@
         <v>-7.5684449999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="44" t="s">
+    <row r="17" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A17" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="B17" s="45"/>
+      <c r="B17" s="55"/>
       <c r="C17" s="20" t="s">
         <v>7</v>
       </c>
@@ -3487,11 +3491,11 @@
         <v>-3.7875320000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="44" t="s">
+    <row r="18" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A18" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="B18" s="45"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="20" t="s">
         <v>7</v>
       </c>
@@ -3571,11 +3575,11 @@
         <v>1.633324</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="46" t="s">
+    <row r="19" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A19" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="B19" s="47"/>
+      <c r="B19" s="57"/>
       <c r="C19" s="20" t="s">
         <v>7</v>
       </c>
@@ -3655,11 +3659,11 @@
         <v>-5.6814530000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="44" t="s">
+    <row r="20" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A20" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="B20" s="45"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="20" t="s">
         <v>7</v>
       </c>
@@ -3739,11 +3743,11 @@
         <v>-5.2262449999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="44" t="s">
+    <row r="21" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A21" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="B21" s="45"/>
+      <c r="B21" s="55"/>
       <c r="C21" s="20" t="s">
         <v>7</v>
       </c>
@@ -3823,11 +3827,11 @@
         <v>5.0534160000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="44" t="s">
+    <row r="22" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A22" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="B22" s="45"/>
+      <c r="B22" s="55"/>
       <c r="C22" s="20" t="s">
         <v>7</v>
       </c>
@@ -3907,11 +3911,11 @@
         <v>-2.0436770000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="46" t="s">
+    <row r="23" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A23" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="B23" s="47"/>
+      <c r="B23" s="57"/>
       <c r="C23" s="20" t="s">
         <v>7</v>
       </c>
@@ -3991,11 +3995,11 @@
         <v>9.0768789999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="46" t="s">
+    <row r="24" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A24" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="B24" s="47"/>
+      <c r="B24" s="57"/>
       <c r="C24" s="20" t="s">
         <v>7</v>
       </c>
@@ -4075,11 +4079,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="44" t="s">
+    <row r="25" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A25" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="B25" s="45"/>
+      <c r="B25" s="55"/>
       <c r="C25" s="20" t="s">
         <v>7</v>
       </c>
@@ -4159,11 +4163,11 @@
         <v>-1.4728779999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="44" t="s">
+    <row r="26" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A26" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="B26" s="45"/>
+      <c r="B26" s="55"/>
       <c r="C26" s="20" t="s">
         <v>7</v>
       </c>
@@ -4243,11 +4247,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="44" t="s">
+    <row r="27" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A27" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="B27" s="45"/>
+      <c r="B27" s="55"/>
       <c r="C27" s="20" t="s">
         <v>7</v>
       </c>
@@ -4327,11 +4331,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="44" t="s">
+    <row r="28" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A28" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="B28" s="45"/>
+      <c r="B28" s="55"/>
       <c r="C28" s="20" t="s">
         <v>7</v>
       </c>
@@ -4411,11 +4415,11 @@
         <v>-0.43349500000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="44" t="s">
+    <row r="29" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A29" s="54" t="s">
         <v>125</v>
       </c>
-      <c r="B29" s="45"/>
+      <c r="B29" s="55"/>
       <c r="C29" s="20" t="s">
         <v>7</v>
       </c>
@@ -4495,11 +4499,11 @@
         <v>3.9388109999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="44" t="s">
+    <row r="30" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A30" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="B30" s="45"/>
+      <c r="B30" s="55"/>
       <c r="C30" s="20" t="s">
         <v>7</v>
       </c>
@@ -4579,11 +4583,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="44" t="s">
+    <row r="31" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A31" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="B31" s="45"/>
+      <c r="B31" s="55"/>
       <c r="C31" s="20" t="s">
         <v>7</v>
       </c>
@@ -4663,11 +4667,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="44" t="s">
+    <row r="32" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A32" s="54" t="s">
         <v>128</v>
       </c>
-      <c r="B32" s="45"/>
+      <c r="B32" s="55"/>
       <c r="C32" s="20" t="s">
         <v>7</v>
       </c>
@@ -4747,11 +4751,11 @@
         <v>-6.1508039999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="44" t="s">
+    <row r="33" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A33" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="B33" s="45"/>
+      <c r="B33" s="55"/>
       <c r="C33" s="20" t="s">
         <v>7</v>
       </c>
@@ -4831,11 +4835,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="44" t="s">
+    <row r="34" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A34" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="B34" s="45"/>
+      <c r="B34" s="55"/>
       <c r="C34" s="20" t="s">
         <v>7</v>
       </c>
@@ -4915,11 +4919,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="44" t="s">
+    <row r="35" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A35" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="B35" s="45"/>
+      <c r="B35" s="55"/>
       <c r="C35" s="20" t="s">
         <v>7</v>
       </c>
@@ -4999,11 +5003,11 @@
         <v>-12.157479</v>
       </c>
     </row>
-    <row r="36" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="44" t="s">
+    <row r="36" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A36" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="B36" s="45"/>
+      <c r="B36" s="55"/>
       <c r="C36" s="20" t="s">
         <v>7</v>
       </c>
@@ -5083,11 +5087,11 @@
         <v>-3.1903109999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="44" t="s">
+    <row r="37" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A37" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="B37" s="45"/>
+      <c r="B37" s="55"/>
       <c r="C37" s="20" t="s">
         <v>7</v>
       </c>
@@ -5167,11 +5171,11 @@
         <v>3.5140600000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="44" t="s">
+    <row r="38" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A38" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="B38" s="45"/>
+      <c r="B38" s="55"/>
       <c r="C38" s="20" t="s">
         <v>7</v>
       </c>
@@ -5251,11 +5255,11 @@
         <v>-4.3519209999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="44" t="s">
+    <row r="39" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A39" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="B39" s="45"/>
+      <c r="B39" s="55"/>
       <c r="C39" s="20" t="s">
         <v>7</v>
       </c>
@@ -5335,11 +5339,11 @@
         <v>7.1948999999999999E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="44" t="s">
+    <row r="40" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A40" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="B40" s="45"/>
+      <c r="B40" s="55"/>
       <c r="C40" s="20" t="s">
         <v>7</v>
       </c>
@@ -5419,11 +5423,11 @@
         <v>1.619569</v>
       </c>
     </row>
-    <row r="41" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="44" t="s">
+    <row r="41" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A41" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="B41" s="45"/>
+      <c r="B41" s="55"/>
       <c r="C41" s="20" t="s">
         <v>7</v>
       </c>
@@ -5503,11 +5507,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="42" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="44" t="s">
+    <row r="42" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A42" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="B42" s="45"/>
+      <c r="B42" s="55"/>
       <c r="C42" s="20" t="s">
         <v>7</v>
       </c>
@@ -5587,11 +5591,11 @@
         <v>0.40523900000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="44" t="s">
+    <row r="43" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A43" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="B43" s="45"/>
+      <c r="B43" s="55"/>
       <c r="C43" s="20" t="s">
         <v>7</v>
       </c>
@@ -5671,11 +5675,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="44" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="44" t="s">
+    <row r="44" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A44" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="B44" s="45"/>
+      <c r="B44" s="55"/>
       <c r="C44" s="20" t="s">
         <v>7</v>
       </c>
@@ -5755,11 +5759,11 @@
         <v>-2.4850850000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="44" t="s">
+    <row r="45" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A45" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="B45" s="45"/>
+      <c r="B45" s="55"/>
       <c r="C45" s="20" t="s">
         <v>7</v>
       </c>
@@ -5839,8 +5843,8 @@
         <v>-3.7280920000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="48" t="s">
+    <row r="46" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A46" s="58" t="s">
         <v>140</v>
       </c>
       <c r="B46" s="23" t="s">
@@ -5925,8 +5929,8 @@
         <v>107</v>
       </c>
     </row>
-    <row r="47" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="49"/>
+    <row r="47" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A47" s="59"/>
       <c r="B47" s="23" t="s">
         <v>141</v>
       </c>
@@ -6009,7 +6013,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A48" s="24" t="s">
         <v>154</v>
       </c>
@@ -6086,14 +6090,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="27.42578125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="2.42578125" style="17" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="17"/>
+    <col min="1" max="2" width="27.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="2.5" style="17" customWidth="1"/>
+    <col min="4" max="16384" width="9.1640625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1" s="16" t="e">
         <f ca="1">DotStatQuery(B1)</f>
         <v>#NAME?</v>
@@ -6102,85 +6106,85 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="34.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" ht="39" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A3" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30" t="s">
+      <c r="B3" s="38"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
-      <c r="AA3" s="31"/>
-      <c r="AB3" s="32"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="42"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A4" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="30" t="s">
+      <c r="B4" s="38"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="32"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A5" s="33" t="s">
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="41"/>
+      <c r="X4" s="41"/>
+      <c r="Y4" s="41"/>
+      <c r="Z4" s="41"/>
+      <c r="AA4" s="41"/>
+      <c r="AB4" s="42"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A5" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="35"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="45"/>
       <c r="D5" s="19" t="s">
         <v>79</v>
       </c>
@@ -6257,79 +6261,79 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A6" s="33" t="s">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A6" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="36" t="s">
+      <c r="B6" s="44"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="37"/>
-      <c r="T6" s="37"/>
-      <c r="U6" s="37"/>
-      <c r="V6" s="37"/>
-      <c r="W6" s="37"/>
-      <c r="X6" s="37"/>
-      <c r="Y6" s="37"/>
-      <c r="Z6" s="37"/>
-      <c r="AA6" s="37"/>
-      <c r="AB6" s="38"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A7" s="33" t="s">
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="47"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="47"/>
+      <c r="U6" s="47"/>
+      <c r="V6" s="47"/>
+      <c r="W6" s="47"/>
+      <c r="X6" s="47"/>
+      <c r="Y6" s="47"/>
+      <c r="Z6" s="47"/>
+      <c r="AA6" s="47"/>
+      <c r="AB6" s="48"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A7" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="39" t="s">
+      <c r="B7" s="44"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="40"/>
-      <c r="W7" s="40"/>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="40"/>
-      <c r="Z7" s="40"/>
-      <c r="AA7" s="40"/>
-      <c r="AB7" s="41"/>
-    </row>
-    <row r="8" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="50"/>
+      <c r="U7" s="50"/>
+      <c r="V7" s="50"/>
+      <c r="W7" s="50"/>
+      <c r="X7" s="50"/>
+      <c r="Y7" s="50"/>
+      <c r="Z7" s="50"/>
+      <c r="AA7" s="50"/>
+      <c r="AB7" s="51"/>
+    </row>
+    <row r="8" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A8" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="43"/>
+      <c r="B8" s="53"/>
       <c r="C8" s="20" t="s">
         <v>7</v>
       </c>
@@ -6409,11 +6413,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="s">
+    <row r="9" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A9" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="45"/>
+      <c r="B9" s="55"/>
       <c r="C9" s="20" t="s">
         <v>7</v>
       </c>
@@ -6493,11 +6497,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
+    <row r="10" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A10" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="45"/>
+      <c r="B10" s="55"/>
       <c r="C10" s="20" t="s">
         <v>7</v>
       </c>
@@ -6577,11 +6581,11 @@
         <v>-0.99440499999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="44" t="s">
+    <row r="11" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A11" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="45"/>
+      <c r="B11" s="55"/>
       <c r="C11" s="20" t="s">
         <v>7</v>
       </c>
@@ -6661,11 +6665,11 @@
         <v>-1.4113450000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="44" t="s">
+    <row r="12" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A12" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="45"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="20" t="s">
         <v>7</v>
       </c>
@@ -6745,11 +6749,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
+    <row r="13" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A13" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="B13" s="45"/>
+      <c r="B13" s="55"/>
       <c r="C13" s="20" t="s">
         <v>7</v>
       </c>
@@ -6829,11 +6833,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
+    <row r="14" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A14" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="B14" s="45"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="20" t="s">
         <v>7</v>
       </c>
@@ -6913,11 +6917,11 @@
         <v>1.134908</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="44" t="s">
+    <row r="15" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A15" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="B15" s="45"/>
+      <c r="B15" s="55"/>
       <c r="C15" s="20" t="s">
         <v>7</v>
       </c>
@@ -6997,11 +7001,11 @@
         <v>3.9299620000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="44" t="s">
+    <row r="16" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A16" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="B16" s="45"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="20" t="s">
         <v>7</v>
       </c>
@@ -7081,11 +7085,11 @@
         <v>6.1357369999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="44" t="s">
+    <row r="17" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A17" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="B17" s="45"/>
+      <c r="B17" s="55"/>
       <c r="C17" s="20" t="s">
         <v>7</v>
       </c>
@@ -7165,11 +7169,11 @@
         <v>3.6655899999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="44" t="s">
+    <row r="18" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A18" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="B18" s="45"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="20" t="s">
         <v>7</v>
       </c>
@@ -7249,11 +7253,11 @@
         <v>0.82592299999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="46" t="s">
+    <row r="19" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A19" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="B19" s="47"/>
+      <c r="B19" s="57"/>
       <c r="C19" s="20" t="s">
         <v>7</v>
       </c>
@@ -7333,11 +7337,11 @@
         <v>-4.1779580000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="44" t="s">
+    <row r="20" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A20" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="B20" s="45"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="20" t="s">
         <v>7</v>
       </c>
@@ -7417,11 +7421,11 @@
         <v>-4.2968669999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="44" t="s">
+    <row r="21" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A21" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="B21" s="45"/>
+      <c r="B21" s="55"/>
       <c r="C21" s="20" t="s">
         <v>7</v>
       </c>
@@ -7501,11 +7505,11 @@
         <v>4.51973</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="44" t="s">
+    <row r="22" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A22" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="B22" s="45"/>
+      <c r="B22" s="55"/>
       <c r="C22" s="20" t="s">
         <v>7</v>
       </c>
@@ -7585,11 +7589,11 @@
         <v>3.9679389999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="46" t="s">
+    <row r="23" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A23" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="B23" s="47"/>
+      <c r="B23" s="57"/>
       <c r="C23" s="20" t="s">
         <v>7</v>
       </c>
@@ -7669,11 +7673,11 @@
         <v>1.147543</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="46" t="s">
+    <row r="24" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A24" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="B24" s="47"/>
+      <c r="B24" s="57"/>
       <c r="C24" s="20" t="s">
         <v>7</v>
       </c>
@@ -7753,11 +7757,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="44" t="s">
+    <row r="25" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A25" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="B25" s="45"/>
+      <c r="B25" s="55"/>
       <c r="C25" s="20" t="s">
         <v>7</v>
       </c>
@@ -7837,11 +7841,11 @@
         <v>-0.78071100000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="44" t="s">
+    <row r="26" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A26" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="B26" s="45"/>
+      <c r="B26" s="55"/>
       <c r="C26" s="20" t="s">
         <v>7</v>
       </c>
@@ -7921,11 +7925,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="44" t="s">
+    <row r="27" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A27" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="B27" s="45"/>
+      <c r="B27" s="55"/>
       <c r="C27" s="20" t="s">
         <v>7</v>
       </c>
@@ -8005,11 +8009,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="44" t="s">
+    <row r="28" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A28" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="B28" s="45"/>
+      <c r="B28" s="55"/>
       <c r="C28" s="20" t="s">
         <v>7</v>
       </c>
@@ -8089,11 +8093,11 @@
         <v>1.5516190000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="44" t="s">
+    <row r="29" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A29" s="54" t="s">
         <v>125</v>
       </c>
-      <c r="B29" s="45"/>
+      <c r="B29" s="55"/>
       <c r="C29" s="20" t="s">
         <v>7</v>
       </c>
@@ -8173,11 +8177,11 @@
         <v>2.7416559999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="44" t="s">
+    <row r="30" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A30" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="B30" s="45"/>
+      <c r="B30" s="55"/>
       <c r="C30" s="20" t="s">
         <v>7</v>
       </c>
@@ -8257,11 +8261,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="44" t="s">
+    <row r="31" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A31" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="B31" s="45"/>
+      <c r="B31" s="55"/>
       <c r="C31" s="20" t="s">
         <v>7</v>
       </c>
@@ -8341,11 +8345,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="44" t="s">
+    <row r="32" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A32" s="54" t="s">
         <v>128</v>
       </c>
-      <c r="B32" s="45"/>
+      <c r="B32" s="55"/>
       <c r="C32" s="20" t="s">
         <v>7</v>
       </c>
@@ -8425,11 +8429,11 @@
         <v>-1.2460469999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="44" t="s">
+    <row r="33" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A33" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="B33" s="45"/>
+      <c r="B33" s="55"/>
       <c r="C33" s="20" t="s">
         <v>7</v>
       </c>
@@ -8509,11 +8513,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="44" t="s">
+    <row r="34" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A34" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="B34" s="45"/>
+      <c r="B34" s="55"/>
       <c r="C34" s="20" t="s">
         <v>7</v>
       </c>
@@ -8593,11 +8597,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="44" t="s">
+    <row r="35" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A35" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="B35" s="45"/>
+      <c r="B35" s="55"/>
       <c r="C35" s="20" t="s">
         <v>7</v>
       </c>
@@ -8677,11 +8681,11 @@
         <v>7.6535659999999996</v>
       </c>
     </row>
-    <row r="36" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="44" t="s">
+    <row r="36" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A36" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="B36" s="45"/>
+      <c r="B36" s="55"/>
       <c r="C36" s="20" t="s">
         <v>7</v>
       </c>
@@ -8761,11 +8765,11 @@
         <v>-1.3690070000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="44" t="s">
+    <row r="37" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A37" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="B37" s="45"/>
+      <c r="B37" s="55"/>
       <c r="C37" s="20" t="s">
         <v>7</v>
       </c>
@@ -8845,11 +8849,11 @@
         <v>-2.4122000000000001E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="44" t="s">
+    <row r="38" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A38" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="B38" s="45"/>
+      <c r="B38" s="55"/>
       <c r="C38" s="20" t="s">
         <v>7</v>
       </c>
@@ -8929,11 +8933,11 @@
         <v>0.961565</v>
       </c>
     </row>
-    <row r="39" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="44" t="s">
+    <row r="39" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A39" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="B39" s="45"/>
+      <c r="B39" s="55"/>
       <c r="C39" s="20" t="s">
         <v>7</v>
       </c>
@@ -9013,11 +9017,11 @@
         <v>-1.138253</v>
       </c>
     </row>
-    <row r="40" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="44" t="s">
+    <row r="40" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A40" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="B40" s="45"/>
+      <c r="B40" s="55"/>
       <c r="C40" s="20" t="s">
         <v>7</v>
       </c>
@@ -9097,11 +9101,11 @@
         <v>1.128836</v>
       </c>
     </row>
-    <row r="41" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="44" t="s">
+    <row r="41" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A41" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="B41" s="45"/>
+      <c r="B41" s="55"/>
       <c r="C41" s="20" t="s">
         <v>7</v>
       </c>
@@ -9181,11 +9185,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="42" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="44" t="s">
+    <row r="42" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A42" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="B42" s="45"/>
+      <c r="B42" s="55"/>
       <c r="C42" s="20" t="s">
         <v>7</v>
       </c>
@@ -9265,11 +9269,11 @@
         <v>-1.6236679999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="44" t="s">
+    <row r="43" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A43" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="B43" s="45"/>
+      <c r="B43" s="55"/>
       <c r="C43" s="20" t="s">
         <v>7</v>
       </c>
@@ -9349,11 +9353,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="44" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="44" t="s">
+    <row r="44" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A44" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="B44" s="45"/>
+      <c r="B44" s="55"/>
       <c r="C44" s="20" t="s">
         <v>7</v>
       </c>
@@ -9433,11 +9437,11 @@
         <v>-1.8656619999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="44" t="s">
+    <row r="45" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A45" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="B45" s="45"/>
+      <c r="B45" s="55"/>
       <c r="C45" s="20" t="s">
         <v>7</v>
       </c>
@@ -9517,8 +9521,8 @@
         <v>-0.77878700000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="48" t="s">
+    <row r="46" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A46" s="58" t="s">
         <v>140</v>
       </c>
       <c r="B46" s="23" t="s">
@@ -9603,8 +9607,8 @@
         <v>107</v>
       </c>
     </row>
-    <row r="47" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="49"/>
+    <row r="47" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A47" s="59"/>
       <c r="B47" s="23" t="s">
         <v>141</v>
       </c>
@@ -9687,7 +9691,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A48" s="24" t="s">
         <v>152</v>
       </c>
@@ -9764,14 +9768,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="27.42578125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="2.42578125" style="17" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="17"/>
+    <col min="1" max="2" width="27.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="2.5" style="17" customWidth="1"/>
+    <col min="4" max="16384" width="9.1640625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1" s="16" t="e">
         <f ca="1">DotStatQuery(B1)</f>
         <v>#NAME?</v>
@@ -9780,85 +9784,85 @@
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="34.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" ht="39" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A3" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30" t="s">
+      <c r="B3" s="38"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
-      <c r="AA3" s="31"/>
-      <c r="AB3" s="32"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="42"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A4" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="30" t="s">
+      <c r="B4" s="38"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="32"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A5" s="33" t="s">
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="41"/>
+      <c r="X4" s="41"/>
+      <c r="Y4" s="41"/>
+      <c r="Z4" s="41"/>
+      <c r="AA4" s="41"/>
+      <c r="AB4" s="42"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A5" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="35"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="45"/>
       <c r="D5" s="19" t="s">
         <v>79</v>
       </c>
@@ -9935,79 +9939,79 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A6" s="33" t="s">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A6" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="36" t="s">
+      <c r="B6" s="44"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="37"/>
-      <c r="T6" s="37"/>
-      <c r="U6" s="37"/>
-      <c r="V6" s="37"/>
-      <c r="W6" s="37"/>
-      <c r="X6" s="37"/>
-      <c r="Y6" s="37"/>
-      <c r="Z6" s="37"/>
-      <c r="AA6" s="37"/>
-      <c r="AB6" s="38"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A7" s="33" t="s">
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="47"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="47"/>
+      <c r="U6" s="47"/>
+      <c r="V6" s="47"/>
+      <c r="W6" s="47"/>
+      <c r="X6" s="47"/>
+      <c r="Y6" s="47"/>
+      <c r="Z6" s="47"/>
+      <c r="AA6" s="47"/>
+      <c r="AB6" s="48"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A7" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="39" t="s">
+      <c r="B7" s="44"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="40"/>
-      <c r="W7" s="40"/>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="40"/>
-      <c r="Z7" s="40"/>
-      <c r="AA7" s="40"/>
-      <c r="AB7" s="41"/>
-    </row>
-    <row r="8" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="50"/>
+      <c r="U7" s="50"/>
+      <c r="V7" s="50"/>
+      <c r="W7" s="50"/>
+      <c r="X7" s="50"/>
+      <c r="Y7" s="50"/>
+      <c r="Z7" s="50"/>
+      <c r="AA7" s="50"/>
+      <c r="AB7" s="51"/>
+    </row>
+    <row r="8" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A8" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="43"/>
+      <c r="B8" s="53"/>
       <c r="C8" s="20" t="s">
         <v>7</v>
       </c>
@@ -10087,11 +10091,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="s">
+    <row r="9" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A9" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="45"/>
+      <c r="B9" s="55"/>
       <c r="C9" s="20" t="s">
         <v>7</v>
       </c>
@@ -10171,11 +10175,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
+    <row r="10" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A10" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="45"/>
+      <c r="B10" s="55"/>
       <c r="C10" s="20" t="s">
         <v>7</v>
       </c>
@@ -10255,11 +10259,11 @@
         <v>-1.2365539999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="44" t="s">
+    <row r="11" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A11" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="45"/>
+      <c r="B11" s="55"/>
       <c r="C11" s="20" t="s">
         <v>7</v>
       </c>
@@ -10339,11 +10343,11 @@
         <v>2.221692</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="44" t="s">
+    <row r="12" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A12" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="45"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="20" t="s">
         <v>7</v>
       </c>
@@ -10423,11 +10427,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
+    <row r="13" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A13" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="B13" s="45"/>
+      <c r="B13" s="55"/>
       <c r="C13" s="20" t="s">
         <v>7</v>
       </c>
@@ -10507,11 +10511,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
+    <row r="14" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A14" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="B14" s="45"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="20" t="s">
         <v>7</v>
       </c>
@@ -10591,11 +10595,11 @@
         <v>2.0482369999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="44" t="s">
+    <row r="15" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A15" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="B15" s="45"/>
+      <c r="B15" s="55"/>
       <c r="C15" s="20" t="s">
         <v>7</v>
       </c>
@@ -10675,11 +10679,11 @@
         <v>-1.843931</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="44" t="s">
+    <row r="16" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A16" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="B16" s="45"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="20" t="s">
         <v>7</v>
       </c>
@@ -10759,11 +10763,11 @@
         <v>-4.366085</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="44" t="s">
+    <row r="17" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A17" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="B17" s="45"/>
+      <c r="B17" s="55"/>
       <c r="C17" s="20" t="s">
         <v>7</v>
       </c>
@@ -10843,11 +10847,11 @@
         <v>3.2391000000000003E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="44" t="s">
+    <row r="18" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A18" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="B18" s="45"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="20" t="s">
         <v>7</v>
       </c>
@@ -10927,11 +10931,11 @@
         <v>1.1120110000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="46" t="s">
+    <row r="19" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A19" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="B19" s="47"/>
+      <c r="B19" s="57"/>
       <c r="C19" s="20" t="s">
         <v>7</v>
       </c>
@@ -11011,11 +11015,11 @@
         <v>2.3481399999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="44" t="s">
+    <row r="20" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A20" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="B20" s="45"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="20" t="s">
         <v>7</v>
       </c>
@@ -11095,11 +11099,11 @@
         <v>14.606757999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="44" t="s">
+    <row r="21" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A21" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="B21" s="45"/>
+      <c r="B21" s="55"/>
       <c r="C21" s="20" t="s">
         <v>7</v>
       </c>
@@ -11179,11 +11183,11 @@
         <v>10.282043</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="44" t="s">
+    <row r="22" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A22" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="B22" s="45"/>
+      <c r="B22" s="55"/>
       <c r="C22" s="20" t="s">
         <v>7</v>
       </c>
@@ -11263,11 +11267,11 @@
         <v>-0.77415500000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="46" t="s">
+    <row r="23" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A23" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="B23" s="47"/>
+      <c r="B23" s="57"/>
       <c r="C23" s="20" t="s">
         <v>7</v>
       </c>
@@ -11347,11 +11351,11 @@
         <v>3.0678649999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="46" t="s">
+    <row r="24" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A24" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="B24" s="47"/>
+      <c r="B24" s="57"/>
       <c r="C24" s="20" t="s">
         <v>7</v>
       </c>
@@ -11431,11 +11435,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="44" t="s">
+    <row r="25" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A25" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="B25" s="45"/>
+      <c r="B25" s="55"/>
       <c r="C25" s="20" t="s">
         <v>7</v>
       </c>
@@ -11515,11 +11519,11 @@
         <v>1.021649</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="44" t="s">
+    <row r="26" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A26" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="B26" s="45"/>
+      <c r="B26" s="55"/>
       <c r="C26" s="20" t="s">
         <v>7</v>
       </c>
@@ -11599,11 +11603,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="44" t="s">
+    <row r="27" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A27" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="B27" s="45"/>
+      <c r="B27" s="55"/>
       <c r="C27" s="20" t="s">
         <v>7</v>
       </c>
@@ -11683,11 +11687,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="44" t="s">
+    <row r="28" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A28" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="B28" s="45"/>
+      <c r="B28" s="55"/>
       <c r="C28" s="20" t="s">
         <v>7</v>
       </c>
@@ -11767,11 +11771,11 @@
         <v>0.51915</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="44" t="s">
+    <row r="29" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A29" s="54" t="s">
         <v>125</v>
       </c>
-      <c r="B29" s="45"/>
+      <c r="B29" s="55"/>
       <c r="C29" s="20" t="s">
         <v>7</v>
       </c>
@@ -11851,11 +11855,11 @@
         <v>5.2213000000000002E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="44" t="s">
+    <row r="30" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A30" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="B30" s="45"/>
+      <c r="B30" s="55"/>
       <c r="C30" s="20" t="s">
         <v>7</v>
       </c>
@@ -11935,11 +11939,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="44" t="s">
+    <row r="31" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A31" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="B31" s="45"/>
+      <c r="B31" s="55"/>
       <c r="C31" s="20" t="s">
         <v>7</v>
       </c>
@@ -12019,11 +12023,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="44" t="s">
+    <row r="32" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A32" s="54" t="s">
         <v>128</v>
       </c>
-      <c r="B32" s="45"/>
+      <c r="B32" s="55"/>
       <c r="C32" s="20" t="s">
         <v>7</v>
       </c>
@@ -12103,11 +12107,11 @@
         <v>1.257098</v>
       </c>
     </row>
-    <row r="33" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="44" t="s">
+    <row r="33" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A33" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="B33" s="45"/>
+      <c r="B33" s="55"/>
       <c r="C33" s="20" t="s">
         <v>7</v>
       </c>
@@ -12187,11 +12191,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="44" t="s">
+    <row r="34" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A34" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="B34" s="45"/>
+      <c r="B34" s="55"/>
       <c r="C34" s="20" t="s">
         <v>7</v>
       </c>
@@ -12271,11 +12275,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="44" t="s">
+    <row r="35" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A35" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="B35" s="45"/>
+      <c r="B35" s="55"/>
       <c r="C35" s="20" t="s">
         <v>7</v>
       </c>
@@ -12355,11 +12359,11 @@
         <v>-1.094258</v>
       </c>
     </row>
-    <row r="36" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="44" t="s">
+    <row r="36" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A36" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="B36" s="45"/>
+      <c r="B36" s="55"/>
       <c r="C36" s="20" t="s">
         <v>7</v>
       </c>
@@ -12439,11 +12443,11 @@
         <v>5.6272799999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="44" t="s">
+    <row r="37" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A37" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="B37" s="45"/>
+      <c r="B37" s="55"/>
       <c r="C37" s="20" t="s">
         <v>7</v>
       </c>
@@ -12523,11 +12527,11 @@
         <v>-3.3248039999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="44" t="s">
+    <row r="38" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A38" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="B38" s="45"/>
+      <c r="B38" s="55"/>
       <c r="C38" s="20" t="s">
         <v>7</v>
       </c>
@@ -12607,11 +12611,11 @@
         <v>-3.5240450000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="44" t="s">
+    <row r="39" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A39" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="B39" s="45"/>
+      <c r="B39" s="55"/>
       <c r="C39" s="20" t="s">
         <v>7</v>
       </c>
@@ -12691,11 +12695,11 @@
         <v>-1.659033</v>
       </c>
     </row>
-    <row r="40" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="44" t="s">
+    <row r="40" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A40" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="B40" s="45"/>
+      <c r="B40" s="55"/>
       <c r="C40" s="20" t="s">
         <v>7</v>
       </c>
@@ -12775,11 +12779,11 @@
         <v>0.90396600000000005</v>
       </c>
     </row>
-    <row r="41" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="44" t="s">
+    <row r="41" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A41" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="B41" s="45"/>
+      <c r="B41" s="55"/>
       <c r="C41" s="20" t="s">
         <v>7</v>
       </c>
@@ -12859,11 +12863,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="42" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="44" t="s">
+    <row r="42" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A42" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="B42" s="45"/>
+      <c r="B42" s="55"/>
       <c r="C42" s="20" t="s">
         <v>7</v>
       </c>
@@ -12943,11 +12947,11 @@
         <v>2.8399130000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="44" t="s">
+    <row r="43" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A43" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="B43" s="45"/>
+      <c r="B43" s="55"/>
       <c r="C43" s="20" t="s">
         <v>7</v>
       </c>
@@ -13027,11 +13031,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="44" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="44" t="s">
+    <row r="44" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A44" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="B44" s="45"/>
+      <c r="B44" s="55"/>
       <c r="C44" s="20" t="s">
         <v>7</v>
       </c>
@@ -13111,11 +13115,11 @@
         <v>0.59411499999999995</v>
       </c>
     </row>
-    <row r="45" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="44" t="s">
+    <row r="45" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A45" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="B45" s="45"/>
+      <c r="B45" s="55"/>
       <c r="C45" s="20" t="s">
         <v>7</v>
       </c>
@@ -13195,8 +13199,8 @@
         <v>0.809307</v>
       </c>
     </row>
-    <row r="46" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="48" t="s">
+    <row r="46" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A46" s="58" t="s">
         <v>140</v>
       </c>
       <c r="B46" s="23" t="s">
@@ -13281,8 +13285,8 @@
         <v>107</v>
       </c>
     </row>
-    <row r="47" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="49"/>
+    <row r="47" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A47" s="59"/>
       <c r="B47" s="23" t="s">
         <v>141</v>
       </c>
@@ -13365,7 +13369,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A48" s="24" t="s">
         <v>147</v>
       </c>
@@ -13442,14 +13446,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="27.42578125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="2.42578125" style="6" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="2" width="27.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="2.5" style="6" customWidth="1"/>
+    <col min="4" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="e">
         <f ca="1">DotStatQuery(B1)</f>
         <v>#NAME?</v>
@@ -13458,85 +13462,85 @@
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="34.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" ht="39" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A3" s="50" t="s">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A3" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="53" t="s">
+      <c r="B3" s="61"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54"/>
-      <c r="W3" s="54"/>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="55"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A4" s="50" t="s">
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="64"/>
+      <c r="U3" s="64"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="64"/>
+      <c r="X3" s="64"/>
+      <c r="Y3" s="64"/>
+      <c r="Z3" s="64"/>
+      <c r="AA3" s="64"/>
+      <c r="AB3" s="65"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A4" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="53" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="63" t="s">
         <v>165</v>
       </c>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="54"/>
-      <c r="S4" s="54"/>
-      <c r="T4" s="54"/>
-      <c r="U4" s="54"/>
-      <c r="V4" s="54"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="55"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A5" s="56" t="s">
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64"/>
+      <c r="Q4" s="64"/>
+      <c r="R4" s="64"/>
+      <c r="S4" s="64"/>
+      <c r="T4" s="64"/>
+      <c r="U4" s="64"/>
+      <c r="V4" s="64"/>
+      <c r="W4" s="64"/>
+      <c r="X4" s="64"/>
+      <c r="Y4" s="64"/>
+      <c r="Z4" s="64"/>
+      <c r="AA4" s="64"/>
+      <c r="AB4" s="65"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A5" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="58"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="68"/>
       <c r="D5" s="8" t="s">
         <v>79</v>
       </c>
@@ -13613,79 +13617,79 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A6" s="56" t="s">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A6" s="66" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="59" t="s">
+      <c r="B6" s="67"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="69" t="s">
         <v>104</v>
       </c>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="60"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="60"/>
-      <c r="S6" s="60"/>
-      <c r="T6" s="60"/>
-      <c r="U6" s="60"/>
-      <c r="V6" s="60"/>
-      <c r="W6" s="60"/>
-      <c r="X6" s="60"/>
-      <c r="Y6" s="60"/>
-      <c r="Z6" s="60"/>
-      <c r="AA6" s="60"/>
-      <c r="AB6" s="61"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A7" s="56" t="s">
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="70"/>
+      <c r="R6" s="70"/>
+      <c r="S6" s="70"/>
+      <c r="T6" s="70"/>
+      <c r="U6" s="70"/>
+      <c r="V6" s="70"/>
+      <c r="W6" s="70"/>
+      <c r="X6" s="70"/>
+      <c r="Y6" s="70"/>
+      <c r="Z6" s="70"/>
+      <c r="AA6" s="70"/>
+      <c r="AB6" s="71"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A7" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="62" t="s">
+      <c r="B7" s="67"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="72" t="s">
         <v>105</v>
       </c>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="63"/>
-      <c r="N7" s="63"/>
-      <c r="O7" s="63"/>
-      <c r="P7" s="63"/>
-      <c r="Q7" s="63"/>
-      <c r="R7" s="63"/>
-      <c r="S7" s="63"/>
-      <c r="T7" s="63"/>
-      <c r="U7" s="63"/>
-      <c r="V7" s="63"/>
-      <c r="W7" s="63"/>
-      <c r="X7" s="63"/>
-      <c r="Y7" s="63"/>
-      <c r="Z7" s="63"/>
-      <c r="AA7" s="63"/>
-      <c r="AB7" s="64"/>
-    </row>
-    <row r="8" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="65" t="s">
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="73"/>
+      <c r="Q7" s="73"/>
+      <c r="R7" s="73"/>
+      <c r="S7" s="73"/>
+      <c r="T7" s="73"/>
+      <c r="U7" s="73"/>
+      <c r="V7" s="73"/>
+      <c r="W7" s="73"/>
+      <c r="X7" s="73"/>
+      <c r="Y7" s="73"/>
+      <c r="Z7" s="73"/>
+      <c r="AA7" s="73"/>
+      <c r="AB7" s="74"/>
+    </row>
+    <row r="8" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A8" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="66"/>
+      <c r="B8" s="76"/>
       <c r="C8" s="9" t="s">
         <v>7</v>
       </c>
@@ -13765,11 +13769,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="67" t="s">
+    <row r="9" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A9" s="77" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="68"/>
+      <c r="B9" s="78"/>
       <c r="C9" s="9" t="s">
         <v>7</v>
       </c>
@@ -13849,11 +13853,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="67" t="s">
+    <row r="10" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A10" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="68"/>
+      <c r="B10" s="78"/>
       <c r="C10" s="9" t="s">
         <v>7</v>
       </c>
@@ -13933,11 +13937,11 @@
         <v>1.2860119999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="67" t="s">
+    <row r="11" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A11" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="68"/>
+      <c r="B11" s="78"/>
       <c r="C11" s="9" t="s">
         <v>7</v>
       </c>
@@ -14017,11 +14021,11 @@
         <v>-0.35018700000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="67" t="s">
+    <row r="12" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A12" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="68"/>
+      <c r="B12" s="78"/>
       <c r="C12" s="9" t="s">
         <v>7</v>
       </c>
@@ -14101,11 +14105,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="67" t="s">
+    <row r="13" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A13" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="B13" s="68"/>
+      <c r="B13" s="78"/>
       <c r="C13" s="9" t="s">
         <v>7</v>
       </c>
@@ -14185,11 +14189,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="67" t="s">
+    <row r="14" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A14" s="77" t="s">
         <v>112</v>
       </c>
-      <c r="B14" s="68"/>
+      <c r="B14" s="78"/>
       <c r="C14" s="9" t="s">
         <v>7</v>
       </c>
@@ -14269,11 +14273,11 @@
         <v>2.1498759999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="67" t="s">
+    <row r="15" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A15" s="77" t="s">
         <v>113</v>
       </c>
-      <c r="B15" s="68"/>
+      <c r="B15" s="78"/>
       <c r="C15" s="9" t="s">
         <v>7</v>
       </c>
@@ -14353,11 +14357,11 @@
         <v>2.0222370000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="67" t="s">
+    <row r="16" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A16" s="77" t="s">
         <v>114</v>
       </c>
-      <c r="B16" s="68"/>
+      <c r="B16" s="78"/>
       <c r="C16" s="9" t="s">
         <v>7</v>
       </c>
@@ -14437,11 +14441,11 @@
         <v>5.7767580000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="67" t="s">
+    <row r="17" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A17" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="B17" s="68"/>
+      <c r="B17" s="78"/>
       <c r="C17" s="9" t="s">
         <v>7</v>
       </c>
@@ -14521,11 +14525,11 @@
         <v>0.22875699999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="67" t="s">
+    <row r="18" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A18" s="77" t="s">
         <v>116</v>
       </c>
-      <c r="B18" s="68"/>
+      <c r="B18" s="78"/>
       <c r="C18" s="9" t="s">
         <v>7</v>
       </c>
@@ -14605,11 +14609,11 @@
         <v>1.154471</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="69" t="s">
+    <row r="19" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A19" s="79" t="s">
         <v>117</v>
       </c>
-      <c r="B19" s="70"/>
+      <c r="B19" s="80"/>
       <c r="C19" s="9" t="s">
         <v>7</v>
       </c>
@@ -14689,11 +14693,11 @@
         <v>1.819712</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="67" t="s">
+    <row r="20" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A20" s="77" t="s">
         <v>118</v>
       </c>
-      <c r="B20" s="68"/>
+      <c r="B20" s="78"/>
       <c r="C20" s="9" t="s">
         <v>7</v>
       </c>
@@ -14773,11 +14777,11 @@
         <v>0.21718399999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="67" t="s">
+    <row r="21" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A21" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="B21" s="68"/>
+      <c r="B21" s="78"/>
       <c r="C21" s="9" t="s">
         <v>7</v>
       </c>
@@ -14857,11 +14861,11 @@
         <v>4.8727289999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="67" t="s">
+    <row r="22" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A22" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="B22" s="68"/>
+      <c r="B22" s="78"/>
       <c r="C22" s="9" t="s">
         <v>7</v>
       </c>
@@ -14941,11 +14945,11 @@
         <v>1.7411540000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="69" t="s">
+    <row r="23" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A23" s="79" t="s">
         <v>121</v>
       </c>
-      <c r="B23" s="70"/>
+      <c r="B23" s="80"/>
       <c r="C23" s="9" t="s">
         <v>7</v>
       </c>
@@ -15025,11 +15029,11 @@
         <v>-5.7334000000000003E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="69" t="s">
+    <row r="24" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A24" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="B24" s="70"/>
+      <c r="B24" s="80"/>
       <c r="C24" s="9" t="s">
         <v>7</v>
       </c>
@@ -15109,11 +15113,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="67" t="s">
+    <row r="25" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A25" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="B25" s="68"/>
+      <c r="B25" s="78"/>
       <c r="C25" s="9" t="s">
         <v>7</v>
       </c>
@@ -15193,11 +15197,11 @@
         <v>-0.540134</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="67" t="s">
+    <row r="26" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A26" s="77" t="s">
         <v>149</v>
       </c>
-      <c r="B26" s="68"/>
+      <c r="B26" s="78"/>
       <c r="C26" s="9" t="s">
         <v>7</v>
       </c>
@@ -15277,11 +15281,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="67" t="s">
+    <row r="27" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A27" s="77" t="s">
         <v>145</v>
       </c>
-      <c r="B27" s="68"/>
+      <c r="B27" s="78"/>
       <c r="C27" s="9" t="s">
         <v>164</v>
       </c>
@@ -15361,11 +15365,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="67" t="s">
+    <row r="28" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A28" s="77" t="s">
         <v>124</v>
       </c>
-      <c r="B28" s="68"/>
+      <c r="B28" s="78"/>
       <c r="C28" s="9" t="s">
         <v>7</v>
       </c>
@@ -15445,11 +15449,11 @@
         <v>2.1947709999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="67" t="s">
+    <row r="29" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A29" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="B29" s="68"/>
+      <c r="B29" s="78"/>
       <c r="C29" s="9" t="s">
         <v>7</v>
       </c>
@@ -15529,11 +15533,11 @@
         <v>2.8565960000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="67" t="s">
+    <row r="30" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A30" s="77" t="s">
         <v>126</v>
       </c>
-      <c r="B30" s="68"/>
+      <c r="B30" s="78"/>
       <c r="C30" s="9" t="s">
         <v>7</v>
       </c>
@@ -15613,11 +15617,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="67" t="s">
+    <row r="31" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A31" s="77" t="s">
         <v>127</v>
       </c>
-      <c r="B31" s="68"/>
+      <c r="B31" s="78"/>
       <c r="C31" s="9" t="s">
         <v>7</v>
       </c>
@@ -15697,11 +15701,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="67" t="s">
+    <row r="32" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A32" s="77" t="s">
         <v>128</v>
       </c>
-      <c r="B32" s="68"/>
+      <c r="B32" s="78"/>
       <c r="C32" s="9" t="s">
         <v>7</v>
       </c>
@@ -15781,11 +15785,11 @@
         <v>0.743533</v>
       </c>
     </row>
-    <row r="33" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="67" t="s">
+    <row r="33" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A33" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="B33" s="68"/>
+      <c r="B33" s="78"/>
       <c r="C33" s="9" t="s">
         <v>7</v>
       </c>
@@ -15865,11 +15869,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="67" t="s">
+    <row r="34" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A34" s="77" t="s">
         <v>130</v>
       </c>
-      <c r="B34" s="68"/>
+      <c r="B34" s="78"/>
       <c r="C34" s="9" t="s">
         <v>7</v>
       </c>
@@ -15949,11 +15953,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="67" t="s">
+    <row r="35" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A35" s="77" t="s">
         <v>131</v>
       </c>
-      <c r="B35" s="68"/>
+      <c r="B35" s="78"/>
       <c r="C35" s="9" t="s">
         <v>7</v>
       </c>
@@ -16033,11 +16037,11 @@
         <v>5.9123140000000003</v>
       </c>
     </row>
-    <row r="36" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="67" t="s">
+    <row r="36" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A36" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="B36" s="68"/>
+      <c r="B36" s="78"/>
       <c r="C36" s="9" t="s">
         <v>7</v>
       </c>
@@ -16117,11 +16121,11 @@
         <v>2.2810640000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="67" t="s">
+    <row r="37" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A37" s="77" t="s">
         <v>133</v>
       </c>
-      <c r="B37" s="68"/>
+      <c r="B37" s="78"/>
       <c r="C37" s="9" t="s">
         <v>7</v>
       </c>
@@ -16201,11 +16205,11 @@
         <v>-0.19525600000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="67" t="s">
+    <row r="38" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A38" s="77" t="s">
         <v>134</v>
       </c>
-      <c r="B38" s="68"/>
+      <c r="B38" s="78"/>
       <c r="C38" s="9" t="s">
         <v>7</v>
       </c>
@@ -16285,11 +16289,11 @@
         <v>0.36936200000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="67" t="s">
+    <row r="39" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A39" s="77" t="s">
         <v>135</v>
       </c>
-      <c r="B39" s="68"/>
+      <c r="B39" s="78"/>
       <c r="C39" s="9" t="s">
         <v>7</v>
       </c>
@@ -16369,11 +16373,11 @@
         <v>0.74837299999999995</v>
       </c>
     </row>
-    <row r="40" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="67" t="s">
+    <row r="40" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A40" s="77" t="s">
         <v>136</v>
       </c>
-      <c r="B40" s="68"/>
+      <c r="B40" s="78"/>
       <c r="C40" s="9" t="s">
         <v>7</v>
       </c>
@@ -16453,11 +16457,11 @@
         <v>0.93288300000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="67" t="s">
+    <row r="41" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A41" s="77" t="s">
         <v>142</v>
       </c>
-      <c r="B41" s="68"/>
+      <c r="B41" s="78"/>
       <c r="C41" s="9" t="s">
         <v>7</v>
       </c>
@@ -16537,11 +16541,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="42" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="67" t="s">
+    <row r="42" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A42" s="77" t="s">
         <v>137</v>
       </c>
-      <c r="B42" s="68"/>
+      <c r="B42" s="78"/>
       <c r="C42" s="9" t="s">
         <v>7</v>
       </c>
@@ -16621,11 +16625,11 @@
         <v>2.492918</v>
       </c>
     </row>
-    <row r="43" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="67" t="s">
+    <row r="43" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A43" s="77" t="s">
         <v>144</v>
       </c>
-      <c r="B43" s="68"/>
+      <c r="B43" s="78"/>
       <c r="C43" s="9" t="s">
         <v>7</v>
       </c>
@@ -16705,11 +16709,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="44" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="67" t="s">
+    <row r="44" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A44" s="77" t="s">
         <v>138</v>
       </c>
-      <c r="B44" s="68"/>
+      <c r="B44" s="78"/>
       <c r="C44" s="9" t="s">
         <v>7</v>
       </c>
@@ -16789,11 +16793,11 @@
         <v>0.55889599999999995</v>
       </c>
     </row>
-    <row r="45" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="67" t="s">
+    <row r="45" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A45" s="77" t="s">
         <v>139</v>
       </c>
-      <c r="B45" s="68"/>
+      <c r="B45" s="78"/>
       <c r="C45" s="9" t="s">
         <v>7</v>
       </c>
@@ -16873,8 +16877,8 @@
         <v>1.226499</v>
       </c>
     </row>
-    <row r="46" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="71" t="s">
+    <row r="46" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A46" s="81" t="s">
         <v>140</v>
       </c>
       <c r="B46" s="10" t="s">
@@ -16959,8 +16963,8 @@
         <v>107</v>
       </c>
     </row>
-    <row r="47" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="72"/>
+    <row r="47" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A47" s="82"/>
       <c r="B47" s="10" t="s">
         <v>141</v>
       </c>
@@ -17043,7 +17047,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A48" s="13" t="s">
         <v>163</v>
       </c>
@@ -17121,14 +17125,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="27.42578125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="2.42578125" style="6" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="2" width="27.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="2.5" style="6" customWidth="1"/>
+    <col min="4" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="e">
         <f ca="1">DotStatQuery(B1)</f>
         <v>#NAME?</v>
@@ -17137,85 +17141,85 @@
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="34.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" ht="39" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A3" s="50" t="s">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A3" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="53" t="s">
+      <c r="B3" s="61"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54"/>
-      <c r="W3" s="54"/>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="55"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A4" s="50" t="s">
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="64"/>
+      <c r="U3" s="64"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="64"/>
+      <c r="X3" s="64"/>
+      <c r="Y3" s="64"/>
+      <c r="Z3" s="64"/>
+      <c r="AA3" s="64"/>
+      <c r="AB3" s="65"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A4" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="53" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="63" t="s">
         <v>169</v>
       </c>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="54"/>
-      <c r="S4" s="54"/>
-      <c r="T4" s="54"/>
-      <c r="U4" s="54"/>
-      <c r="V4" s="54"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="55"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A5" s="56" t="s">
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64"/>
+      <c r="Q4" s="64"/>
+      <c r="R4" s="64"/>
+      <c r="S4" s="64"/>
+      <c r="T4" s="64"/>
+      <c r="U4" s="64"/>
+      <c r="V4" s="64"/>
+      <c r="W4" s="64"/>
+      <c r="X4" s="64"/>
+      <c r="Y4" s="64"/>
+      <c r="Z4" s="64"/>
+      <c r="AA4" s="64"/>
+      <c r="AB4" s="65"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A5" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="58"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="68"/>
       <c r="D5" s="8" t="s">
         <v>79</v>
       </c>
@@ -17292,79 +17296,79 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A6" s="56" t="s">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A6" s="66" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="59" t="s">
+      <c r="B6" s="67"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="69" t="s">
         <v>104</v>
       </c>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="60"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="60"/>
-      <c r="S6" s="60"/>
-      <c r="T6" s="60"/>
-      <c r="U6" s="60"/>
-      <c r="V6" s="60"/>
-      <c r="W6" s="60"/>
-      <c r="X6" s="60"/>
-      <c r="Y6" s="60"/>
-      <c r="Z6" s="60"/>
-      <c r="AA6" s="60"/>
-      <c r="AB6" s="61"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A7" s="56" t="s">
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="70"/>
+      <c r="R6" s="70"/>
+      <c r="S6" s="70"/>
+      <c r="T6" s="70"/>
+      <c r="U6" s="70"/>
+      <c r="V6" s="70"/>
+      <c r="W6" s="70"/>
+      <c r="X6" s="70"/>
+      <c r="Y6" s="70"/>
+      <c r="Z6" s="70"/>
+      <c r="AA6" s="70"/>
+      <c r="AB6" s="71"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A7" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="62" t="s">
+      <c r="B7" s="67"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="72" t="s">
         <v>105</v>
       </c>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="63"/>
-      <c r="N7" s="63"/>
-      <c r="O7" s="63"/>
-      <c r="P7" s="63"/>
-      <c r="Q7" s="63"/>
-      <c r="R7" s="63"/>
-      <c r="S7" s="63"/>
-      <c r="T7" s="63"/>
-      <c r="U7" s="63"/>
-      <c r="V7" s="63"/>
-      <c r="W7" s="63"/>
-      <c r="X7" s="63"/>
-      <c r="Y7" s="63"/>
-      <c r="Z7" s="63"/>
-      <c r="AA7" s="63"/>
-      <c r="AB7" s="64"/>
-    </row>
-    <row r="8" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="65" t="s">
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="73"/>
+      <c r="Q7" s="73"/>
+      <c r="R7" s="73"/>
+      <c r="S7" s="73"/>
+      <c r="T7" s="73"/>
+      <c r="U7" s="73"/>
+      <c r="V7" s="73"/>
+      <c r="W7" s="73"/>
+      <c r="X7" s="73"/>
+      <c r="Y7" s="73"/>
+      <c r="Z7" s="73"/>
+      <c r="AA7" s="73"/>
+      <c r="AB7" s="74"/>
+    </row>
+    <row r="8" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A8" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="66"/>
+      <c r="B8" s="76"/>
       <c r="C8" s="9" t="s">
         <v>7</v>
       </c>
@@ -17444,11 +17448,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="67" t="s">
+    <row r="9" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A9" s="77" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="68"/>
+      <c r="B9" s="78"/>
       <c r="C9" s="9" t="s">
         <v>7</v>
       </c>
@@ -17528,11 +17532,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="67" t="s">
+    <row r="10" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A10" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="68"/>
+      <c r="B10" s="78"/>
       <c r="C10" s="9" t="s">
         <v>7</v>
       </c>
@@ -17612,11 +17616,11 @@
         <v>-1.0669930000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="67" t="s">
+    <row r="11" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A11" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="68"/>
+      <c r="B11" s="78"/>
       <c r="C11" s="9" t="s">
         <v>7</v>
       </c>
@@ -17696,11 +17700,11 @@
         <v>-0.58229799999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="67" t="s">
+    <row r="12" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A12" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="68"/>
+      <c r="B12" s="78"/>
       <c r="C12" s="9" t="s">
         <v>7</v>
       </c>
@@ -17780,11 +17784,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="67" t="s">
+    <row r="13" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A13" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="B13" s="68"/>
+      <c r="B13" s="78"/>
       <c r="C13" s="9" t="s">
         <v>7</v>
       </c>
@@ -17864,11 +17868,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="67" t="s">
+    <row r="14" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A14" s="77" t="s">
         <v>112</v>
       </c>
-      <c r="B14" s="68"/>
+      <c r="B14" s="78"/>
       <c r="C14" s="9" t="s">
         <v>7</v>
       </c>
@@ -17948,11 +17952,11 @@
         <v>2.7130079999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="67" t="s">
+    <row r="15" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A15" s="77" t="s">
         <v>113</v>
       </c>
-      <c r="B15" s="68"/>
+      <c r="B15" s="78"/>
       <c r="C15" s="9" t="s">
         <v>7</v>
       </c>
@@ -18032,11 +18036,11 @@
         <v>0.363234</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="67" t="s">
+    <row r="16" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A16" s="77" t="s">
         <v>114</v>
       </c>
-      <c r="B16" s="68"/>
+      <c r="B16" s="78"/>
       <c r="C16" s="9" t="s">
         <v>7</v>
       </c>
@@ -18116,11 +18120,11 @@
         <v>13.112273999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="67" t="s">
+    <row r="17" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A17" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="B17" s="68"/>
+      <c r="B17" s="78"/>
       <c r="C17" s="9" t="s">
         <v>7</v>
       </c>
@@ -18200,11 +18204,11 @@
         <v>-1.184814</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="67" t="s">
+    <row r="18" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A18" s="77" t="s">
         <v>116</v>
       </c>
-      <c r="B18" s="68"/>
+      <c r="B18" s="78"/>
       <c r="C18" s="9" t="s">
         <v>7</v>
       </c>
@@ -18284,11 +18288,11 @@
         <v>4.5946550000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="69" t="s">
+    <row r="19" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A19" s="79" t="s">
         <v>117</v>
       </c>
-      <c r="B19" s="70"/>
+      <c r="B19" s="80"/>
       <c r="C19" s="9" t="s">
         <v>7</v>
       </c>
@@ -18368,11 +18372,11 @@
         <v>-0.679755</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="67" t="s">
+    <row r="20" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A20" s="77" t="s">
         <v>118</v>
       </c>
-      <c r="B20" s="68"/>
+      <c r="B20" s="78"/>
       <c r="C20" s="9" t="s">
         <v>7</v>
       </c>
@@ -18452,11 +18456,11 @@
         <v>-4.3888020000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="67" t="s">
+    <row r="21" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A21" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="B21" s="68"/>
+      <c r="B21" s="78"/>
       <c r="C21" s="9" t="s">
         <v>7</v>
       </c>
@@ -18536,11 +18540,11 @@
         <v>1.8973899999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="67" t="s">
+    <row r="22" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A22" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="B22" s="68"/>
+      <c r="B22" s="78"/>
       <c r="C22" s="9" t="s">
         <v>7</v>
       </c>
@@ -18620,11 +18624,11 @@
         <v>5.3770059999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="69" t="s">
+    <row r="23" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A23" s="79" t="s">
         <v>121</v>
       </c>
-      <c r="B23" s="70"/>
+      <c r="B23" s="80"/>
       <c r="C23" s="9" t="s">
         <v>7</v>
       </c>
@@ -18704,11 +18708,11 @@
         <v>13.423503999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="69" t="s">
+    <row r="24" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A24" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="B24" s="70"/>
+      <c r="B24" s="80"/>
       <c r="C24" s="9" t="s">
         <v>7</v>
       </c>
@@ -18788,11 +18792,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="67" t="s">
+    <row r="25" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A25" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="B25" s="68"/>
+      <c r="B25" s="78"/>
       <c r="C25" s="9" t="s">
         <v>7</v>
       </c>
@@ -18872,11 +18876,11 @@
         <v>-0.45841399999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="67" t="s">
+    <row r="26" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A26" s="77" t="s">
         <v>149</v>
       </c>
-      <c r="B26" s="68"/>
+      <c r="B26" s="78"/>
       <c r="C26" s="9" t="s">
         <v>7</v>
       </c>
@@ -18956,11 +18960,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="67" t="s">
+    <row r="27" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A27" s="77" t="s">
         <v>145</v>
       </c>
-      <c r="B27" s="68"/>
+      <c r="B27" s="78"/>
       <c r="C27" s="9" t="s">
         <v>164</v>
       </c>
@@ -19040,11 +19044,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="67" t="s">
+    <row r="28" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A28" s="77" t="s">
         <v>124</v>
       </c>
-      <c r="B28" s="68"/>
+      <c r="B28" s="78"/>
       <c r="C28" s="9" t="s">
         <v>7</v>
       </c>
@@ -19124,11 +19128,11 @@
         <v>0.95311699999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="67" t="s">
+    <row r="29" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A29" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="B29" s="68"/>
+      <c r="B29" s="78"/>
       <c r="C29" s="9" t="s">
         <v>7</v>
       </c>
@@ -19208,11 +19212,11 @@
         <v>-11.227334000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="67" t="s">
+    <row r="30" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A30" s="77" t="s">
         <v>126</v>
       </c>
-      <c r="B30" s="68"/>
+      <c r="B30" s="78"/>
       <c r="C30" s="9" t="s">
         <v>7</v>
       </c>
@@ -19292,11 +19296,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="67" t="s">
+    <row r="31" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A31" s="77" t="s">
         <v>127</v>
       </c>
-      <c r="B31" s="68"/>
+      <c r="B31" s="78"/>
       <c r="C31" s="9" t="s">
         <v>7</v>
       </c>
@@ -19376,11 +19380,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="67" t="s">
+    <row r="32" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A32" s="77" t="s">
         <v>128</v>
       </c>
-      <c r="B32" s="68"/>
+      <c r="B32" s="78"/>
       <c r="C32" s="9" t="s">
         <v>7</v>
       </c>
@@ -19460,11 +19464,11 @@
         <v>0.390212</v>
       </c>
     </row>
-    <row r="33" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="67" t="s">
+    <row r="33" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A33" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="B33" s="68"/>
+      <c r="B33" s="78"/>
       <c r="C33" s="9" t="s">
         <v>7</v>
       </c>
@@ -19544,11 +19548,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="67" t="s">
+    <row r="34" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A34" s="77" t="s">
         <v>130</v>
       </c>
-      <c r="B34" s="68"/>
+      <c r="B34" s="78"/>
       <c r="C34" s="9" t="s">
         <v>7</v>
       </c>
@@ -19628,11 +19632,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="67" t="s">
+    <row r="35" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A35" s="77" t="s">
         <v>131</v>
       </c>
-      <c r="B35" s="68"/>
+      <c r="B35" s="78"/>
       <c r="C35" s="9" t="s">
         <v>7</v>
       </c>
@@ -19712,11 +19716,11 @@
         <v>-2.3607429999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="67" t="s">
+    <row r="36" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A36" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="B36" s="68"/>
+      <c r="B36" s="78"/>
       <c r="C36" s="9" t="s">
         <v>7</v>
       </c>
@@ -19796,11 +19800,11 @@
         <v>-2.3338739999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="67" t="s">
+    <row r="37" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A37" s="77" t="s">
         <v>133</v>
       </c>
-      <c r="B37" s="68"/>
+      <c r="B37" s="78"/>
       <c r="C37" s="9" t="s">
         <v>7</v>
       </c>
@@ -19880,11 +19884,11 @@
         <v>2.1424539999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="67" t="s">
+    <row r="38" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A38" s="77" t="s">
         <v>134</v>
       </c>
-      <c r="B38" s="68"/>
+      <c r="B38" s="78"/>
       <c r="C38" s="9" t="s">
         <v>7</v>
       </c>
@@ -19964,11 +19968,11 @@
         <v>-1.444194</v>
       </c>
     </row>
-    <row r="39" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="67" t="s">
+    <row r="39" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A39" s="77" t="s">
         <v>135</v>
       </c>
-      <c r="B39" s="68"/>
+      <c r="B39" s="78"/>
       <c r="C39" s="9" t="s">
         <v>7</v>
       </c>
@@ -20048,11 +20052,11 @@
         <v>-2.0531670000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="67" t="s">
+    <row r="40" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A40" s="77" t="s">
         <v>136</v>
       </c>
-      <c r="B40" s="68"/>
+      <c r="B40" s="78"/>
       <c r="C40" s="9" t="s">
         <v>7</v>
       </c>
@@ -20132,11 +20136,11 @@
         <v>-0.238457</v>
       </c>
     </row>
-    <row r="41" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="67" t="s">
+    <row r="41" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A41" s="77" t="s">
         <v>142</v>
       </c>
-      <c r="B41" s="68"/>
+      <c r="B41" s="78"/>
       <c r="C41" s="9" t="s">
         <v>7</v>
       </c>
@@ -20216,11 +20220,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="42" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="67" t="s">
+    <row r="42" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A42" s="77" t="s">
         <v>137</v>
       </c>
-      <c r="B42" s="68"/>
+      <c r="B42" s="78"/>
       <c r="C42" s="9" t="s">
         <v>7</v>
       </c>
@@ -20300,11 +20304,11 @@
         <v>0.751336</v>
       </c>
     </row>
-    <row r="43" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="67" t="s">
+    <row r="43" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A43" s="77" t="s">
         <v>144</v>
       </c>
-      <c r="B43" s="68"/>
+      <c r="B43" s="78"/>
       <c r="C43" s="9" t="s">
         <v>7</v>
       </c>
@@ -20384,11 +20388,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="44" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="67" t="s">
+    <row r="44" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A44" s="77" t="s">
         <v>138</v>
       </c>
-      <c r="B44" s="68"/>
+      <c r="B44" s="78"/>
       <c r="C44" s="9" t="s">
         <v>7</v>
       </c>
@@ -20468,11 +20472,11 @@
         <v>0.43094199999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="67" t="s">
+    <row r="45" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A45" s="77" t="s">
         <v>139</v>
       </c>
-      <c r="B45" s="68"/>
+      <c r="B45" s="78"/>
       <c r="C45" s="9" t="s">
         <v>7</v>
       </c>
@@ -20552,8 +20556,8 @@
         <v>0.70303400000000005</v>
       </c>
     </row>
-    <row r="46" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="71" t="s">
+    <row r="46" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A46" s="81" t="s">
         <v>140</v>
       </c>
       <c r="B46" s="10" t="s">
@@ -20638,8 +20642,8 @@
         <v>107</v>
       </c>
     </row>
-    <row r="47" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="72"/>
+    <row r="47" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A47" s="82"/>
       <c r="B47" s="10" t="s">
         <v>141</v>
       </c>
@@ -20722,7 +20726,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A48" s="13" t="s">
         <v>168</v>
       </c>
@@ -20800,14 +20804,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="27.42578125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="2.42578125" style="6" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="2" width="27.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="2.5" style="6" customWidth="1"/>
+    <col min="4" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="e">
         <f ca="1">DotStatQuery(B1)</f>
         <v>#NAME?</v>
@@ -20816,85 +20820,85 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="34.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" ht="39" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A3" s="50" t="s">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A3" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="53" t="s">
+      <c r="B3" s="61"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54"/>
-      <c r="W3" s="54"/>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="55"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A4" s="50" t="s">
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="64"/>
+      <c r="U3" s="64"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="64"/>
+      <c r="X3" s="64"/>
+      <c r="Y3" s="64"/>
+      <c r="Z3" s="64"/>
+      <c r="AA3" s="64"/>
+      <c r="AB3" s="65"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A4" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="53" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="63" t="s">
         <v>173</v>
       </c>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="54"/>
-      <c r="S4" s="54"/>
-      <c r="T4" s="54"/>
-      <c r="U4" s="54"/>
-      <c r="V4" s="54"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="55"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A5" s="56" t="s">
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64"/>
+      <c r="Q4" s="64"/>
+      <c r="R4" s="64"/>
+      <c r="S4" s="64"/>
+      <c r="T4" s="64"/>
+      <c r="U4" s="64"/>
+      <c r="V4" s="64"/>
+      <c r="W4" s="64"/>
+      <c r="X4" s="64"/>
+      <c r="Y4" s="64"/>
+      <c r="Z4" s="64"/>
+      <c r="AA4" s="64"/>
+      <c r="AB4" s="65"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A5" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="58"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="68"/>
       <c r="D5" s="8" t="s">
         <v>79</v>
       </c>
@@ -20971,79 +20975,79 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A6" s="56" t="s">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A6" s="66" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="59" t="s">
+      <c r="B6" s="67"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="69" t="s">
         <v>104</v>
       </c>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="60"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="60"/>
-      <c r="S6" s="60"/>
-      <c r="T6" s="60"/>
-      <c r="U6" s="60"/>
-      <c r="V6" s="60"/>
-      <c r="W6" s="60"/>
-      <c r="X6" s="60"/>
-      <c r="Y6" s="60"/>
-      <c r="Z6" s="60"/>
-      <c r="AA6" s="60"/>
-      <c r="AB6" s="61"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A7" s="56" t="s">
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="70"/>
+      <c r="R6" s="70"/>
+      <c r="S6" s="70"/>
+      <c r="T6" s="70"/>
+      <c r="U6" s="70"/>
+      <c r="V6" s="70"/>
+      <c r="W6" s="70"/>
+      <c r="X6" s="70"/>
+      <c r="Y6" s="70"/>
+      <c r="Z6" s="70"/>
+      <c r="AA6" s="70"/>
+      <c r="AB6" s="71"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A7" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="62" t="s">
+      <c r="B7" s="67"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="72" t="s">
         <v>105</v>
       </c>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="63"/>
-      <c r="N7" s="63"/>
-      <c r="O7" s="63"/>
-      <c r="P7" s="63"/>
-      <c r="Q7" s="63"/>
-      <c r="R7" s="63"/>
-      <c r="S7" s="63"/>
-      <c r="T7" s="63"/>
-      <c r="U7" s="63"/>
-      <c r="V7" s="63"/>
-      <c r="W7" s="63"/>
-      <c r="X7" s="63"/>
-      <c r="Y7" s="63"/>
-      <c r="Z7" s="63"/>
-      <c r="AA7" s="63"/>
-      <c r="AB7" s="64"/>
-    </row>
-    <row r="8" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="65" t="s">
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="73"/>
+      <c r="Q7" s="73"/>
+      <c r="R7" s="73"/>
+      <c r="S7" s="73"/>
+      <c r="T7" s="73"/>
+      <c r="U7" s="73"/>
+      <c r="V7" s="73"/>
+      <c r="W7" s="73"/>
+      <c r="X7" s="73"/>
+      <c r="Y7" s="73"/>
+      <c r="Z7" s="73"/>
+      <c r="AA7" s="73"/>
+      <c r="AB7" s="74"/>
+    </row>
+    <row r="8" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A8" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="66"/>
+      <c r="B8" s="76"/>
       <c r="C8" s="9" t="s">
         <v>7</v>
       </c>
@@ -21123,11 +21127,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="67" t="s">
+    <row r="9" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A9" s="77" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="68"/>
+      <c r="B9" s="78"/>
       <c r="C9" s="9" t="s">
         <v>7</v>
       </c>
@@ -21207,11 +21211,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="67" t="s">
+    <row r="10" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A10" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="68"/>
+      <c r="B10" s="78"/>
       <c r="C10" s="9" t="s">
         <v>7</v>
       </c>
@@ -21291,11 +21295,11 @@
         <v>3.092095</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="67" t="s">
+    <row r="11" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A11" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="68"/>
+      <c r="B11" s="78"/>
       <c r="C11" s="9" t="s">
         <v>7</v>
       </c>
@@ -21375,11 +21379,11 @@
         <v>6.6225449999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="67" t="s">
+    <row r="12" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A12" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="68"/>
+      <c r="B12" s="78"/>
       <c r="C12" s="9" t="s">
         <v>7</v>
       </c>
@@ -21459,11 +21463,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="67" t="s">
+    <row r="13" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A13" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="B13" s="68"/>
+      <c r="B13" s="78"/>
       <c r="C13" s="9" t="s">
         <v>7</v>
       </c>
@@ -21543,11 +21547,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="67" t="s">
+    <row r="14" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A14" s="77" t="s">
         <v>112</v>
       </c>
-      <c r="B14" s="68"/>
+      <c r="B14" s="78"/>
       <c r="C14" s="9" t="s">
         <v>7</v>
       </c>
@@ -21627,11 +21631,11 @@
         <v>2.1183550000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="67" t="s">
+    <row r="15" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A15" s="77" t="s">
         <v>113</v>
       </c>
-      <c r="B15" s="68"/>
+      <c r="B15" s="78"/>
       <c r="C15" s="9" t="s">
         <v>7</v>
       </c>
@@ -21711,11 +21715,11 @@
         <v>0.38312400000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="67" t="s">
+    <row r="16" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A16" s="77" t="s">
         <v>114</v>
       </c>
-      <c r="B16" s="68"/>
+      <c r="B16" s="78"/>
       <c r="C16" s="9" t="s">
         <v>7</v>
       </c>
@@ -21795,11 +21799,11 @@
         <v>12.381097</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="67" t="s">
+    <row r="17" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A17" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="B17" s="68"/>
+      <c r="B17" s="78"/>
       <c r="C17" s="9" t="s">
         <v>7</v>
       </c>
@@ -21879,11 +21883,11 @@
         <v>-5.1890830000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="67" t="s">
+    <row r="18" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A18" s="77" t="s">
         <v>116</v>
       </c>
-      <c r="B18" s="68"/>
+      <c r="B18" s="78"/>
       <c r="C18" s="9" t="s">
         <v>7</v>
       </c>
@@ -21963,11 +21967,11 @@
         <v>1.5078339999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="69" t="s">
+    <row r="19" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A19" s="79" t="s">
         <v>117</v>
       </c>
-      <c r="B19" s="70"/>
+      <c r="B19" s="80"/>
       <c r="C19" s="9" t="s">
         <v>7</v>
       </c>
@@ -22047,11 +22051,11 @@
         <v>3.4453830000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="67" t="s">
+    <row r="20" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A20" s="77" t="s">
         <v>118</v>
       </c>
-      <c r="B20" s="68"/>
+      <c r="B20" s="78"/>
       <c r="C20" s="9" t="s">
         <v>7</v>
       </c>
@@ -22131,11 +22135,11 @@
         <v>-3.6019130000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="67" t="s">
+    <row r="21" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A21" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="B21" s="68"/>
+      <c r="B21" s="78"/>
       <c r="C21" s="9" t="s">
         <v>7</v>
       </c>
@@ -22215,11 +22219,11 @@
         <v>3.4106480000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="67" t="s">
+    <row r="22" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A22" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="B22" s="68"/>
+      <c r="B22" s="78"/>
       <c r="C22" s="9" t="s">
         <v>7</v>
       </c>
@@ -22299,11 +22303,11 @@
         <v>4.0365460000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="69" t="s">
+    <row r="23" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A23" s="79" t="s">
         <v>121</v>
       </c>
-      <c r="B23" s="70"/>
+      <c r="B23" s="80"/>
       <c r="C23" s="9" t="s">
         <v>7</v>
       </c>
@@ -22383,11 +22387,11 @@
         <v>0.39213500000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="69" t="s">
+    <row r="24" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A24" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="B24" s="70"/>
+      <c r="B24" s="80"/>
       <c r="C24" s="9" t="s">
         <v>7</v>
       </c>
@@ -22467,11 +22471,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="67" t="s">
+    <row r="25" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A25" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="B25" s="68"/>
+      <c r="B25" s="78"/>
       <c r="C25" s="9" t="s">
         <v>7</v>
       </c>
@@ -22551,11 +22555,11 @@
         <v>1.551477</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="67" t="s">
+    <row r="26" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A26" s="77" t="s">
         <v>149</v>
       </c>
-      <c r="B26" s="68"/>
+      <c r="B26" s="78"/>
       <c r="C26" s="9" t="s">
         <v>7</v>
       </c>
@@ -22635,11 +22639,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="67" t="s">
+    <row r="27" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A27" s="77" t="s">
         <v>145</v>
       </c>
-      <c r="B27" s="68"/>
+      <c r="B27" s="78"/>
       <c r="C27" s="9" t="s">
         <v>7</v>
       </c>
@@ -22719,11 +22723,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="67" t="s">
+    <row r="28" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A28" s="77" t="s">
         <v>124</v>
       </c>
-      <c r="B28" s="68"/>
+      <c r="B28" s="78"/>
       <c r="C28" s="9" t="s">
         <v>7</v>
       </c>
@@ -22803,11 +22807,11 @@
         <v>-7.5366770000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="67" t="s">
+    <row r="29" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A29" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="B29" s="68"/>
+      <c r="B29" s="78"/>
       <c r="C29" s="9" t="s">
         <v>7</v>
       </c>
@@ -22887,11 +22891,11 @@
         <v>-2.006246</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="67" t="s">
+    <row r="30" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A30" s="77" t="s">
         <v>126</v>
       </c>
-      <c r="B30" s="68"/>
+      <c r="B30" s="78"/>
       <c r="C30" s="9" t="s">
         <v>7</v>
       </c>
@@ -22971,11 +22975,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="67" t="s">
+    <row r="31" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A31" s="77" t="s">
         <v>127</v>
       </c>
-      <c r="B31" s="68"/>
+      <c r="B31" s="78"/>
       <c r="C31" s="9" t="s">
         <v>7</v>
       </c>
@@ -23055,11 +23059,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="67" t="s">
+    <row r="32" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A32" s="77" t="s">
         <v>128</v>
       </c>
-      <c r="B32" s="68"/>
+      <c r="B32" s="78"/>
       <c r="C32" s="9" t="s">
         <v>7</v>
       </c>
@@ -23139,11 +23143,11 @@
         <v>-1.6608369999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="67" t="s">
+    <row r="33" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A33" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="B33" s="68"/>
+      <c r="B33" s="78"/>
       <c r="C33" s="9" t="s">
         <v>7</v>
       </c>
@@ -23223,11 +23227,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="67" t="s">
+    <row r="34" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A34" s="77" t="s">
         <v>130</v>
       </c>
-      <c r="B34" s="68"/>
+      <c r="B34" s="78"/>
       <c r="C34" s="9" t="s">
         <v>7</v>
       </c>
@@ -23307,11 +23311,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="67" t="s">
+    <row r="35" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A35" s="77" t="s">
         <v>131</v>
       </c>
-      <c r="B35" s="68"/>
+      <c r="B35" s="78"/>
       <c r="C35" s="9" t="s">
         <v>7</v>
       </c>
@@ -23391,11 +23395,11 @@
         <v>12.720295</v>
       </c>
     </row>
-    <row r="36" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="67" t="s">
+    <row r="36" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A36" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="B36" s="68"/>
+      <c r="B36" s="78"/>
       <c r="C36" s="9" t="s">
         <v>7</v>
       </c>
@@ -23475,11 +23479,11 @@
         <v>4.2924850000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="67" t="s">
+    <row r="37" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A37" s="77" t="s">
         <v>133</v>
       </c>
-      <c r="B37" s="68"/>
+      <c r="B37" s="78"/>
       <c r="C37" s="9" t="s">
         <v>7</v>
       </c>
@@ -23559,11 +23563,11 @@
         <v>2.5696210000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="67" t="s">
+    <row r="38" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A38" s="77" t="s">
         <v>134</v>
       </c>
-      <c r="B38" s="68"/>
+      <c r="B38" s="78"/>
       <c r="C38" s="9" t="s">
         <v>7</v>
       </c>
@@ -23643,11 +23647,11 @@
         <v>3.6058889999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="67" t="s">
+    <row r="39" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A39" s="77" t="s">
         <v>135</v>
       </c>
-      <c r="B39" s="68"/>
+      <c r="B39" s="78"/>
       <c r="C39" s="9" t="s">
         <v>7</v>
       </c>
@@ -23727,11 +23731,11 @@
         <v>6.7364819999999996</v>
       </c>
     </row>
-    <row r="40" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="67" t="s">
+    <row r="40" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A40" s="77" t="s">
         <v>136</v>
       </c>
-      <c r="B40" s="68"/>
+      <c r="B40" s="78"/>
       <c r="C40" s="9" t="s">
         <v>7</v>
       </c>
@@ -23811,11 +23815,11 @@
         <v>0.92974400000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="67" t="s">
+    <row r="41" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A41" s="77" t="s">
         <v>142</v>
       </c>
-      <c r="B41" s="68"/>
+      <c r="B41" s="78"/>
       <c r="C41" s="9" t="s">
         <v>7</v>
       </c>
@@ -23895,11 +23899,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="42" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="67" t="s">
+    <row r="42" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A42" s="77" t="s">
         <v>137</v>
       </c>
-      <c r="B42" s="68"/>
+      <c r="B42" s="78"/>
       <c r="C42" s="9" t="s">
         <v>7</v>
       </c>
@@ -23979,11 +23983,11 @@
         <v>-0.68689999999999996</v>
       </c>
     </row>
-    <row r="43" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="67" t="s">
+    <row r="43" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A43" s="77" t="s">
         <v>144</v>
       </c>
-      <c r="B43" s="68"/>
+      <c r="B43" s="78"/>
       <c r="C43" s="9" t="s">
         <v>7</v>
       </c>
@@ -24063,11 +24067,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="44" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="67" t="s">
+    <row r="44" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A44" s="77" t="s">
         <v>138</v>
       </c>
-      <c r="B44" s="68"/>
+      <c r="B44" s="78"/>
       <c r="C44" s="9" t="s">
         <v>7</v>
       </c>
@@ -24147,11 +24151,11 @@
         <v>2.3646639999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="67" t="s">
+    <row r="45" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A45" s="77" t="s">
         <v>139</v>
       </c>
-      <c r="B45" s="68"/>
+      <c r="B45" s="78"/>
       <c r="C45" s="9" t="s">
         <v>7</v>
       </c>
@@ -24231,8 +24235,8 @@
         <v>1.8559030000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="71" t="s">
+    <row r="46" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A46" s="81" t="s">
         <v>140</v>
       </c>
       <c r="B46" s="10" t="s">
@@ -24317,8 +24321,8 @@
         <v>107</v>
       </c>
     </row>
-    <row r="47" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="72"/>
+    <row r="47" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A47" s="82"/>
       <c r="B47" s="10" t="s">
         <v>141</v>
       </c>
@@ -24401,7 +24405,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A48" s="13" t="s">
         <v>172</v>
       </c>
@@ -24478,14 +24482,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="27.42578125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="2.42578125" style="6" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="2" width="27.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="2.5" style="6" customWidth="1"/>
+    <col min="4" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="e">
         <f ca="1">DotStatQuery(B1)</f>
         <v>#NAME?</v>
@@ -24494,85 +24498,85 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="34.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" ht="39" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A3" s="50" t="s">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A3" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="53" t="s">
+      <c r="B3" s="61"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54"/>
-      <c r="W3" s="54"/>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="55"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A4" s="50" t="s">
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="64"/>
+      <c r="U3" s="64"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="64"/>
+      <c r="X3" s="64"/>
+      <c r="Y3" s="64"/>
+      <c r="Z3" s="64"/>
+      <c r="AA3" s="64"/>
+      <c r="AB3" s="65"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A4" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="53" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="63" t="s">
         <v>177</v>
       </c>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="54"/>
-      <c r="S4" s="54"/>
-      <c r="T4" s="54"/>
-      <c r="U4" s="54"/>
-      <c r="V4" s="54"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="55"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A5" s="56" t="s">
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64"/>
+      <c r="Q4" s="64"/>
+      <c r="R4" s="64"/>
+      <c r="S4" s="64"/>
+      <c r="T4" s="64"/>
+      <c r="U4" s="64"/>
+      <c r="V4" s="64"/>
+      <c r="W4" s="64"/>
+      <c r="X4" s="64"/>
+      <c r="Y4" s="64"/>
+      <c r="Z4" s="64"/>
+      <c r="AA4" s="64"/>
+      <c r="AB4" s="65"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A5" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="58"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="68"/>
       <c r="D5" s="8" t="s">
         <v>79</v>
       </c>
@@ -24649,79 +24653,79 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A6" s="56" t="s">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A6" s="66" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="59" t="s">
+      <c r="B6" s="67"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="69" t="s">
         <v>104</v>
       </c>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="60"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="60"/>
-      <c r="S6" s="60"/>
-      <c r="T6" s="60"/>
-      <c r="U6" s="60"/>
-      <c r="V6" s="60"/>
-      <c r="W6" s="60"/>
-      <c r="X6" s="60"/>
-      <c r="Y6" s="60"/>
-      <c r="Z6" s="60"/>
-      <c r="AA6" s="60"/>
-      <c r="AB6" s="61"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A7" s="56" t="s">
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="70"/>
+      <c r="R6" s="70"/>
+      <c r="S6" s="70"/>
+      <c r="T6" s="70"/>
+      <c r="U6" s="70"/>
+      <c r="V6" s="70"/>
+      <c r="W6" s="70"/>
+      <c r="X6" s="70"/>
+      <c r="Y6" s="70"/>
+      <c r="Z6" s="70"/>
+      <c r="AA6" s="70"/>
+      <c r="AB6" s="71"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A7" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="62" t="s">
+      <c r="B7" s="67"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="72" t="s">
         <v>105</v>
       </c>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="63"/>
-      <c r="N7" s="63"/>
-      <c r="O7" s="63"/>
-      <c r="P7" s="63"/>
-      <c r="Q7" s="63"/>
-      <c r="R7" s="63"/>
-      <c r="S7" s="63"/>
-      <c r="T7" s="63"/>
-      <c r="U7" s="63"/>
-      <c r="V7" s="63"/>
-      <c r="W7" s="63"/>
-      <c r="X7" s="63"/>
-      <c r="Y7" s="63"/>
-      <c r="Z7" s="63"/>
-      <c r="AA7" s="63"/>
-      <c r="AB7" s="64"/>
-    </row>
-    <row r="8" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="65" t="s">
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="73"/>
+      <c r="Q7" s="73"/>
+      <c r="R7" s="73"/>
+      <c r="S7" s="73"/>
+      <c r="T7" s="73"/>
+      <c r="U7" s="73"/>
+      <c r="V7" s="73"/>
+      <c r="W7" s="73"/>
+      <c r="X7" s="73"/>
+      <c r="Y7" s="73"/>
+      <c r="Z7" s="73"/>
+      <c r="AA7" s="73"/>
+      <c r="AB7" s="74"/>
+    </row>
+    <row r="8" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A8" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="66"/>
+      <c r="B8" s="76"/>
       <c r="C8" s="9" t="s">
         <v>7</v>
       </c>
@@ -24801,11 +24805,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="67" t="s">
+    <row r="9" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A9" s="77" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="68"/>
+      <c r="B9" s="78"/>
       <c r="C9" s="9" t="s">
         <v>7</v>
       </c>
@@ -24885,11 +24889,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="67" t="s">
+    <row r="10" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A10" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="68"/>
+      <c r="B10" s="78"/>
       <c r="C10" s="9" t="s">
         <v>7</v>
       </c>
@@ -24969,11 +24973,11 @@
         <v>0.25144100000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="67" t="s">
+    <row r="11" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A11" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="68"/>
+      <c r="B11" s="78"/>
       <c r="C11" s="9" t="s">
         <v>7</v>
       </c>
@@ -25053,11 +25057,11 @@
         <v>-1.709587</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="67" t="s">
+    <row r="12" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A12" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="68"/>
+      <c r="B12" s="78"/>
       <c r="C12" s="9" t="s">
         <v>7</v>
       </c>
@@ -25137,11 +25141,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="67" t="s">
+    <row r="13" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A13" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="B13" s="68"/>
+      <c r="B13" s="78"/>
       <c r="C13" s="9" t="s">
         <v>7</v>
       </c>
@@ -25221,11 +25225,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="67" t="s">
+    <row r="14" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A14" s="77" t="s">
         <v>112</v>
       </c>
-      <c r="B14" s="68"/>
+      <c r="B14" s="78"/>
       <c r="C14" s="9" t="s">
         <v>7</v>
       </c>
@@ -25305,11 +25309,11 @@
         <v>4.3434169999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="67" t="s">
+    <row r="15" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A15" s="77" t="s">
         <v>113</v>
       </c>
-      <c r="B15" s="68"/>
+      <c r="B15" s="78"/>
       <c r="C15" s="9" t="s">
         <v>7</v>
       </c>
@@ -25389,11 +25393,11 @@
         <v>2.2677870000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="67" t="s">
+    <row r="16" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A16" s="77" t="s">
         <v>114</v>
       </c>
-      <c r="B16" s="68"/>
+      <c r="B16" s="78"/>
       <c r="C16" s="9" t="s">
         <v>7</v>
       </c>
@@ -25473,11 +25477,11 @@
         <v>7.42544</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="67" t="s">
+    <row r="17" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A17" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="B17" s="68"/>
+      <c r="B17" s="78"/>
       <c r="C17" s="9" t="s">
         <v>7</v>
       </c>
@@ -25557,11 +25561,11 @@
         <v>0.49510399999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="67" t="s">
+    <row r="18" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A18" s="77" t="s">
         <v>116</v>
       </c>
-      <c r="B18" s="68"/>
+      <c r="B18" s="78"/>
       <c r="C18" s="9" t="s">
         <v>7</v>
       </c>
@@ -25641,11 +25645,11 @@
         <v>1.8960680000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="69" t="s">
+    <row r="19" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A19" s="79" t="s">
         <v>117</v>
       </c>
-      <c r="B19" s="70"/>
+      <c r="B19" s="80"/>
       <c r="C19" s="9" t="s">
         <v>7</v>
       </c>
@@ -25725,11 +25729,11 @@
         <v>1.077097</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="67" t="s">
+    <row r="20" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A20" s="77" t="s">
         <v>118</v>
       </c>
-      <c r="B20" s="68"/>
+      <c r="B20" s="78"/>
       <c r="C20" s="9" t="s">
         <v>7</v>
       </c>
@@ -25809,11 +25813,11 @@
         <v>2.5004719999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="67" t="s">
+    <row r="21" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A21" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="B21" s="68"/>
+      <c r="B21" s="78"/>
       <c r="C21" s="9" t="s">
         <v>7</v>
       </c>
@@ -25893,11 +25897,11 @@
         <v>1.718969</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="67" t="s">
+    <row r="22" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A22" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="B22" s="68"/>
+      <c r="B22" s="78"/>
       <c r="C22" s="9" t="s">
         <v>7</v>
       </c>
@@ -25977,11 +25981,11 @@
         <v>0.50105200000000005</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="69" t="s">
+    <row r="23" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A23" s="79" t="s">
         <v>121</v>
       </c>
-      <c r="B23" s="70"/>
+      <c r="B23" s="80"/>
       <c r="C23" s="9" t="s">
         <v>7</v>
       </c>
@@ -26061,11 +26065,11 @@
         <v>0.89644299999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="69" t="s">
+    <row r="24" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A24" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="B24" s="70"/>
+      <c r="B24" s="80"/>
       <c r="C24" s="9" t="s">
         <v>7</v>
       </c>
@@ -26145,11 +26149,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="67" t="s">
+    <row r="25" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A25" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="B25" s="68"/>
+      <c r="B25" s="78"/>
       <c r="C25" s="9" t="s">
         <v>7</v>
       </c>
@@ -26229,11 +26233,11 @@
         <v>-1.269191</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="67" t="s">
+    <row r="26" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A26" s="77" t="s">
         <v>149</v>
       </c>
-      <c r="B26" s="68"/>
+      <c r="B26" s="78"/>
       <c r="C26" s="9" t="s">
         <v>7</v>
       </c>
@@ -26313,11 +26317,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="67" t="s">
+    <row r="27" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A27" s="77" t="s">
         <v>145</v>
       </c>
-      <c r="B27" s="68"/>
+      <c r="B27" s="78"/>
       <c r="C27" s="9" t="s">
         <v>7</v>
       </c>
@@ -26397,11 +26401,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="67" t="s">
+    <row r="28" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A28" s="77" t="s">
         <v>124</v>
       </c>
-      <c r="B28" s="68"/>
+      <c r="B28" s="78"/>
       <c r="C28" s="9" t="s">
         <v>7</v>
       </c>
@@ -26481,11 +26485,11 @@
         <v>8.1930259999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="67" t="s">
+    <row r="29" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A29" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="B29" s="68"/>
+      <c r="B29" s="78"/>
       <c r="C29" s="9" t="s">
         <v>7</v>
       </c>
@@ -26565,11 +26569,11 @@
         <v>4.5875830000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="67" t="s">
+    <row r="30" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A30" s="77" t="s">
         <v>126</v>
       </c>
-      <c r="B30" s="68"/>
+      <c r="B30" s="78"/>
       <c r="C30" s="9" t="s">
         <v>7</v>
       </c>
@@ -26649,11 +26653,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="67" t="s">
+    <row r="31" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A31" s="77" t="s">
         <v>127</v>
       </c>
-      <c r="B31" s="68"/>
+      <c r="B31" s="78"/>
       <c r="C31" s="9" t="s">
         <v>7</v>
       </c>
@@ -26733,11 +26737,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="67" t="s">
+    <row r="32" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A32" s="77" t="s">
         <v>128</v>
       </c>
-      <c r="B32" s="68"/>
+      <c r="B32" s="78"/>
       <c r="C32" s="9" t="s">
         <v>7</v>
       </c>
@@ -26817,11 +26821,11 @@
         <v>2.2294209999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="67" t="s">
+    <row r="33" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A33" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="B33" s="68"/>
+      <c r="B33" s="78"/>
       <c r="C33" s="9" t="s">
         <v>7</v>
       </c>
@@ -26901,11 +26905,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="67" t="s">
+    <row r="34" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A34" s="77" t="s">
         <v>130</v>
       </c>
-      <c r="B34" s="68"/>
+      <c r="B34" s="78"/>
       <c r="C34" s="9" t="s">
         <v>7</v>
       </c>
@@ -26985,11 +26989,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="67" t="s">
+    <row r="35" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A35" s="77" t="s">
         <v>131</v>
       </c>
-      <c r="B35" s="68"/>
+      <c r="B35" s="78"/>
       <c r="C35" s="9" t="s">
         <v>7</v>
       </c>
@@ -27069,11 +27073,11 @@
         <v>6.4787759999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="67" t="s">
+    <row r="36" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A36" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="B36" s="68"/>
+      <c r="B36" s="78"/>
       <c r="C36" s="9" t="s">
         <v>7</v>
       </c>
@@ -27153,11 +27157,11 @@
         <v>0.81517200000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="67" t="s">
+    <row r="37" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A37" s="77" t="s">
         <v>133</v>
       </c>
-      <c r="B37" s="68"/>
+      <c r="B37" s="78"/>
       <c r="C37" s="9" t="s">
         <v>7</v>
       </c>
@@ -27237,11 +27241,11 @@
         <v>-2.5442870000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="67" t="s">
+    <row r="38" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A38" s="77" t="s">
         <v>134</v>
       </c>
-      <c r="B38" s="68"/>
+      <c r="B38" s="78"/>
       <c r="C38" s="9" t="s">
         <v>7</v>
       </c>
@@ -27321,11 +27325,11 @@
         <v>0.56969800000000004</v>
       </c>
     </row>
-    <row r="39" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="67" t="s">
+    <row r="39" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A39" s="77" t="s">
         <v>135</v>
       </c>
-      <c r="B39" s="68"/>
+      <c r="B39" s="78"/>
       <c r="C39" s="9" t="s">
         <v>7</v>
       </c>
@@ -27405,11 +27409,11 @@
         <v>-0.143149</v>
       </c>
     </row>
-    <row r="40" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="67" t="s">
+    <row r="40" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A40" s="77" t="s">
         <v>136</v>
       </c>
-      <c r="B40" s="68"/>
+      <c r="B40" s="78"/>
       <c r="C40" s="9" t="s">
         <v>7</v>
       </c>
@@ -27489,11 +27493,11 @@
         <v>-0.99145700000000003</v>
       </c>
     </row>
-    <row r="41" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="67" t="s">
+    <row r="41" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A41" s="77" t="s">
         <v>142</v>
       </c>
-      <c r="B41" s="68"/>
+      <c r="B41" s="78"/>
       <c r="C41" s="9" t="s">
         <v>7</v>
       </c>
@@ -27573,11 +27577,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="42" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="67" t="s">
+    <row r="42" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A42" s="77" t="s">
         <v>137</v>
       </c>
-      <c r="B42" s="68"/>
+      <c r="B42" s="78"/>
       <c r="C42" s="9" t="s">
         <v>7</v>
       </c>
@@ -27657,11 +27661,11 @@
         <v>-0.88053199999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="67" t="s">
+    <row r="43" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A43" s="77" t="s">
         <v>144</v>
       </c>
-      <c r="B43" s="68"/>
+      <c r="B43" s="78"/>
       <c r="C43" s="9" t="s">
         <v>7</v>
       </c>
@@ -27741,11 +27745,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="44" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="67" t="s">
+    <row r="44" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A44" s="77" t="s">
         <v>138</v>
       </c>
-      <c r="B44" s="68"/>
+      <c r="B44" s="78"/>
       <c r="C44" s="9" t="s">
         <v>7</v>
       </c>
@@ -27825,11 +27829,11 @@
         <v>0.330847</v>
       </c>
     </row>
-    <row r="45" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="67" t="s">
+    <row r="45" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A45" s="77" t="s">
         <v>139</v>
       </c>
-      <c r="B45" s="68"/>
+      <c r="B45" s="78"/>
       <c r="C45" s="9" t="s">
         <v>7</v>
       </c>
@@ -27909,8 +27913,8 @@
         <v>0.34225800000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="71" t="s">
+    <row r="46" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A46" s="81" t="s">
         <v>140</v>
       </c>
       <c r="B46" s="10" t="s">
@@ -27995,8 +27999,8 @@
         <v>107</v>
       </c>
     </row>
-    <row r="47" spans="1:28" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="72"/>
+    <row r="47" spans="1:28" ht="14" x14ac:dyDescent="0.2">
+      <c r="A47" s="82"/>
       <c r="B47" s="10" t="s">
         <v>141</v>
       </c>
@@ -28079,7 +28083,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A48" s="13" t="s">
         <v>176</v>
       </c>

--- a/InputData/io-model/LPGRbIC/Labor Productivity Growth Rate by ISIC Code.xlsx
+++ b/InputData/io-model/LPGRbIC/Labor Productivity Growth Rate by ISIC Code.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/ar/io-model/lpgrbic/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/io-model/lpgrbic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3243BA8A-9370-3E4D-9D40-D7CA2D971084}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80276AE-F0E9-8B44-A98D-9AADD387FAC7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -1091,23 +1091,22 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1143,40 +1142,40 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1212,24 +1211,25 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1526,7 +1526,7 @@
       <c r="A1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="36">
+      <c r="C1" s="82">
         <v>44307</v>
       </c>
     </row>
@@ -2434,79 +2434,79 @@
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="40" t="s">
+      <c r="B3" s="54"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="56" t="s">
         <v>150</v>
       </c>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="41"/>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="42"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
+      <c r="V3" s="57"/>
+      <c r="W3" s="57"/>
+      <c r="X3" s="57"/>
+      <c r="Y3" s="57"/>
+      <c r="Z3" s="57"/>
+      <c r="AA3" s="57"/>
+      <c r="AB3" s="58"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="40" t="s">
+      <c r="B4" s="54"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="56" t="s">
         <v>155</v>
       </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="41"/>
-      <c r="Z4" s="41"/>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="42"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
+      <c r="V4" s="57"/>
+      <c r="W4" s="57"/>
+      <c r="X4" s="57"/>
+      <c r="Y4" s="57"/>
+      <c r="Z4" s="57"/>
+      <c r="AA4" s="57"/>
+      <c r="AB4" s="58"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="45"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="44"/>
       <c r="D5" s="19" t="s">
         <v>79</v>
       </c>
@@ -2584,78 +2584,78 @@
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="46" t="s">
+      <c r="B6" s="43"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="47"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="47"/>
-      <c r="U6" s="47"/>
-      <c r="V6" s="47"/>
-      <c r="W6" s="47"/>
-      <c r="X6" s="47"/>
-      <c r="Y6" s="47"/>
-      <c r="Z6" s="47"/>
-      <c r="AA6" s="47"/>
-      <c r="AB6" s="48"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="46"/>
+      <c r="T6" s="46"/>
+      <c r="U6" s="46"/>
+      <c r="V6" s="46"/>
+      <c r="W6" s="46"/>
+      <c r="X6" s="46"/>
+      <c r="Y6" s="46"/>
+      <c r="Z6" s="46"/>
+      <c r="AA6" s="46"/>
+      <c r="AB6" s="47"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="49" t="s">
+      <c r="B7" s="43"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="50"/>
-      <c r="R7" s="50"/>
-      <c r="S7" s="50"/>
-      <c r="T7" s="50"/>
-      <c r="U7" s="50"/>
-      <c r="V7" s="50"/>
-      <c r="W7" s="50"/>
-      <c r="X7" s="50"/>
-      <c r="Y7" s="50"/>
-      <c r="Z7" s="50"/>
-      <c r="AA7" s="50"/>
-      <c r="AB7" s="51"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="49"/>
+      <c r="T7" s="49"/>
+      <c r="U7" s="49"/>
+      <c r="V7" s="49"/>
+      <c r="W7" s="49"/>
+      <c r="X7" s="49"/>
+      <c r="Y7" s="49"/>
+      <c r="Z7" s="49"/>
+      <c r="AA7" s="49"/>
+      <c r="AB7" s="50"/>
     </row>
     <row r="8" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="53"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="20" t="s">
         <v>7</v>
       </c>
@@ -2736,10 +2736,10 @@
       </c>
     </row>
     <row r="9" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="55"/>
+      <c r="B9" s="37"/>
       <c r="C9" s="20" t="s">
         <v>7</v>
       </c>
@@ -2820,10 +2820,10 @@
       </c>
     </row>
     <row r="10" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="55"/>
+      <c r="B10" s="37"/>
       <c r="C10" s="20" t="s">
         <v>7</v>
       </c>
@@ -2904,10 +2904,10 @@
       </c>
     </row>
     <row r="11" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="55"/>
+      <c r="B11" s="37"/>
       <c r="C11" s="20" t="s">
         <v>7</v>
       </c>
@@ -2988,10 +2988,10 @@
       </c>
     </row>
     <row r="12" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="55"/>
+      <c r="B12" s="37"/>
       <c r="C12" s="20" t="s">
         <v>7</v>
       </c>
@@ -3072,10 +3072,10 @@
       </c>
     </row>
     <row r="13" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="B13" s="55"/>
+      <c r="B13" s="37"/>
       <c r="C13" s="20" t="s">
         <v>7</v>
       </c>
@@ -3156,10 +3156,10 @@
       </c>
     </row>
     <row r="14" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="B14" s="55"/>
+      <c r="B14" s="37"/>
       <c r="C14" s="20" t="s">
         <v>7</v>
       </c>
@@ -3240,10 +3240,10 @@
       </c>
     </row>
     <row r="15" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="B15" s="55"/>
+      <c r="B15" s="37"/>
       <c r="C15" s="20" t="s">
         <v>7</v>
       </c>
@@ -3324,10 +3324,10 @@
       </c>
     </row>
     <row r="16" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="B16" s="55"/>
+      <c r="B16" s="37"/>
       <c r="C16" s="20" t="s">
         <v>7</v>
       </c>
@@ -3408,10 +3408,10 @@
       </c>
     </row>
     <row r="17" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="B17" s="55"/>
+      <c r="B17" s="37"/>
       <c r="C17" s="20" t="s">
         <v>7</v>
       </c>
@@ -3492,10 +3492,10 @@
       </c>
     </row>
     <row r="18" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="B18" s="55"/>
+      <c r="B18" s="37"/>
       <c r="C18" s="20" t="s">
         <v>7</v>
       </c>
@@ -3576,10 +3576,10 @@
       </c>
     </row>
     <row r="19" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="B19" s="57"/>
+      <c r="B19" s="41"/>
       <c r="C19" s="20" t="s">
         <v>7</v>
       </c>
@@ -3660,10 +3660,10 @@
       </c>
     </row>
     <row r="20" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="B20" s="55"/>
+      <c r="B20" s="37"/>
       <c r="C20" s="20" t="s">
         <v>7</v>
       </c>
@@ -3744,10 +3744,10 @@
       </c>
     </row>
     <row r="21" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A21" s="54" t="s">
+      <c r="A21" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="B21" s="55"/>
+      <c r="B21" s="37"/>
       <c r="C21" s="20" t="s">
         <v>7</v>
       </c>
@@ -3828,10 +3828,10 @@
       </c>
     </row>
     <row r="22" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="B22" s="55"/>
+      <c r="B22" s="37"/>
       <c r="C22" s="20" t="s">
         <v>7</v>
       </c>
@@ -3912,10 +3912,10 @@
       </c>
     </row>
     <row r="23" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A23" s="56" t="s">
+      <c r="A23" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="B23" s="57"/>
+      <c r="B23" s="41"/>
       <c r="C23" s="20" t="s">
         <v>7</v>
       </c>
@@ -3996,10 +3996,10 @@
       </c>
     </row>
     <row r="24" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A24" s="56" t="s">
+      <c r="A24" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="B24" s="57"/>
+      <c r="B24" s="41"/>
       <c r="C24" s="20" t="s">
         <v>7</v>
       </c>
@@ -4080,10 +4080,10 @@
       </c>
     </row>
     <row r="25" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A25" s="54" t="s">
+      <c r="A25" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="B25" s="55"/>
+      <c r="B25" s="37"/>
       <c r="C25" s="20" t="s">
         <v>7</v>
       </c>
@@ -4164,10 +4164,10 @@
       </c>
     </row>
     <row r="26" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A26" s="54" t="s">
+      <c r="A26" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="B26" s="55"/>
+      <c r="B26" s="37"/>
       <c r="C26" s="20" t="s">
         <v>7</v>
       </c>
@@ -4248,10 +4248,10 @@
       </c>
     </row>
     <row r="27" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="B27" s="55"/>
+      <c r="B27" s="37"/>
       <c r="C27" s="20" t="s">
         <v>7</v>
       </c>
@@ -4332,10 +4332,10 @@
       </c>
     </row>
     <row r="28" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="B28" s="55"/>
+      <c r="B28" s="37"/>
       <c r="C28" s="20" t="s">
         <v>7</v>
       </c>
@@ -4416,10 +4416,10 @@
       </c>
     </row>
     <row r="29" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A29" s="54" t="s">
+      <c r="A29" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="B29" s="55"/>
+      <c r="B29" s="37"/>
       <c r="C29" s="20" t="s">
         <v>7</v>
       </c>
@@ -4500,10 +4500,10 @@
       </c>
     </row>
     <row r="30" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A30" s="54" t="s">
+      <c r="A30" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="B30" s="55"/>
+      <c r="B30" s="37"/>
       <c r="C30" s="20" t="s">
         <v>7</v>
       </c>
@@ -4584,10 +4584,10 @@
       </c>
     </row>
     <row r="31" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A31" s="54" t="s">
+      <c r="A31" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="B31" s="55"/>
+      <c r="B31" s="37"/>
       <c r="C31" s="20" t="s">
         <v>7</v>
       </c>
@@ -4668,10 +4668,10 @@
       </c>
     </row>
     <row r="32" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A32" s="54" t="s">
+      <c r="A32" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="B32" s="55"/>
+      <c r="B32" s="37"/>
       <c r="C32" s="20" t="s">
         <v>7</v>
       </c>
@@ -4752,10 +4752,10 @@
       </c>
     </row>
     <row r="33" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A33" s="54" t="s">
+      <c r="A33" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="B33" s="55"/>
+      <c r="B33" s="37"/>
       <c r="C33" s="20" t="s">
         <v>7</v>
       </c>
@@ -4836,10 +4836,10 @@
       </c>
     </row>
     <row r="34" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A34" s="54" t="s">
+      <c r="A34" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="B34" s="55"/>
+      <c r="B34" s="37"/>
       <c r="C34" s="20" t="s">
         <v>7</v>
       </c>
@@ -4920,10 +4920,10 @@
       </c>
     </row>
     <row r="35" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A35" s="54" t="s">
+      <c r="A35" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="B35" s="55"/>
+      <c r="B35" s="37"/>
       <c r="C35" s="20" t="s">
         <v>7</v>
       </c>
@@ -5004,10 +5004,10 @@
       </c>
     </row>
     <row r="36" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A36" s="54" t="s">
+      <c r="A36" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="B36" s="55"/>
+      <c r="B36" s="37"/>
       <c r="C36" s="20" t="s">
         <v>7</v>
       </c>
@@ -5088,10 +5088,10 @@
       </c>
     </row>
     <row r="37" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A37" s="54" t="s">
+      <c r="A37" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="B37" s="55"/>
+      <c r="B37" s="37"/>
       <c r="C37" s="20" t="s">
         <v>7</v>
       </c>
@@ -5172,10 +5172,10 @@
       </c>
     </row>
     <row r="38" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A38" s="54" t="s">
+      <c r="A38" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="B38" s="55"/>
+      <c r="B38" s="37"/>
       <c r="C38" s="20" t="s">
         <v>7</v>
       </c>
@@ -5256,10 +5256,10 @@
       </c>
     </row>
     <row r="39" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A39" s="54" t="s">
+      <c r="A39" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="B39" s="55"/>
+      <c r="B39" s="37"/>
       <c r="C39" s="20" t="s">
         <v>7</v>
       </c>
@@ -5340,10 +5340,10 @@
       </c>
     </row>
     <row r="40" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A40" s="54" t="s">
+      <c r="A40" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="B40" s="55"/>
+      <c r="B40" s="37"/>
       <c r="C40" s="20" t="s">
         <v>7</v>
       </c>
@@ -5424,10 +5424,10 @@
       </c>
     </row>
     <row r="41" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A41" s="54" t="s">
+      <c r="A41" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="B41" s="55"/>
+      <c r="B41" s="37"/>
       <c r="C41" s="20" t="s">
         <v>7</v>
       </c>
@@ -5508,10 +5508,10 @@
       </c>
     </row>
     <row r="42" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A42" s="54" t="s">
+      <c r="A42" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="B42" s="55"/>
+      <c r="B42" s="37"/>
       <c r="C42" s="20" t="s">
         <v>7</v>
       </c>
@@ -5592,10 +5592,10 @@
       </c>
     </row>
     <row r="43" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A43" s="54" t="s">
+      <c r="A43" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="B43" s="55"/>
+      <c r="B43" s="37"/>
       <c r="C43" s="20" t="s">
         <v>7</v>
       </c>
@@ -5676,10 +5676,10 @@
       </c>
     </row>
     <row r="44" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A44" s="54" t="s">
+      <c r="A44" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="B44" s="55"/>
+      <c r="B44" s="37"/>
       <c r="C44" s="20" t="s">
         <v>7</v>
       </c>
@@ -5760,10 +5760,10 @@
       </c>
     </row>
     <row r="45" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A45" s="54" t="s">
+      <c r="A45" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="B45" s="55"/>
+      <c r="B45" s="37"/>
       <c r="C45" s="20" t="s">
         <v>7</v>
       </c>
@@ -5844,7 +5844,7 @@
       </c>
     </row>
     <row r="46" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A46" s="58" t="s">
+      <c r="A46" s="38" t="s">
         <v>140</v>
       </c>
       <c r="B46" s="23" t="s">
@@ -5930,7 +5930,7 @@
       </c>
     </row>
     <row r="47" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A47" s="59"/>
+      <c r="A47" s="39"/>
       <c r="B47" s="23" t="s">
         <v>141</v>
       </c>
@@ -6020,11 +6020,36 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:AB3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:AB4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:AB6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:AB7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A30:B30"/>
@@ -6038,36 +6063,11 @@
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:AB6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:AB7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:AB3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:AB4"/>
-    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:A47"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{9F6FF3B1-22AE-4A42-9F7C-37538E02CB0E}"/>
@@ -6112,79 +6112,79 @@
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="40" t="s">
+      <c r="B3" s="54"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="56" t="s">
         <v>150</v>
       </c>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="41"/>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="42"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
+      <c r="V3" s="57"/>
+      <c r="W3" s="57"/>
+      <c r="X3" s="57"/>
+      <c r="Y3" s="57"/>
+      <c r="Z3" s="57"/>
+      <c r="AA3" s="57"/>
+      <c r="AB3" s="58"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="40" t="s">
+      <c r="B4" s="54"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="41"/>
-      <c r="Z4" s="41"/>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="42"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
+      <c r="V4" s="57"/>
+      <c r="W4" s="57"/>
+      <c r="X4" s="57"/>
+      <c r="Y4" s="57"/>
+      <c r="Z4" s="57"/>
+      <c r="AA4" s="57"/>
+      <c r="AB4" s="58"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="45"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="44"/>
       <c r="D5" s="19" t="s">
         <v>79</v>
       </c>
@@ -6262,78 +6262,78 @@
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="46" t="s">
+      <c r="B6" s="43"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="47"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="47"/>
-      <c r="U6" s="47"/>
-      <c r="V6" s="47"/>
-      <c r="W6" s="47"/>
-      <c r="X6" s="47"/>
-      <c r="Y6" s="47"/>
-      <c r="Z6" s="47"/>
-      <c r="AA6" s="47"/>
-      <c r="AB6" s="48"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="46"/>
+      <c r="T6" s="46"/>
+      <c r="U6" s="46"/>
+      <c r="V6" s="46"/>
+      <c r="W6" s="46"/>
+      <c r="X6" s="46"/>
+      <c r="Y6" s="46"/>
+      <c r="Z6" s="46"/>
+      <c r="AA6" s="46"/>
+      <c r="AB6" s="47"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="49" t="s">
+      <c r="B7" s="43"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="50"/>
-      <c r="R7" s="50"/>
-      <c r="S7" s="50"/>
-      <c r="T7" s="50"/>
-      <c r="U7" s="50"/>
-      <c r="V7" s="50"/>
-      <c r="W7" s="50"/>
-      <c r="X7" s="50"/>
-      <c r="Y7" s="50"/>
-      <c r="Z7" s="50"/>
-      <c r="AA7" s="50"/>
-      <c r="AB7" s="51"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="49"/>
+      <c r="T7" s="49"/>
+      <c r="U7" s="49"/>
+      <c r="V7" s="49"/>
+      <c r="W7" s="49"/>
+      <c r="X7" s="49"/>
+      <c r="Y7" s="49"/>
+      <c r="Z7" s="49"/>
+      <c r="AA7" s="49"/>
+      <c r="AB7" s="50"/>
     </row>
     <row r="8" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="53"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="20" t="s">
         <v>7</v>
       </c>
@@ -6414,10 +6414,10 @@
       </c>
     </row>
     <row r="9" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="55"/>
+      <c r="B9" s="37"/>
       <c r="C9" s="20" t="s">
         <v>7</v>
       </c>
@@ -6498,10 +6498,10 @@
       </c>
     </row>
     <row r="10" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="55"/>
+      <c r="B10" s="37"/>
       <c r="C10" s="20" t="s">
         <v>7</v>
       </c>
@@ -6582,10 +6582,10 @@
       </c>
     </row>
     <row r="11" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="55"/>
+      <c r="B11" s="37"/>
       <c r="C11" s="20" t="s">
         <v>7</v>
       </c>
@@ -6666,10 +6666,10 @@
       </c>
     </row>
     <row r="12" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="55"/>
+      <c r="B12" s="37"/>
       <c r="C12" s="20" t="s">
         <v>7</v>
       </c>
@@ -6750,10 +6750,10 @@
       </c>
     </row>
     <row r="13" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="B13" s="55"/>
+      <c r="B13" s="37"/>
       <c r="C13" s="20" t="s">
         <v>7</v>
       </c>
@@ -6834,10 +6834,10 @@
       </c>
     </row>
     <row r="14" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="B14" s="55"/>
+      <c r="B14" s="37"/>
       <c r="C14" s="20" t="s">
         <v>7</v>
       </c>
@@ -6918,10 +6918,10 @@
       </c>
     </row>
     <row r="15" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="B15" s="55"/>
+      <c r="B15" s="37"/>
       <c r="C15" s="20" t="s">
         <v>7</v>
       </c>
@@ -7002,10 +7002,10 @@
       </c>
     </row>
     <row r="16" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="B16" s="55"/>
+      <c r="B16" s="37"/>
       <c r="C16" s="20" t="s">
         <v>7</v>
       </c>
@@ -7086,10 +7086,10 @@
       </c>
     </row>
     <row r="17" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="B17" s="55"/>
+      <c r="B17" s="37"/>
       <c r="C17" s="20" t="s">
         <v>7</v>
       </c>
@@ -7170,10 +7170,10 @@
       </c>
     </row>
     <row r="18" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="B18" s="55"/>
+      <c r="B18" s="37"/>
       <c r="C18" s="20" t="s">
         <v>7</v>
       </c>
@@ -7254,10 +7254,10 @@
       </c>
     </row>
     <row r="19" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="B19" s="57"/>
+      <c r="B19" s="41"/>
       <c r="C19" s="20" t="s">
         <v>7</v>
       </c>
@@ -7338,10 +7338,10 @@
       </c>
     </row>
     <row r="20" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="B20" s="55"/>
+      <c r="B20" s="37"/>
       <c r="C20" s="20" t="s">
         <v>7</v>
       </c>
@@ -7422,10 +7422,10 @@
       </c>
     </row>
     <row r="21" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A21" s="54" t="s">
+      <c r="A21" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="B21" s="55"/>
+      <c r="B21" s="37"/>
       <c r="C21" s="20" t="s">
         <v>7</v>
       </c>
@@ -7506,10 +7506,10 @@
       </c>
     </row>
     <row r="22" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="B22" s="55"/>
+      <c r="B22" s="37"/>
       <c r="C22" s="20" t="s">
         <v>7</v>
       </c>
@@ -7590,10 +7590,10 @@
       </c>
     </row>
     <row r="23" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A23" s="56" t="s">
+      <c r="A23" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="B23" s="57"/>
+      <c r="B23" s="41"/>
       <c r="C23" s="20" t="s">
         <v>7</v>
       </c>
@@ -7674,10 +7674,10 @@
       </c>
     </row>
     <row r="24" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A24" s="56" t="s">
+      <c r="A24" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="B24" s="57"/>
+      <c r="B24" s="41"/>
       <c r="C24" s="20" t="s">
         <v>7</v>
       </c>
@@ -7758,10 +7758,10 @@
       </c>
     </row>
     <row r="25" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A25" s="54" t="s">
+      <c r="A25" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="B25" s="55"/>
+      <c r="B25" s="37"/>
       <c r="C25" s="20" t="s">
         <v>7</v>
       </c>
@@ -7842,10 +7842,10 @@
       </c>
     </row>
     <row r="26" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A26" s="54" t="s">
+      <c r="A26" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="B26" s="55"/>
+      <c r="B26" s="37"/>
       <c r="C26" s="20" t="s">
         <v>7</v>
       </c>
@@ -7926,10 +7926,10 @@
       </c>
     </row>
     <row r="27" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="B27" s="55"/>
+      <c r="B27" s="37"/>
       <c r="C27" s="20" t="s">
         <v>7</v>
       </c>
@@ -8010,10 +8010,10 @@
       </c>
     </row>
     <row r="28" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="B28" s="55"/>
+      <c r="B28" s="37"/>
       <c r="C28" s="20" t="s">
         <v>7</v>
       </c>
@@ -8094,10 +8094,10 @@
       </c>
     </row>
     <row r="29" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A29" s="54" t="s">
+      <c r="A29" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="B29" s="55"/>
+      <c r="B29" s="37"/>
       <c r="C29" s="20" t="s">
         <v>7</v>
       </c>
@@ -8178,10 +8178,10 @@
       </c>
     </row>
     <row r="30" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A30" s="54" t="s">
+      <c r="A30" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="B30" s="55"/>
+      <c r="B30" s="37"/>
       <c r="C30" s="20" t="s">
         <v>7</v>
       </c>
@@ -8262,10 +8262,10 @@
       </c>
     </row>
     <row r="31" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A31" s="54" t="s">
+      <c r="A31" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="B31" s="55"/>
+      <c r="B31" s="37"/>
       <c r="C31" s="20" t="s">
         <v>7</v>
       </c>
@@ -8346,10 +8346,10 @@
       </c>
     </row>
     <row r="32" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A32" s="54" t="s">
+      <c r="A32" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="B32" s="55"/>
+      <c r="B32" s="37"/>
       <c r="C32" s="20" t="s">
         <v>7</v>
       </c>
@@ -8430,10 +8430,10 @@
       </c>
     </row>
     <row r="33" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A33" s="54" t="s">
+      <c r="A33" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="B33" s="55"/>
+      <c r="B33" s="37"/>
       <c r="C33" s="20" t="s">
         <v>7</v>
       </c>
@@ -8514,10 +8514,10 @@
       </c>
     </row>
     <row r="34" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A34" s="54" t="s">
+      <c r="A34" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="B34" s="55"/>
+      <c r="B34" s="37"/>
       <c r="C34" s="20" t="s">
         <v>7</v>
       </c>
@@ -8598,10 +8598,10 @@
       </c>
     </row>
     <row r="35" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A35" s="54" t="s">
+      <c r="A35" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="B35" s="55"/>
+      <c r="B35" s="37"/>
       <c r="C35" s="20" t="s">
         <v>7</v>
       </c>
@@ -8682,10 +8682,10 @@
       </c>
     </row>
     <row r="36" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A36" s="54" t="s">
+      <c r="A36" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="B36" s="55"/>
+      <c r="B36" s="37"/>
       <c r="C36" s="20" t="s">
         <v>7</v>
       </c>
@@ -8766,10 +8766,10 @@
       </c>
     </row>
     <row r="37" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A37" s="54" t="s">
+      <c r="A37" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="B37" s="55"/>
+      <c r="B37" s="37"/>
       <c r="C37" s="20" t="s">
         <v>7</v>
       </c>
@@ -8850,10 +8850,10 @@
       </c>
     </row>
     <row r="38" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A38" s="54" t="s">
+      <c r="A38" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="B38" s="55"/>
+      <c r="B38" s="37"/>
       <c r="C38" s="20" t="s">
         <v>7</v>
       </c>
@@ -8934,10 +8934,10 @@
       </c>
     </row>
     <row r="39" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A39" s="54" t="s">
+      <c r="A39" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="B39" s="55"/>
+      <c r="B39" s="37"/>
       <c r="C39" s="20" t="s">
         <v>7</v>
       </c>
@@ -9018,10 +9018,10 @@
       </c>
     </row>
     <row r="40" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A40" s="54" t="s">
+      <c r="A40" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="B40" s="55"/>
+      <c r="B40" s="37"/>
       <c r="C40" s="20" t="s">
         <v>7</v>
       </c>
@@ -9102,10 +9102,10 @@
       </c>
     </row>
     <row r="41" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A41" s="54" t="s">
+      <c r="A41" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="B41" s="55"/>
+      <c r="B41" s="37"/>
       <c r="C41" s="20" t="s">
         <v>7</v>
       </c>
@@ -9186,10 +9186,10 @@
       </c>
     </row>
     <row r="42" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A42" s="54" t="s">
+      <c r="A42" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="B42" s="55"/>
+      <c r="B42" s="37"/>
       <c r="C42" s="20" t="s">
         <v>7</v>
       </c>
@@ -9270,10 +9270,10 @@
       </c>
     </row>
     <row r="43" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A43" s="54" t="s">
+      <c r="A43" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="B43" s="55"/>
+      <c r="B43" s="37"/>
       <c r="C43" s="20" t="s">
         <v>7</v>
       </c>
@@ -9354,10 +9354,10 @@
       </c>
     </row>
     <row r="44" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A44" s="54" t="s">
+      <c r="A44" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="B44" s="55"/>
+      <c r="B44" s="37"/>
       <c r="C44" s="20" t="s">
         <v>7</v>
       </c>
@@ -9438,10 +9438,10 @@
       </c>
     </row>
     <row r="45" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A45" s="54" t="s">
+      <c r="A45" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="B45" s="55"/>
+      <c r="B45" s="37"/>
       <c r="C45" s="20" t="s">
         <v>7</v>
       </c>
@@ -9522,7 +9522,7 @@
       </c>
     </row>
     <row r="46" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A46" s="58" t="s">
+      <c r="A46" s="38" t="s">
         <v>140</v>
       </c>
       <c r="B46" s="23" t="s">
@@ -9608,7 +9608,7 @@
       </c>
     </row>
     <row r="47" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A47" s="59"/>
+      <c r="A47" s="39"/>
       <c r="B47" s="23" t="s">
         <v>141</v>
       </c>
@@ -9698,11 +9698,36 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:AB3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:AB4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:AB6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:AB7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A30:B30"/>
@@ -9716,36 +9741,11 @@
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:AB6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:AB7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:AB3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:AB4"/>
-    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:A47"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{63E337E6-26A3-498C-A2E9-E16739392371}"/>
@@ -9790,79 +9790,79 @@
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="40" t="s">
+      <c r="B3" s="54"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="56" t="s">
         <v>150</v>
       </c>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="41"/>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="42"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
+      <c r="V3" s="57"/>
+      <c r="W3" s="57"/>
+      <c r="X3" s="57"/>
+      <c r="Y3" s="57"/>
+      <c r="Z3" s="57"/>
+      <c r="AA3" s="57"/>
+      <c r="AB3" s="58"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="40" t="s">
+      <c r="B4" s="54"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="41"/>
-      <c r="Z4" s="41"/>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="42"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
+      <c r="V4" s="57"/>
+      <c r="W4" s="57"/>
+      <c r="X4" s="57"/>
+      <c r="Y4" s="57"/>
+      <c r="Z4" s="57"/>
+      <c r="AA4" s="57"/>
+      <c r="AB4" s="58"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="45"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="44"/>
       <c r="D5" s="19" t="s">
         <v>79</v>
       </c>
@@ -9940,78 +9940,78 @@
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="46" t="s">
+      <c r="B6" s="43"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="47"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="47"/>
-      <c r="U6" s="47"/>
-      <c r="V6" s="47"/>
-      <c r="W6" s="47"/>
-      <c r="X6" s="47"/>
-      <c r="Y6" s="47"/>
-      <c r="Z6" s="47"/>
-      <c r="AA6" s="47"/>
-      <c r="AB6" s="48"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="46"/>
+      <c r="T6" s="46"/>
+      <c r="U6" s="46"/>
+      <c r="V6" s="46"/>
+      <c r="W6" s="46"/>
+      <c r="X6" s="46"/>
+      <c r="Y6" s="46"/>
+      <c r="Z6" s="46"/>
+      <c r="AA6" s="46"/>
+      <c r="AB6" s="47"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="49" t="s">
+      <c r="B7" s="43"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="50"/>
-      <c r="R7" s="50"/>
-      <c r="S7" s="50"/>
-      <c r="T7" s="50"/>
-      <c r="U7" s="50"/>
-      <c r="V7" s="50"/>
-      <c r="W7" s="50"/>
-      <c r="X7" s="50"/>
-      <c r="Y7" s="50"/>
-      <c r="Z7" s="50"/>
-      <c r="AA7" s="50"/>
-      <c r="AB7" s="51"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="49"/>
+      <c r="T7" s="49"/>
+      <c r="U7" s="49"/>
+      <c r="V7" s="49"/>
+      <c r="W7" s="49"/>
+      <c r="X7" s="49"/>
+      <c r="Y7" s="49"/>
+      <c r="Z7" s="49"/>
+      <c r="AA7" s="49"/>
+      <c r="AB7" s="50"/>
     </row>
     <row r="8" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="53"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="20" t="s">
         <v>7</v>
       </c>
@@ -10092,10 +10092,10 @@
       </c>
     </row>
     <row r="9" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="55"/>
+      <c r="B9" s="37"/>
       <c r="C9" s="20" t="s">
         <v>7</v>
       </c>
@@ -10176,10 +10176,10 @@
       </c>
     </row>
     <row r="10" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="55"/>
+      <c r="B10" s="37"/>
       <c r="C10" s="20" t="s">
         <v>7</v>
       </c>
@@ -10260,10 +10260,10 @@
       </c>
     </row>
     <row r="11" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="55"/>
+      <c r="B11" s="37"/>
       <c r="C11" s="20" t="s">
         <v>7</v>
       </c>
@@ -10344,10 +10344,10 @@
       </c>
     </row>
     <row r="12" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="55"/>
+      <c r="B12" s="37"/>
       <c r="C12" s="20" t="s">
         <v>7</v>
       </c>
@@ -10428,10 +10428,10 @@
       </c>
     </row>
     <row r="13" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="B13" s="55"/>
+      <c r="B13" s="37"/>
       <c r="C13" s="20" t="s">
         <v>7</v>
       </c>
@@ -10512,10 +10512,10 @@
       </c>
     </row>
     <row r="14" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="B14" s="55"/>
+      <c r="B14" s="37"/>
       <c r="C14" s="20" t="s">
         <v>7</v>
       </c>
@@ -10596,10 +10596,10 @@
       </c>
     </row>
     <row r="15" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="B15" s="55"/>
+      <c r="B15" s="37"/>
       <c r="C15" s="20" t="s">
         <v>7</v>
       </c>
@@ -10680,10 +10680,10 @@
       </c>
     </row>
     <row r="16" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="B16" s="55"/>
+      <c r="B16" s="37"/>
       <c r="C16" s="20" t="s">
         <v>7</v>
       </c>
@@ -10764,10 +10764,10 @@
       </c>
     </row>
     <row r="17" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="B17" s="55"/>
+      <c r="B17" s="37"/>
       <c r="C17" s="20" t="s">
         <v>7</v>
       </c>
@@ -10848,10 +10848,10 @@
       </c>
     </row>
     <row r="18" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="B18" s="55"/>
+      <c r="B18" s="37"/>
       <c r="C18" s="20" t="s">
         <v>7</v>
       </c>
@@ -10932,10 +10932,10 @@
       </c>
     </row>
     <row r="19" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="B19" s="57"/>
+      <c r="B19" s="41"/>
       <c r="C19" s="20" t="s">
         <v>7</v>
       </c>
@@ -11016,10 +11016,10 @@
       </c>
     </row>
     <row r="20" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="B20" s="55"/>
+      <c r="B20" s="37"/>
       <c r="C20" s="20" t="s">
         <v>7</v>
       </c>
@@ -11100,10 +11100,10 @@
       </c>
     </row>
     <row r="21" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A21" s="54" t="s">
+      <c r="A21" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="B21" s="55"/>
+      <c r="B21" s="37"/>
       <c r="C21" s="20" t="s">
         <v>7</v>
       </c>
@@ -11184,10 +11184,10 @@
       </c>
     </row>
     <row r="22" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="B22" s="55"/>
+      <c r="B22" s="37"/>
       <c r="C22" s="20" t="s">
         <v>7</v>
       </c>
@@ -11268,10 +11268,10 @@
       </c>
     </row>
     <row r="23" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A23" s="56" t="s">
+      <c r="A23" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="B23" s="57"/>
+      <c r="B23" s="41"/>
       <c r="C23" s="20" t="s">
         <v>7</v>
       </c>
@@ -11352,10 +11352,10 @@
       </c>
     </row>
     <row r="24" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A24" s="56" t="s">
+      <c r="A24" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="B24" s="57"/>
+      <c r="B24" s="41"/>
       <c r="C24" s="20" t="s">
         <v>7</v>
       </c>
@@ -11436,10 +11436,10 @@
       </c>
     </row>
     <row r="25" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A25" s="54" t="s">
+      <c r="A25" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="B25" s="55"/>
+      <c r="B25" s="37"/>
       <c r="C25" s="20" t="s">
         <v>7</v>
       </c>
@@ -11520,10 +11520,10 @@
       </c>
     </row>
     <row r="26" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A26" s="54" t="s">
+      <c r="A26" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="B26" s="55"/>
+      <c r="B26" s="37"/>
       <c r="C26" s="20" t="s">
         <v>7</v>
       </c>
@@ -11604,10 +11604,10 @@
       </c>
     </row>
     <row r="27" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="B27" s="55"/>
+      <c r="B27" s="37"/>
       <c r="C27" s="20" t="s">
         <v>7</v>
       </c>
@@ -11688,10 +11688,10 @@
       </c>
     </row>
     <row r="28" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="B28" s="55"/>
+      <c r="B28" s="37"/>
       <c r="C28" s="20" t="s">
         <v>7</v>
       </c>
@@ -11772,10 +11772,10 @@
       </c>
     </row>
     <row r="29" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A29" s="54" t="s">
+      <c r="A29" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="B29" s="55"/>
+      <c r="B29" s="37"/>
       <c r="C29" s="20" t="s">
         <v>7</v>
       </c>
@@ -11856,10 +11856,10 @@
       </c>
     </row>
     <row r="30" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A30" s="54" t="s">
+      <c r="A30" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="B30" s="55"/>
+      <c r="B30" s="37"/>
       <c r="C30" s="20" t="s">
         <v>7</v>
       </c>
@@ -11940,10 +11940,10 @@
       </c>
     </row>
     <row r="31" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A31" s="54" t="s">
+      <c r="A31" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="B31" s="55"/>
+      <c r="B31" s="37"/>
       <c r="C31" s="20" t="s">
         <v>7</v>
       </c>
@@ -12024,10 +12024,10 @@
       </c>
     </row>
     <row r="32" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A32" s="54" t="s">
+      <c r="A32" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="B32" s="55"/>
+      <c r="B32" s="37"/>
       <c r="C32" s="20" t="s">
         <v>7</v>
       </c>
@@ -12108,10 +12108,10 @@
       </c>
     </row>
     <row r="33" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A33" s="54" t="s">
+      <c r="A33" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="B33" s="55"/>
+      <c r="B33" s="37"/>
       <c r="C33" s="20" t="s">
         <v>7</v>
       </c>
@@ -12192,10 +12192,10 @@
       </c>
     </row>
     <row r="34" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A34" s="54" t="s">
+      <c r="A34" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="B34" s="55"/>
+      <c r="B34" s="37"/>
       <c r="C34" s="20" t="s">
         <v>7</v>
       </c>
@@ -12276,10 +12276,10 @@
       </c>
     </row>
     <row r="35" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A35" s="54" t="s">
+      <c r="A35" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="B35" s="55"/>
+      <c r="B35" s="37"/>
       <c r="C35" s="20" t="s">
         <v>7</v>
       </c>
@@ -12360,10 +12360,10 @@
       </c>
     </row>
     <row r="36" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A36" s="54" t="s">
+      <c r="A36" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="B36" s="55"/>
+      <c r="B36" s="37"/>
       <c r="C36" s="20" t="s">
         <v>7</v>
       </c>
@@ -12444,10 +12444,10 @@
       </c>
     </row>
     <row r="37" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A37" s="54" t="s">
+      <c r="A37" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="B37" s="55"/>
+      <c r="B37" s="37"/>
       <c r="C37" s="20" t="s">
         <v>7</v>
       </c>
@@ -12528,10 +12528,10 @@
       </c>
     </row>
     <row r="38" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A38" s="54" t="s">
+      <c r="A38" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="B38" s="55"/>
+      <c r="B38" s="37"/>
       <c r="C38" s="20" t="s">
         <v>7</v>
       </c>
@@ -12612,10 +12612,10 @@
       </c>
     </row>
     <row r="39" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A39" s="54" t="s">
+      <c r="A39" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="B39" s="55"/>
+      <c r="B39" s="37"/>
       <c r="C39" s="20" t="s">
         <v>7</v>
       </c>
@@ -12696,10 +12696,10 @@
       </c>
     </row>
     <row r="40" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A40" s="54" t="s">
+      <c r="A40" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="B40" s="55"/>
+      <c r="B40" s="37"/>
       <c r="C40" s="20" t="s">
         <v>7</v>
       </c>
@@ -12780,10 +12780,10 @@
       </c>
     </row>
     <row r="41" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A41" s="54" t="s">
+      <c r="A41" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="B41" s="55"/>
+      <c r="B41" s="37"/>
       <c r="C41" s="20" t="s">
         <v>7</v>
       </c>
@@ -12864,10 +12864,10 @@
       </c>
     </row>
     <row r="42" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A42" s="54" t="s">
+      <c r="A42" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="B42" s="55"/>
+      <c r="B42" s="37"/>
       <c r="C42" s="20" t="s">
         <v>7</v>
       </c>
@@ -12948,10 +12948,10 @@
       </c>
     </row>
     <row r="43" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A43" s="54" t="s">
+      <c r="A43" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="B43" s="55"/>
+      <c r="B43" s="37"/>
       <c r="C43" s="20" t="s">
         <v>7</v>
       </c>
@@ -13032,10 +13032,10 @@
       </c>
     </row>
     <row r="44" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A44" s="54" t="s">
+      <c r="A44" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="B44" s="55"/>
+      <c r="B44" s="37"/>
       <c r="C44" s="20" t="s">
         <v>7</v>
       </c>
@@ -13116,10 +13116,10 @@
       </c>
     </row>
     <row r="45" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A45" s="54" t="s">
+      <c r="A45" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="B45" s="55"/>
+      <c r="B45" s="37"/>
       <c r="C45" s="20" t="s">
         <v>7</v>
       </c>
@@ -13200,7 +13200,7 @@
       </c>
     </row>
     <row r="46" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A46" s="58" t="s">
+      <c r="A46" s="38" t="s">
         <v>140</v>
       </c>
       <c r="B46" s="23" t="s">
@@ -13286,7 +13286,7 @@
       </c>
     </row>
     <row r="47" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A47" s="59"/>
+      <c r="A47" s="39"/>
       <c r="B47" s="23" t="s">
         <v>141</v>
       </c>
@@ -13376,11 +13376,36 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:AB3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:AB4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:AB6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:AB7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A30:B30"/>
@@ -13394,36 +13419,11 @@
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:AB6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:AB7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:AB3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:AB4"/>
-    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:A47"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{6837BE00-1063-4F11-B64C-3451F5FF0552}"/>
@@ -13468,79 +13468,79 @@
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="76" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="63" t="s">
+      <c r="B3" s="77"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="79" t="s">
         <v>150</v>
       </c>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
-      <c r="S3" s="64"/>
-      <c r="T3" s="64"/>
-      <c r="U3" s="64"/>
-      <c r="V3" s="64"/>
-      <c r="W3" s="64"/>
-      <c r="X3" s="64"/>
-      <c r="Y3" s="64"/>
-      <c r="Z3" s="64"/>
-      <c r="AA3" s="64"/>
-      <c r="AB3" s="65"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="80"/>
+      <c r="W3" s="80"/>
+      <c r="X3" s="80"/>
+      <c r="Y3" s="80"/>
+      <c r="Z3" s="80"/>
+      <c r="AA3" s="80"/>
+      <c r="AB3" s="81"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="76" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="63" t="s">
+      <c r="B4" s="77"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="79" t="s">
         <v>165</v>
       </c>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="64"/>
-      <c r="P4" s="64"/>
-      <c r="Q4" s="64"/>
-      <c r="R4" s="64"/>
-      <c r="S4" s="64"/>
-      <c r="T4" s="64"/>
-      <c r="U4" s="64"/>
-      <c r="V4" s="64"/>
-      <c r="W4" s="64"/>
-      <c r="X4" s="64"/>
-      <c r="Y4" s="64"/>
-      <c r="Z4" s="64"/>
-      <c r="AA4" s="64"/>
-      <c r="AB4" s="65"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="80"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="80"/>
+      <c r="S4" s="80"/>
+      <c r="T4" s="80"/>
+      <c r="U4" s="80"/>
+      <c r="V4" s="80"/>
+      <c r="W4" s="80"/>
+      <c r="X4" s="80"/>
+      <c r="Y4" s="80"/>
+      <c r="Z4" s="80"/>
+      <c r="AA4" s="80"/>
+      <c r="AB4" s="81"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="68"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="67"/>
       <c r="D5" s="8" t="s">
         <v>79</v>
       </c>
@@ -13618,78 +13618,78 @@
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="69" t="s">
+      <c r="B6" s="66"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="70"/>
-      <c r="R6" s="70"/>
-      <c r="S6" s="70"/>
-      <c r="T6" s="70"/>
-      <c r="U6" s="70"/>
-      <c r="V6" s="70"/>
-      <c r="W6" s="70"/>
-      <c r="X6" s="70"/>
-      <c r="Y6" s="70"/>
-      <c r="Z6" s="70"/>
-      <c r="AA6" s="70"/>
-      <c r="AB6" s="71"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="69"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="69"/>
+      <c r="S6" s="69"/>
+      <c r="T6" s="69"/>
+      <c r="U6" s="69"/>
+      <c r="V6" s="69"/>
+      <c r="W6" s="69"/>
+      <c r="X6" s="69"/>
+      <c r="Y6" s="69"/>
+      <c r="Z6" s="69"/>
+      <c r="AA6" s="69"/>
+      <c r="AB6" s="70"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="67"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="72" t="s">
+      <c r="B7" s="66"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="73"/>
-      <c r="O7" s="73"/>
-      <c r="P7" s="73"/>
-      <c r="Q7" s="73"/>
-      <c r="R7" s="73"/>
-      <c r="S7" s="73"/>
-      <c r="T7" s="73"/>
-      <c r="U7" s="73"/>
-      <c r="V7" s="73"/>
-      <c r="W7" s="73"/>
-      <c r="X7" s="73"/>
-      <c r="Y7" s="73"/>
-      <c r="Z7" s="73"/>
-      <c r="AA7" s="73"/>
-      <c r="AB7" s="74"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="72"/>
+      <c r="O7" s="72"/>
+      <c r="P7" s="72"/>
+      <c r="Q7" s="72"/>
+      <c r="R7" s="72"/>
+      <c r="S7" s="72"/>
+      <c r="T7" s="72"/>
+      <c r="U7" s="72"/>
+      <c r="V7" s="72"/>
+      <c r="W7" s="72"/>
+      <c r="X7" s="72"/>
+      <c r="Y7" s="72"/>
+      <c r="Z7" s="72"/>
+      <c r="AA7" s="72"/>
+      <c r="AB7" s="73"/>
     </row>
     <row r="8" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="76"/>
+      <c r="B8" s="75"/>
       <c r="C8" s="9" t="s">
         <v>7</v>
       </c>
@@ -13770,10 +13770,10 @@
       </c>
     </row>
     <row r="9" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="78"/>
+      <c r="B9" s="60"/>
       <c r="C9" s="9" t="s">
         <v>7</v>
       </c>
@@ -13854,10 +13854,10 @@
       </c>
     </row>
     <row r="10" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A10" s="77" t="s">
+      <c r="A10" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="78"/>
+      <c r="B10" s="60"/>
       <c r="C10" s="9" t="s">
         <v>7</v>
       </c>
@@ -13938,10 +13938,10 @@
       </c>
     </row>
     <row r="11" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A11" s="77" t="s">
+      <c r="A11" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="78"/>
+      <c r="B11" s="60"/>
       <c r="C11" s="9" t="s">
         <v>7</v>
       </c>
@@ -14022,10 +14022,10 @@
       </c>
     </row>
     <row r="12" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A12" s="77" t="s">
+      <c r="A12" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="78"/>
+      <c r="B12" s="60"/>
       <c r="C12" s="9" t="s">
         <v>7</v>
       </c>
@@ -14106,10 +14106,10 @@
       </c>
     </row>
     <row r="13" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A13" s="77" t="s">
+      <c r="A13" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="B13" s="78"/>
+      <c r="B13" s="60"/>
       <c r="C13" s="9" t="s">
         <v>7</v>
       </c>
@@ -14190,10 +14190,10 @@
       </c>
     </row>
     <row r="14" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A14" s="77" t="s">
+      <c r="A14" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="B14" s="78"/>
+      <c r="B14" s="60"/>
       <c r="C14" s="9" t="s">
         <v>7</v>
       </c>
@@ -14274,10 +14274,10 @@
       </c>
     </row>
     <row r="15" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A15" s="77" t="s">
+      <c r="A15" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="B15" s="78"/>
+      <c r="B15" s="60"/>
       <c r="C15" s="9" t="s">
         <v>7</v>
       </c>
@@ -14358,10 +14358,10 @@
       </c>
     </row>
     <row r="16" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A16" s="77" t="s">
+      <c r="A16" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="B16" s="78"/>
+      <c r="B16" s="60"/>
       <c r="C16" s="9" t="s">
         <v>7</v>
       </c>
@@ -14442,10 +14442,10 @@
       </c>
     </row>
     <row r="17" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A17" s="77" t="s">
+      <c r="A17" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="B17" s="78"/>
+      <c r="B17" s="60"/>
       <c r="C17" s="9" t="s">
         <v>7</v>
       </c>
@@ -14526,10 +14526,10 @@
       </c>
     </row>
     <row r="18" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A18" s="77" t="s">
+      <c r="A18" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="B18" s="78"/>
+      <c r="B18" s="60"/>
       <c r="C18" s="9" t="s">
         <v>7</v>
       </c>
@@ -14610,10 +14610,10 @@
       </c>
     </row>
     <row r="19" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A19" s="79" t="s">
+      <c r="A19" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="B19" s="80"/>
+      <c r="B19" s="64"/>
       <c r="C19" s="9" t="s">
         <v>7</v>
       </c>
@@ -14694,10 +14694,10 @@
       </c>
     </row>
     <row r="20" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A20" s="77" t="s">
+      <c r="A20" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="B20" s="78"/>
+      <c r="B20" s="60"/>
       <c r="C20" s="9" t="s">
         <v>7</v>
       </c>
@@ -14778,10 +14778,10 @@
       </c>
     </row>
     <row r="21" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A21" s="77" t="s">
+      <c r="A21" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="B21" s="78"/>
+      <c r="B21" s="60"/>
       <c r="C21" s="9" t="s">
         <v>7</v>
       </c>
@@ -14862,10 +14862,10 @@
       </c>
     </row>
     <row r="22" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A22" s="77" t="s">
+      <c r="A22" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="B22" s="78"/>
+      <c r="B22" s="60"/>
       <c r="C22" s="9" t="s">
         <v>7</v>
       </c>
@@ -14946,10 +14946,10 @@
       </c>
     </row>
     <row r="23" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A23" s="79" t="s">
+      <c r="A23" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="B23" s="80"/>
+      <c r="B23" s="64"/>
       <c r="C23" s="9" t="s">
         <v>7</v>
       </c>
@@ -15030,10 +15030,10 @@
       </c>
     </row>
     <row r="24" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A24" s="79" t="s">
+      <c r="A24" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="B24" s="80"/>
+      <c r="B24" s="64"/>
       <c r="C24" s="9" t="s">
         <v>7</v>
       </c>
@@ -15114,10 +15114,10 @@
       </c>
     </row>
     <row r="25" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A25" s="77" t="s">
+      <c r="A25" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="B25" s="78"/>
+      <c r="B25" s="60"/>
       <c r="C25" s="9" t="s">
         <v>7</v>
       </c>
@@ -15198,10 +15198,10 @@
       </c>
     </row>
     <row r="26" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A26" s="77" t="s">
+      <c r="A26" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="B26" s="78"/>
+      <c r="B26" s="60"/>
       <c r="C26" s="9" t="s">
         <v>7</v>
       </c>
@@ -15282,10 +15282,10 @@
       </c>
     </row>
     <row r="27" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A27" s="77" t="s">
+      <c r="A27" s="59" t="s">
         <v>145</v>
       </c>
-      <c r="B27" s="78"/>
+      <c r="B27" s="60"/>
       <c r="C27" s="9" t="s">
         <v>164</v>
       </c>
@@ -15366,10 +15366,10 @@
       </c>
     </row>
     <row r="28" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A28" s="77" t="s">
+      <c r="A28" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="B28" s="78"/>
+      <c r="B28" s="60"/>
       <c r="C28" s="9" t="s">
         <v>7</v>
       </c>
@@ -15450,10 +15450,10 @@
       </c>
     </row>
     <row r="29" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A29" s="77" t="s">
+      <c r="A29" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="B29" s="78"/>
+      <c r="B29" s="60"/>
       <c r="C29" s="9" t="s">
         <v>7</v>
       </c>
@@ -15534,10 +15534,10 @@
       </c>
     </row>
     <row r="30" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A30" s="77" t="s">
+      <c r="A30" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="B30" s="78"/>
+      <c r="B30" s="60"/>
       <c r="C30" s="9" t="s">
         <v>7</v>
       </c>
@@ -15618,10 +15618,10 @@
       </c>
     </row>
     <row r="31" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A31" s="77" t="s">
+      <c r="A31" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="B31" s="78"/>
+      <c r="B31" s="60"/>
       <c r="C31" s="9" t="s">
         <v>7</v>
       </c>
@@ -15702,10 +15702,10 @@
       </c>
     </row>
     <row r="32" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A32" s="77" t="s">
+      <c r="A32" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="B32" s="78"/>
+      <c r="B32" s="60"/>
       <c r="C32" s="9" t="s">
         <v>7</v>
       </c>
@@ -15786,10 +15786,10 @@
       </c>
     </row>
     <row r="33" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A33" s="77" t="s">
+      <c r="A33" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="B33" s="78"/>
+      <c r="B33" s="60"/>
       <c r="C33" s="9" t="s">
         <v>7</v>
       </c>
@@ -15870,10 +15870,10 @@
       </c>
     </row>
     <row r="34" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A34" s="77" t="s">
+      <c r="A34" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="B34" s="78"/>
+      <c r="B34" s="60"/>
       <c r="C34" s="9" t="s">
         <v>7</v>
       </c>
@@ -15954,10 +15954,10 @@
       </c>
     </row>
     <row r="35" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A35" s="77" t="s">
+      <c r="A35" s="59" t="s">
         <v>131</v>
       </c>
-      <c r="B35" s="78"/>
+      <c r="B35" s="60"/>
       <c r="C35" s="9" t="s">
         <v>7</v>
       </c>
@@ -16038,10 +16038,10 @@
       </c>
     </row>
     <row r="36" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A36" s="77" t="s">
+      <c r="A36" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="B36" s="78"/>
+      <c r="B36" s="60"/>
       <c r="C36" s="9" t="s">
         <v>7</v>
       </c>
@@ -16122,10 +16122,10 @@
       </c>
     </row>
     <row r="37" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A37" s="77" t="s">
+      <c r="A37" s="59" t="s">
         <v>133</v>
       </c>
-      <c r="B37" s="78"/>
+      <c r="B37" s="60"/>
       <c r="C37" s="9" t="s">
         <v>7</v>
       </c>
@@ -16206,10 +16206,10 @@
       </c>
     </row>
     <row r="38" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A38" s="77" t="s">
+      <c r="A38" s="59" t="s">
         <v>134</v>
       </c>
-      <c r="B38" s="78"/>
+      <c r="B38" s="60"/>
       <c r="C38" s="9" t="s">
         <v>7</v>
       </c>
@@ -16290,10 +16290,10 @@
       </c>
     </row>
     <row r="39" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A39" s="77" t="s">
+      <c r="A39" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="B39" s="78"/>
+      <c r="B39" s="60"/>
       <c r="C39" s="9" t="s">
         <v>7</v>
       </c>
@@ -16374,10 +16374,10 @@
       </c>
     </row>
     <row r="40" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A40" s="77" t="s">
+      <c r="A40" s="59" t="s">
         <v>136</v>
       </c>
-      <c r="B40" s="78"/>
+      <c r="B40" s="60"/>
       <c r="C40" s="9" t="s">
         <v>7</v>
       </c>
@@ -16458,10 +16458,10 @@
       </c>
     </row>
     <row r="41" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A41" s="77" t="s">
+      <c r="A41" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="B41" s="78"/>
+      <c r="B41" s="60"/>
       <c r="C41" s="9" t="s">
         <v>7</v>
       </c>
@@ -16542,10 +16542,10 @@
       </c>
     </row>
     <row r="42" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A42" s="77" t="s">
+      <c r="A42" s="59" t="s">
         <v>137</v>
       </c>
-      <c r="B42" s="78"/>
+      <c r="B42" s="60"/>
       <c r="C42" s="9" t="s">
         <v>7</v>
       </c>
@@ -16626,10 +16626,10 @@
       </c>
     </row>
     <row r="43" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A43" s="77" t="s">
+      <c r="A43" s="59" t="s">
         <v>144</v>
       </c>
-      <c r="B43" s="78"/>
+      <c r="B43" s="60"/>
       <c r="C43" s="9" t="s">
         <v>7</v>
       </c>
@@ -16710,10 +16710,10 @@
       </c>
     </row>
     <row r="44" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A44" s="77" t="s">
+      <c r="A44" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="B44" s="78"/>
+      <c r="B44" s="60"/>
       <c r="C44" s="9" t="s">
         <v>7</v>
       </c>
@@ -16794,10 +16794,10 @@
       </c>
     </row>
     <row r="45" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A45" s="77" t="s">
+      <c r="A45" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="B45" s="78"/>
+      <c r="B45" s="60"/>
       <c r="C45" s="9" t="s">
         <v>7</v>
       </c>
@@ -16878,7 +16878,7 @@
       </c>
     </row>
     <row r="46" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A46" s="81" t="s">
+      <c r="A46" s="61" t="s">
         <v>140</v>
       </c>
       <c r="B46" s="10" t="s">
@@ -16964,7 +16964,7 @@
       </c>
     </row>
     <row r="47" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A47" s="82"/>
+      <c r="A47" s="62"/>
       <c r="B47" s="10" t="s">
         <v>141</v>
       </c>
@@ -17054,11 +17054,36 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:AB3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:AB4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:AB6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:AB7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A30:B30"/>
@@ -17072,36 +17097,11 @@
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:AB6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:AB7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:AB3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:AB4"/>
-    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:A47"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{D540496E-3112-44D3-9CB8-55ED8470D73E}"/>
@@ -17147,79 +17147,79 @@
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="76" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="63" t="s">
+      <c r="B3" s="77"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="79" t="s">
         <v>150</v>
       </c>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
-      <c r="S3" s="64"/>
-      <c r="T3" s="64"/>
-      <c r="U3" s="64"/>
-      <c r="V3" s="64"/>
-      <c r="W3" s="64"/>
-      <c r="X3" s="64"/>
-      <c r="Y3" s="64"/>
-      <c r="Z3" s="64"/>
-      <c r="AA3" s="64"/>
-      <c r="AB3" s="65"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="80"/>
+      <c r="W3" s="80"/>
+      <c r="X3" s="80"/>
+      <c r="Y3" s="80"/>
+      <c r="Z3" s="80"/>
+      <c r="AA3" s="80"/>
+      <c r="AB3" s="81"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="76" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="63" t="s">
+      <c r="B4" s="77"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="79" t="s">
         <v>169</v>
       </c>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="64"/>
-      <c r="P4" s="64"/>
-      <c r="Q4" s="64"/>
-      <c r="R4" s="64"/>
-      <c r="S4" s="64"/>
-      <c r="T4" s="64"/>
-      <c r="U4" s="64"/>
-      <c r="V4" s="64"/>
-      <c r="W4" s="64"/>
-      <c r="X4" s="64"/>
-      <c r="Y4" s="64"/>
-      <c r="Z4" s="64"/>
-      <c r="AA4" s="64"/>
-      <c r="AB4" s="65"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="80"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="80"/>
+      <c r="S4" s="80"/>
+      <c r="T4" s="80"/>
+      <c r="U4" s="80"/>
+      <c r="V4" s="80"/>
+      <c r="W4" s="80"/>
+      <c r="X4" s="80"/>
+      <c r="Y4" s="80"/>
+      <c r="Z4" s="80"/>
+      <c r="AA4" s="80"/>
+      <c r="AB4" s="81"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="68"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="67"/>
       <c r="D5" s="8" t="s">
         <v>79</v>
       </c>
@@ -17297,78 +17297,78 @@
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="69" t="s">
+      <c r="B6" s="66"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="70"/>
-      <c r="R6" s="70"/>
-      <c r="S6" s="70"/>
-      <c r="T6" s="70"/>
-      <c r="U6" s="70"/>
-      <c r="V6" s="70"/>
-      <c r="W6" s="70"/>
-      <c r="X6" s="70"/>
-      <c r="Y6" s="70"/>
-      <c r="Z6" s="70"/>
-      <c r="AA6" s="70"/>
-      <c r="AB6" s="71"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="69"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="69"/>
+      <c r="S6" s="69"/>
+      <c r="T6" s="69"/>
+      <c r="U6" s="69"/>
+      <c r="V6" s="69"/>
+      <c r="W6" s="69"/>
+      <c r="X6" s="69"/>
+      <c r="Y6" s="69"/>
+      <c r="Z6" s="69"/>
+      <c r="AA6" s="69"/>
+      <c r="AB6" s="70"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="67"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="72" t="s">
+      <c r="B7" s="66"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="73"/>
-      <c r="O7" s="73"/>
-      <c r="P7" s="73"/>
-      <c r="Q7" s="73"/>
-      <c r="R7" s="73"/>
-      <c r="S7" s="73"/>
-      <c r="T7" s="73"/>
-      <c r="U7" s="73"/>
-      <c r="V7" s="73"/>
-      <c r="W7" s="73"/>
-      <c r="X7" s="73"/>
-      <c r="Y7" s="73"/>
-      <c r="Z7" s="73"/>
-      <c r="AA7" s="73"/>
-      <c r="AB7" s="74"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="72"/>
+      <c r="O7" s="72"/>
+      <c r="P7" s="72"/>
+      <c r="Q7" s="72"/>
+      <c r="R7" s="72"/>
+      <c r="S7" s="72"/>
+      <c r="T7" s="72"/>
+      <c r="U7" s="72"/>
+      <c r="V7" s="72"/>
+      <c r="W7" s="72"/>
+      <c r="X7" s="72"/>
+      <c r="Y7" s="72"/>
+      <c r="Z7" s="72"/>
+      <c r="AA7" s="72"/>
+      <c r="AB7" s="73"/>
     </row>
     <row r="8" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="76"/>
+      <c r="B8" s="75"/>
       <c r="C8" s="9" t="s">
         <v>7</v>
       </c>
@@ -17449,10 +17449,10 @@
       </c>
     </row>
     <row r="9" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="78"/>
+      <c r="B9" s="60"/>
       <c r="C9" s="9" t="s">
         <v>7</v>
       </c>
@@ -17533,10 +17533,10 @@
       </c>
     </row>
     <row r="10" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A10" s="77" t="s">
+      <c r="A10" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="78"/>
+      <c r="B10" s="60"/>
       <c r="C10" s="9" t="s">
         <v>7</v>
       </c>
@@ -17617,10 +17617,10 @@
       </c>
     </row>
     <row r="11" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A11" s="77" t="s">
+      <c r="A11" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="78"/>
+      <c r="B11" s="60"/>
       <c r="C11" s="9" t="s">
         <v>7</v>
       </c>
@@ -17701,10 +17701,10 @@
       </c>
     </row>
     <row r="12" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A12" s="77" t="s">
+      <c r="A12" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="78"/>
+      <c r="B12" s="60"/>
       <c r="C12" s="9" t="s">
         <v>7</v>
       </c>
@@ -17785,10 +17785,10 @@
       </c>
     </row>
     <row r="13" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A13" s="77" t="s">
+      <c r="A13" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="B13" s="78"/>
+      <c r="B13" s="60"/>
       <c r="C13" s="9" t="s">
         <v>7</v>
       </c>
@@ -17869,10 +17869,10 @@
       </c>
     </row>
     <row r="14" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A14" s="77" t="s">
+      <c r="A14" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="B14" s="78"/>
+      <c r="B14" s="60"/>
       <c r="C14" s="9" t="s">
         <v>7</v>
       </c>
@@ -17953,10 +17953,10 @@
       </c>
     </row>
     <row r="15" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A15" s="77" t="s">
+      <c r="A15" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="B15" s="78"/>
+      <c r="B15" s="60"/>
       <c r="C15" s="9" t="s">
         <v>7</v>
       </c>
@@ -18037,10 +18037,10 @@
       </c>
     </row>
     <row r="16" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A16" s="77" t="s">
+      <c r="A16" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="B16" s="78"/>
+      <c r="B16" s="60"/>
       <c r="C16" s="9" t="s">
         <v>7</v>
       </c>
@@ -18121,10 +18121,10 @@
       </c>
     </row>
     <row r="17" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A17" s="77" t="s">
+      <c r="A17" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="B17" s="78"/>
+      <c r="B17" s="60"/>
       <c r="C17" s="9" t="s">
         <v>7</v>
       </c>
@@ -18205,10 +18205,10 @@
       </c>
     </row>
     <row r="18" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A18" s="77" t="s">
+      <c r="A18" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="B18" s="78"/>
+      <c r="B18" s="60"/>
       <c r="C18" s="9" t="s">
         <v>7</v>
       </c>
@@ -18289,10 +18289,10 @@
       </c>
     </row>
     <row r="19" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A19" s="79" t="s">
+      <c r="A19" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="B19" s="80"/>
+      <c r="B19" s="64"/>
       <c r="C19" s="9" t="s">
         <v>7</v>
       </c>
@@ -18373,10 +18373,10 @@
       </c>
     </row>
     <row r="20" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A20" s="77" t="s">
+      <c r="A20" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="B20" s="78"/>
+      <c r="B20" s="60"/>
       <c r="C20" s="9" t="s">
         <v>7</v>
       </c>
@@ -18457,10 +18457,10 @@
       </c>
     </row>
     <row r="21" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A21" s="77" t="s">
+      <c r="A21" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="B21" s="78"/>
+      <c r="B21" s="60"/>
       <c r="C21" s="9" t="s">
         <v>7</v>
       </c>
@@ -18541,10 +18541,10 @@
       </c>
     </row>
     <row r="22" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A22" s="77" t="s">
+      <c r="A22" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="B22" s="78"/>
+      <c r="B22" s="60"/>
       <c r="C22" s="9" t="s">
         <v>7</v>
       </c>
@@ -18625,10 +18625,10 @@
       </c>
     </row>
     <row r="23" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A23" s="79" t="s">
+      <c r="A23" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="B23" s="80"/>
+      <c r="B23" s="64"/>
       <c r="C23" s="9" t="s">
         <v>7</v>
       </c>
@@ -18709,10 +18709,10 @@
       </c>
     </row>
     <row r="24" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A24" s="79" t="s">
+      <c r="A24" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="B24" s="80"/>
+      <c r="B24" s="64"/>
       <c r="C24" s="9" t="s">
         <v>7</v>
       </c>
@@ -18793,10 +18793,10 @@
       </c>
     </row>
     <row r="25" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A25" s="77" t="s">
+      <c r="A25" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="B25" s="78"/>
+      <c r="B25" s="60"/>
       <c r="C25" s="9" t="s">
         <v>7</v>
       </c>
@@ -18877,10 +18877,10 @@
       </c>
     </row>
     <row r="26" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A26" s="77" t="s">
+      <c r="A26" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="B26" s="78"/>
+      <c r="B26" s="60"/>
       <c r="C26" s="9" t="s">
         <v>7</v>
       </c>
@@ -18961,10 +18961,10 @@
       </c>
     </row>
     <row r="27" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A27" s="77" t="s">
+      <c r="A27" s="59" t="s">
         <v>145</v>
       </c>
-      <c r="B27" s="78"/>
+      <c r="B27" s="60"/>
       <c r="C27" s="9" t="s">
         <v>164</v>
       </c>
@@ -19045,10 +19045,10 @@
       </c>
     </row>
     <row r="28" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A28" s="77" t="s">
+      <c r="A28" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="B28" s="78"/>
+      <c r="B28" s="60"/>
       <c r="C28" s="9" t="s">
         <v>7</v>
       </c>
@@ -19129,10 +19129,10 @@
       </c>
     </row>
     <row r="29" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A29" s="77" t="s">
+      <c r="A29" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="B29" s="78"/>
+      <c r="B29" s="60"/>
       <c r="C29" s="9" t="s">
         <v>7</v>
       </c>
@@ -19213,10 +19213,10 @@
       </c>
     </row>
     <row r="30" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A30" s="77" t="s">
+      <c r="A30" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="B30" s="78"/>
+      <c r="B30" s="60"/>
       <c r="C30" s="9" t="s">
         <v>7</v>
       </c>
@@ -19297,10 +19297,10 @@
       </c>
     </row>
     <row r="31" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A31" s="77" t="s">
+      <c r="A31" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="B31" s="78"/>
+      <c r="B31" s="60"/>
       <c r="C31" s="9" t="s">
         <v>7</v>
       </c>
@@ -19381,10 +19381,10 @@
       </c>
     </row>
     <row r="32" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A32" s="77" t="s">
+      <c r="A32" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="B32" s="78"/>
+      <c r="B32" s="60"/>
       <c r="C32" s="9" t="s">
         <v>7</v>
       </c>
@@ -19465,10 +19465,10 @@
       </c>
     </row>
     <row r="33" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A33" s="77" t="s">
+      <c r="A33" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="B33" s="78"/>
+      <c r="B33" s="60"/>
       <c r="C33" s="9" t="s">
         <v>7</v>
       </c>
@@ -19549,10 +19549,10 @@
       </c>
     </row>
     <row r="34" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A34" s="77" t="s">
+      <c r="A34" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="B34" s="78"/>
+      <c r="B34" s="60"/>
       <c r="C34" s="9" t="s">
         <v>7</v>
       </c>
@@ -19633,10 +19633,10 @@
       </c>
     </row>
     <row r="35" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A35" s="77" t="s">
+      <c r="A35" s="59" t="s">
         <v>131</v>
       </c>
-      <c r="B35" s="78"/>
+      <c r="B35" s="60"/>
       <c r="C35" s="9" t="s">
         <v>7</v>
       </c>
@@ -19717,10 +19717,10 @@
       </c>
     </row>
     <row r="36" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A36" s="77" t="s">
+      <c r="A36" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="B36" s="78"/>
+      <c r="B36" s="60"/>
       <c r="C36" s="9" t="s">
         <v>7</v>
       </c>
@@ -19801,10 +19801,10 @@
       </c>
     </row>
     <row r="37" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A37" s="77" t="s">
+      <c r="A37" s="59" t="s">
         <v>133</v>
       </c>
-      <c r="B37" s="78"/>
+      <c r="B37" s="60"/>
       <c r="C37" s="9" t="s">
         <v>7</v>
       </c>
@@ -19885,10 +19885,10 @@
       </c>
     </row>
     <row r="38" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A38" s="77" t="s">
+      <c r="A38" s="59" t="s">
         <v>134</v>
       </c>
-      <c r="B38" s="78"/>
+      <c r="B38" s="60"/>
       <c r="C38" s="9" t="s">
         <v>7</v>
       </c>
@@ -19969,10 +19969,10 @@
       </c>
     </row>
     <row r="39" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A39" s="77" t="s">
+      <c r="A39" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="B39" s="78"/>
+      <c r="B39" s="60"/>
       <c r="C39" s="9" t="s">
         <v>7</v>
       </c>
@@ -20053,10 +20053,10 @@
       </c>
     </row>
     <row r="40" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A40" s="77" t="s">
+      <c r="A40" s="59" t="s">
         <v>136</v>
       </c>
-      <c r="B40" s="78"/>
+      <c r="B40" s="60"/>
       <c r="C40" s="9" t="s">
         <v>7</v>
       </c>
@@ -20137,10 +20137,10 @@
       </c>
     </row>
     <row r="41" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A41" s="77" t="s">
+      <c r="A41" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="B41" s="78"/>
+      <c r="B41" s="60"/>
       <c r="C41" s="9" t="s">
         <v>7</v>
       </c>
@@ -20221,10 +20221,10 @@
       </c>
     </row>
     <row r="42" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A42" s="77" t="s">
+      <c r="A42" s="59" t="s">
         <v>137</v>
       </c>
-      <c r="B42" s="78"/>
+      <c r="B42" s="60"/>
       <c r="C42" s="9" t="s">
         <v>7</v>
       </c>
@@ -20305,10 +20305,10 @@
       </c>
     </row>
     <row r="43" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A43" s="77" t="s">
+      <c r="A43" s="59" t="s">
         <v>144</v>
       </c>
-      <c r="B43" s="78"/>
+      <c r="B43" s="60"/>
       <c r="C43" s="9" t="s">
         <v>7</v>
       </c>
@@ -20389,10 +20389,10 @@
       </c>
     </row>
     <row r="44" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A44" s="77" t="s">
+      <c r="A44" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="B44" s="78"/>
+      <c r="B44" s="60"/>
       <c r="C44" s="9" t="s">
         <v>7</v>
       </c>
@@ -20473,10 +20473,10 @@
       </c>
     </row>
     <row r="45" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A45" s="77" t="s">
+      <c r="A45" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="B45" s="78"/>
+      <c r="B45" s="60"/>
       <c r="C45" s="9" t="s">
         <v>7</v>
       </c>
@@ -20557,7 +20557,7 @@
       </c>
     </row>
     <row r="46" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A46" s="81" t="s">
+      <c r="A46" s="61" t="s">
         <v>140</v>
       </c>
       <c r="B46" s="10" t="s">
@@ -20643,7 +20643,7 @@
       </c>
     </row>
     <row r="47" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A47" s="82"/>
+      <c r="A47" s="62"/>
       <c r="B47" s="10" t="s">
         <v>141</v>
       </c>
@@ -20733,11 +20733,36 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:AB3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:AB4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:AB6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:AB7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A30:B30"/>
@@ -20751,36 +20776,11 @@
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:AB6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:AB7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:AB3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:AB4"/>
-    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:A47"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{BFD1C46A-5F28-4C4A-9438-87C05AE1EE2C}"/>
@@ -20826,79 +20826,79 @@
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="76" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="63" t="s">
+      <c r="B3" s="77"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="79" t="s">
         <v>150</v>
       </c>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
-      <c r="S3" s="64"/>
-      <c r="T3" s="64"/>
-      <c r="U3" s="64"/>
-      <c r="V3" s="64"/>
-      <c r="W3" s="64"/>
-      <c r="X3" s="64"/>
-      <c r="Y3" s="64"/>
-      <c r="Z3" s="64"/>
-      <c r="AA3" s="64"/>
-      <c r="AB3" s="65"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="80"/>
+      <c r="W3" s="80"/>
+      <c r="X3" s="80"/>
+      <c r="Y3" s="80"/>
+      <c r="Z3" s="80"/>
+      <c r="AA3" s="80"/>
+      <c r="AB3" s="81"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="76" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="63" t="s">
+      <c r="B4" s="77"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="79" t="s">
         <v>173</v>
       </c>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="64"/>
-      <c r="P4" s="64"/>
-      <c r="Q4" s="64"/>
-      <c r="R4" s="64"/>
-      <c r="S4" s="64"/>
-      <c r="T4" s="64"/>
-      <c r="U4" s="64"/>
-      <c r="V4" s="64"/>
-      <c r="W4" s="64"/>
-      <c r="X4" s="64"/>
-      <c r="Y4" s="64"/>
-      <c r="Z4" s="64"/>
-      <c r="AA4" s="64"/>
-      <c r="AB4" s="65"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="80"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="80"/>
+      <c r="S4" s="80"/>
+      <c r="T4" s="80"/>
+      <c r="U4" s="80"/>
+      <c r="V4" s="80"/>
+      <c r="W4" s="80"/>
+      <c r="X4" s="80"/>
+      <c r="Y4" s="80"/>
+      <c r="Z4" s="80"/>
+      <c r="AA4" s="80"/>
+      <c r="AB4" s="81"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="68"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="67"/>
       <c r="D5" s="8" t="s">
         <v>79</v>
       </c>
@@ -20976,78 +20976,78 @@
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="69" t="s">
+      <c r="B6" s="66"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="70"/>
-      <c r="R6" s="70"/>
-      <c r="S6" s="70"/>
-      <c r="T6" s="70"/>
-      <c r="U6" s="70"/>
-      <c r="V6" s="70"/>
-      <c r="W6" s="70"/>
-      <c r="X6" s="70"/>
-      <c r="Y6" s="70"/>
-      <c r="Z6" s="70"/>
-      <c r="AA6" s="70"/>
-      <c r="AB6" s="71"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="69"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="69"/>
+      <c r="S6" s="69"/>
+      <c r="T6" s="69"/>
+      <c r="U6" s="69"/>
+      <c r="V6" s="69"/>
+      <c r="W6" s="69"/>
+      <c r="X6" s="69"/>
+      <c r="Y6" s="69"/>
+      <c r="Z6" s="69"/>
+      <c r="AA6" s="69"/>
+      <c r="AB6" s="70"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="67"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="72" t="s">
+      <c r="B7" s="66"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="73"/>
-      <c r="O7" s="73"/>
-      <c r="P7" s="73"/>
-      <c r="Q7" s="73"/>
-      <c r="R7" s="73"/>
-      <c r="S7" s="73"/>
-      <c r="T7" s="73"/>
-      <c r="U7" s="73"/>
-      <c r="V7" s="73"/>
-      <c r="W7" s="73"/>
-      <c r="X7" s="73"/>
-      <c r="Y7" s="73"/>
-      <c r="Z7" s="73"/>
-      <c r="AA7" s="73"/>
-      <c r="AB7" s="74"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="72"/>
+      <c r="O7" s="72"/>
+      <c r="P7" s="72"/>
+      <c r="Q7" s="72"/>
+      <c r="R7" s="72"/>
+      <c r="S7" s="72"/>
+      <c r="T7" s="72"/>
+      <c r="U7" s="72"/>
+      <c r="V7" s="72"/>
+      <c r="W7" s="72"/>
+      <c r="X7" s="72"/>
+      <c r="Y7" s="72"/>
+      <c r="Z7" s="72"/>
+      <c r="AA7" s="72"/>
+      <c r="AB7" s="73"/>
     </row>
     <row r="8" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="76"/>
+      <c r="B8" s="75"/>
       <c r="C8" s="9" t="s">
         <v>7</v>
       </c>
@@ -21128,10 +21128,10 @@
       </c>
     </row>
     <row r="9" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="78"/>
+      <c r="B9" s="60"/>
       <c r="C9" s="9" t="s">
         <v>7</v>
       </c>
@@ -21212,10 +21212,10 @@
       </c>
     </row>
     <row r="10" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A10" s="77" t="s">
+      <c r="A10" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="78"/>
+      <c r="B10" s="60"/>
       <c r="C10" s="9" t="s">
         <v>7</v>
       </c>
@@ -21296,10 +21296,10 @@
       </c>
     </row>
     <row r="11" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A11" s="77" t="s">
+      <c r="A11" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="78"/>
+      <c r="B11" s="60"/>
       <c r="C11" s="9" t="s">
         <v>7</v>
       </c>
@@ -21380,10 +21380,10 @@
       </c>
     </row>
     <row r="12" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A12" s="77" t="s">
+      <c r="A12" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="78"/>
+      <c r="B12" s="60"/>
       <c r="C12" s="9" t="s">
         <v>7</v>
       </c>
@@ -21464,10 +21464,10 @@
       </c>
     </row>
     <row r="13" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A13" s="77" t="s">
+      <c r="A13" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="B13" s="78"/>
+      <c r="B13" s="60"/>
       <c r="C13" s="9" t="s">
         <v>7</v>
       </c>
@@ -21548,10 +21548,10 @@
       </c>
     </row>
     <row r="14" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A14" s="77" t="s">
+      <c r="A14" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="B14" s="78"/>
+      <c r="B14" s="60"/>
       <c r="C14" s="9" t="s">
         <v>7</v>
       </c>
@@ -21632,10 +21632,10 @@
       </c>
     </row>
     <row r="15" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A15" s="77" t="s">
+      <c r="A15" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="B15" s="78"/>
+      <c r="B15" s="60"/>
       <c r="C15" s="9" t="s">
         <v>7</v>
       </c>
@@ -21716,10 +21716,10 @@
       </c>
     </row>
     <row r="16" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A16" s="77" t="s">
+      <c r="A16" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="B16" s="78"/>
+      <c r="B16" s="60"/>
       <c r="C16" s="9" t="s">
         <v>7</v>
       </c>
@@ -21800,10 +21800,10 @@
       </c>
     </row>
     <row r="17" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A17" s="77" t="s">
+      <c r="A17" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="B17" s="78"/>
+      <c r="B17" s="60"/>
       <c r="C17" s="9" t="s">
         <v>7</v>
       </c>
@@ -21884,10 +21884,10 @@
       </c>
     </row>
     <row r="18" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A18" s="77" t="s">
+      <c r="A18" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="B18" s="78"/>
+      <c r="B18" s="60"/>
       <c r="C18" s="9" t="s">
         <v>7</v>
       </c>
@@ -21968,10 +21968,10 @@
       </c>
     </row>
     <row r="19" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A19" s="79" t="s">
+      <c r="A19" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="B19" s="80"/>
+      <c r="B19" s="64"/>
       <c r="C19" s="9" t="s">
         <v>7</v>
       </c>
@@ -22052,10 +22052,10 @@
       </c>
     </row>
     <row r="20" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A20" s="77" t="s">
+      <c r="A20" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="B20" s="78"/>
+      <c r="B20" s="60"/>
       <c r="C20" s="9" t="s">
         <v>7</v>
       </c>
@@ -22136,10 +22136,10 @@
       </c>
     </row>
     <row r="21" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A21" s="77" t="s">
+      <c r="A21" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="B21" s="78"/>
+      <c r="B21" s="60"/>
       <c r="C21" s="9" t="s">
         <v>7</v>
       </c>
@@ -22220,10 +22220,10 @@
       </c>
     </row>
     <row r="22" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A22" s="77" t="s">
+      <c r="A22" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="B22" s="78"/>
+      <c r="B22" s="60"/>
       <c r="C22" s="9" t="s">
         <v>7</v>
       </c>
@@ -22304,10 +22304,10 @@
       </c>
     </row>
     <row r="23" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A23" s="79" t="s">
+      <c r="A23" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="B23" s="80"/>
+      <c r="B23" s="64"/>
       <c r="C23" s="9" t="s">
         <v>7</v>
       </c>
@@ -22388,10 +22388,10 @@
       </c>
     </row>
     <row r="24" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A24" s="79" t="s">
+      <c r="A24" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="B24" s="80"/>
+      <c r="B24" s="64"/>
       <c r="C24" s="9" t="s">
         <v>7</v>
       </c>
@@ -22472,10 +22472,10 @@
       </c>
     </row>
     <row r="25" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A25" s="77" t="s">
+      <c r="A25" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="B25" s="78"/>
+      <c r="B25" s="60"/>
       <c r="C25" s="9" t="s">
         <v>7</v>
       </c>
@@ -22556,10 +22556,10 @@
       </c>
     </row>
     <row r="26" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A26" s="77" t="s">
+      <c r="A26" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="B26" s="78"/>
+      <c r="B26" s="60"/>
       <c r="C26" s="9" t="s">
         <v>7</v>
       </c>
@@ -22640,10 +22640,10 @@
       </c>
     </row>
     <row r="27" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A27" s="77" t="s">
+      <c r="A27" s="59" t="s">
         <v>145</v>
       </c>
-      <c r="B27" s="78"/>
+      <c r="B27" s="60"/>
       <c r="C27" s="9" t="s">
         <v>7</v>
       </c>
@@ -22724,10 +22724,10 @@
       </c>
     </row>
     <row r="28" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A28" s="77" t="s">
+      <c r="A28" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="B28" s="78"/>
+      <c r="B28" s="60"/>
       <c r="C28" s="9" t="s">
         <v>7</v>
       </c>
@@ -22808,10 +22808,10 @@
       </c>
     </row>
     <row r="29" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A29" s="77" t="s">
+      <c r="A29" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="B29" s="78"/>
+      <c r="B29" s="60"/>
       <c r="C29" s="9" t="s">
         <v>7</v>
       </c>
@@ -22892,10 +22892,10 @@
       </c>
     </row>
     <row r="30" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A30" s="77" t="s">
+      <c r="A30" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="B30" s="78"/>
+      <c r="B30" s="60"/>
       <c r="C30" s="9" t="s">
         <v>7</v>
       </c>
@@ -22976,10 +22976,10 @@
       </c>
     </row>
     <row r="31" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A31" s="77" t="s">
+      <c r="A31" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="B31" s="78"/>
+      <c r="B31" s="60"/>
       <c r="C31" s="9" t="s">
         <v>7</v>
       </c>
@@ -23060,10 +23060,10 @@
       </c>
     </row>
     <row r="32" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A32" s="77" t="s">
+      <c r="A32" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="B32" s="78"/>
+      <c r="B32" s="60"/>
       <c r="C32" s="9" t="s">
         <v>7</v>
       </c>
@@ -23144,10 +23144,10 @@
       </c>
     </row>
     <row r="33" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A33" s="77" t="s">
+      <c r="A33" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="B33" s="78"/>
+      <c r="B33" s="60"/>
       <c r="C33" s="9" t="s">
         <v>7</v>
       </c>
@@ -23228,10 +23228,10 @@
       </c>
     </row>
     <row r="34" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A34" s="77" t="s">
+      <c r="A34" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="B34" s="78"/>
+      <c r="B34" s="60"/>
       <c r="C34" s="9" t="s">
         <v>7</v>
       </c>
@@ -23312,10 +23312,10 @@
       </c>
     </row>
     <row r="35" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A35" s="77" t="s">
+      <c r="A35" s="59" t="s">
         <v>131</v>
       </c>
-      <c r="B35" s="78"/>
+      <c r="B35" s="60"/>
       <c r="C35" s="9" t="s">
         <v>7</v>
       </c>
@@ -23396,10 +23396,10 @@
       </c>
     </row>
     <row r="36" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A36" s="77" t="s">
+      <c r="A36" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="B36" s="78"/>
+      <c r="B36" s="60"/>
       <c r="C36" s="9" t="s">
         <v>7</v>
       </c>
@@ -23480,10 +23480,10 @@
       </c>
     </row>
     <row r="37" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A37" s="77" t="s">
+      <c r="A37" s="59" t="s">
         <v>133</v>
       </c>
-      <c r="B37" s="78"/>
+      <c r="B37" s="60"/>
       <c r="C37" s="9" t="s">
         <v>7</v>
       </c>
@@ -23564,10 +23564,10 @@
       </c>
     </row>
     <row r="38" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A38" s="77" t="s">
+      <c r="A38" s="59" t="s">
         <v>134</v>
       </c>
-      <c r="B38" s="78"/>
+      <c r="B38" s="60"/>
       <c r="C38" s="9" t="s">
         <v>7</v>
       </c>
@@ -23648,10 +23648,10 @@
       </c>
     </row>
     <row r="39" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A39" s="77" t="s">
+      <c r="A39" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="B39" s="78"/>
+      <c r="B39" s="60"/>
       <c r="C39" s="9" t="s">
         <v>7</v>
       </c>
@@ -23732,10 +23732,10 @@
       </c>
     </row>
     <row r="40" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A40" s="77" t="s">
+      <c r="A40" s="59" t="s">
         <v>136</v>
       </c>
-      <c r="B40" s="78"/>
+      <c r="B40" s="60"/>
       <c r="C40" s="9" t="s">
         <v>7</v>
       </c>
@@ -23816,10 +23816,10 @@
       </c>
     </row>
     <row r="41" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A41" s="77" t="s">
+      <c r="A41" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="B41" s="78"/>
+      <c r="B41" s="60"/>
       <c r="C41" s="9" t="s">
         <v>7</v>
       </c>
@@ -23900,10 +23900,10 @@
       </c>
     </row>
     <row r="42" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A42" s="77" t="s">
+      <c r="A42" s="59" t="s">
         <v>137</v>
       </c>
-      <c r="B42" s="78"/>
+      <c r="B42" s="60"/>
       <c r="C42" s="9" t="s">
         <v>7</v>
       </c>
@@ -23984,10 +23984,10 @@
       </c>
     </row>
     <row r="43" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A43" s="77" t="s">
+      <c r="A43" s="59" t="s">
         <v>144</v>
       </c>
-      <c r="B43" s="78"/>
+      <c r="B43" s="60"/>
       <c r="C43" s="9" t="s">
         <v>7</v>
       </c>
@@ -24068,10 +24068,10 @@
       </c>
     </row>
     <row r="44" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A44" s="77" t="s">
+      <c r="A44" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="B44" s="78"/>
+      <c r="B44" s="60"/>
       <c r="C44" s="9" t="s">
         <v>7</v>
       </c>
@@ -24152,10 +24152,10 @@
       </c>
     </row>
     <row r="45" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A45" s="77" t="s">
+      <c r="A45" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="B45" s="78"/>
+      <c r="B45" s="60"/>
       <c r="C45" s="9" t="s">
         <v>7</v>
       </c>
@@ -24236,7 +24236,7 @@
       </c>
     </row>
     <row r="46" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A46" s="81" t="s">
+      <c r="A46" s="61" t="s">
         <v>140</v>
       </c>
       <c r="B46" s="10" t="s">
@@ -24322,7 +24322,7 @@
       </c>
     </row>
     <row r="47" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A47" s="82"/>
+      <c r="A47" s="62"/>
       <c r="B47" s="10" t="s">
         <v>141</v>
       </c>
@@ -24412,11 +24412,36 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:AB3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:AB4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:AB6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:AB7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A30:B30"/>
@@ -24430,36 +24455,11 @@
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:AB6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:AB7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:AB3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:AB4"/>
-    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:A47"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{42517EA7-798E-4DA2-9C07-BED4021664ED}"/>
@@ -24504,79 +24504,79 @@
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="76" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="63" t="s">
+      <c r="B3" s="77"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="79" t="s">
         <v>150</v>
       </c>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
-      <c r="S3" s="64"/>
-      <c r="T3" s="64"/>
-      <c r="U3" s="64"/>
-      <c r="V3" s="64"/>
-      <c r="W3" s="64"/>
-      <c r="X3" s="64"/>
-      <c r="Y3" s="64"/>
-      <c r="Z3" s="64"/>
-      <c r="AA3" s="64"/>
-      <c r="AB3" s="65"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="80"/>
+      <c r="W3" s="80"/>
+      <c r="X3" s="80"/>
+      <c r="Y3" s="80"/>
+      <c r="Z3" s="80"/>
+      <c r="AA3" s="80"/>
+      <c r="AB3" s="81"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="76" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="63" t="s">
+      <c r="B4" s="77"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="79" t="s">
         <v>177</v>
       </c>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="64"/>
-      <c r="P4" s="64"/>
-      <c r="Q4" s="64"/>
-      <c r="R4" s="64"/>
-      <c r="S4" s="64"/>
-      <c r="T4" s="64"/>
-      <c r="U4" s="64"/>
-      <c r="V4" s="64"/>
-      <c r="W4" s="64"/>
-      <c r="X4" s="64"/>
-      <c r="Y4" s="64"/>
-      <c r="Z4" s="64"/>
-      <c r="AA4" s="64"/>
-      <c r="AB4" s="65"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="80"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="80"/>
+      <c r="S4" s="80"/>
+      <c r="T4" s="80"/>
+      <c r="U4" s="80"/>
+      <c r="V4" s="80"/>
+      <c r="W4" s="80"/>
+      <c r="X4" s="80"/>
+      <c r="Y4" s="80"/>
+      <c r="Z4" s="80"/>
+      <c r="AA4" s="80"/>
+      <c r="AB4" s="81"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="68"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="67"/>
       <c r="D5" s="8" t="s">
         <v>79</v>
       </c>
@@ -24654,78 +24654,78 @@
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="69" t="s">
+      <c r="B6" s="66"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="70"/>
-      <c r="R6" s="70"/>
-      <c r="S6" s="70"/>
-      <c r="T6" s="70"/>
-      <c r="U6" s="70"/>
-      <c r="V6" s="70"/>
-      <c r="W6" s="70"/>
-      <c r="X6" s="70"/>
-      <c r="Y6" s="70"/>
-      <c r="Z6" s="70"/>
-      <c r="AA6" s="70"/>
-      <c r="AB6" s="71"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="69"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="69"/>
+      <c r="S6" s="69"/>
+      <c r="T6" s="69"/>
+      <c r="U6" s="69"/>
+      <c r="V6" s="69"/>
+      <c r="W6" s="69"/>
+      <c r="X6" s="69"/>
+      <c r="Y6" s="69"/>
+      <c r="Z6" s="69"/>
+      <c r="AA6" s="69"/>
+      <c r="AB6" s="70"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="67"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="72" t="s">
+      <c r="B7" s="66"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="73"/>
-      <c r="O7" s="73"/>
-      <c r="P7" s="73"/>
-      <c r="Q7" s="73"/>
-      <c r="R7" s="73"/>
-      <c r="S7" s="73"/>
-      <c r="T7" s="73"/>
-      <c r="U7" s="73"/>
-      <c r="V7" s="73"/>
-      <c r="W7" s="73"/>
-      <c r="X7" s="73"/>
-      <c r="Y7" s="73"/>
-      <c r="Z7" s="73"/>
-      <c r="AA7" s="73"/>
-      <c r="AB7" s="74"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="72"/>
+      <c r="O7" s="72"/>
+      <c r="P7" s="72"/>
+      <c r="Q7" s="72"/>
+      <c r="R7" s="72"/>
+      <c r="S7" s="72"/>
+      <c r="T7" s="72"/>
+      <c r="U7" s="72"/>
+      <c r="V7" s="72"/>
+      <c r="W7" s="72"/>
+      <c r="X7" s="72"/>
+      <c r="Y7" s="72"/>
+      <c r="Z7" s="72"/>
+      <c r="AA7" s="72"/>
+      <c r="AB7" s="73"/>
     </row>
     <row r="8" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="76"/>
+      <c r="B8" s="75"/>
       <c r="C8" s="9" t="s">
         <v>7</v>
       </c>
@@ -24806,10 +24806,10 @@
       </c>
     </row>
     <row r="9" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="78"/>
+      <c r="B9" s="60"/>
       <c r="C9" s="9" t="s">
         <v>7</v>
       </c>
@@ -24890,10 +24890,10 @@
       </c>
     </row>
     <row r="10" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A10" s="77" t="s">
+      <c r="A10" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="78"/>
+      <c r="B10" s="60"/>
       <c r="C10" s="9" t="s">
         <v>7</v>
       </c>
@@ -24974,10 +24974,10 @@
       </c>
     </row>
     <row r="11" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A11" s="77" t="s">
+      <c r="A11" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="78"/>
+      <c r="B11" s="60"/>
       <c r="C11" s="9" t="s">
         <v>7</v>
       </c>
@@ -25058,10 +25058,10 @@
       </c>
     </row>
     <row r="12" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A12" s="77" t="s">
+      <c r="A12" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="78"/>
+      <c r="B12" s="60"/>
       <c r="C12" s="9" t="s">
         <v>7</v>
       </c>
@@ -25142,10 +25142,10 @@
       </c>
     </row>
     <row r="13" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A13" s="77" t="s">
+      <c r="A13" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="B13" s="78"/>
+      <c r="B13" s="60"/>
       <c r="C13" s="9" t="s">
         <v>7</v>
       </c>
@@ -25226,10 +25226,10 @@
       </c>
     </row>
     <row r="14" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A14" s="77" t="s">
+      <c r="A14" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="B14" s="78"/>
+      <c r="B14" s="60"/>
       <c r="C14" s="9" t="s">
         <v>7</v>
       </c>
@@ -25310,10 +25310,10 @@
       </c>
     </row>
     <row r="15" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A15" s="77" t="s">
+      <c r="A15" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="B15" s="78"/>
+      <c r="B15" s="60"/>
       <c r="C15" s="9" t="s">
         <v>7</v>
       </c>
@@ -25394,10 +25394,10 @@
       </c>
     </row>
     <row r="16" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A16" s="77" t="s">
+      <c r="A16" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="B16" s="78"/>
+      <c r="B16" s="60"/>
       <c r="C16" s="9" t="s">
         <v>7</v>
       </c>
@@ -25478,10 +25478,10 @@
       </c>
     </row>
     <row r="17" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A17" s="77" t="s">
+      <c r="A17" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="B17" s="78"/>
+      <c r="B17" s="60"/>
       <c r="C17" s="9" t="s">
         <v>7</v>
       </c>
@@ -25562,10 +25562,10 @@
       </c>
     </row>
     <row r="18" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A18" s="77" t="s">
+      <c r="A18" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="B18" s="78"/>
+      <c r="B18" s="60"/>
       <c r="C18" s="9" t="s">
         <v>7</v>
       </c>
@@ -25646,10 +25646,10 @@
       </c>
     </row>
     <row r="19" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A19" s="79" t="s">
+      <c r="A19" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="B19" s="80"/>
+      <c r="B19" s="64"/>
       <c r="C19" s="9" t="s">
         <v>7</v>
       </c>
@@ -25730,10 +25730,10 @@
       </c>
     </row>
     <row r="20" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A20" s="77" t="s">
+      <c r="A20" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="B20" s="78"/>
+      <c r="B20" s="60"/>
       <c r="C20" s="9" t="s">
         <v>7</v>
       </c>
@@ -25814,10 +25814,10 @@
       </c>
     </row>
     <row r="21" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A21" s="77" t="s">
+      <c r="A21" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="B21" s="78"/>
+      <c r="B21" s="60"/>
       <c r="C21" s="9" t="s">
         <v>7</v>
       </c>
@@ -25898,10 +25898,10 @@
       </c>
     </row>
     <row r="22" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A22" s="77" t="s">
+      <c r="A22" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="B22" s="78"/>
+      <c r="B22" s="60"/>
       <c r="C22" s="9" t="s">
         <v>7</v>
       </c>
@@ -25982,10 +25982,10 @@
       </c>
     </row>
     <row r="23" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A23" s="79" t="s">
+      <c r="A23" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="B23" s="80"/>
+      <c r="B23" s="64"/>
       <c r="C23" s="9" t="s">
         <v>7</v>
       </c>
@@ -26066,10 +26066,10 @@
       </c>
     </row>
     <row r="24" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A24" s="79" t="s">
+      <c r="A24" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="B24" s="80"/>
+      <c r="B24" s="64"/>
       <c r="C24" s="9" t="s">
         <v>7</v>
       </c>
@@ -26150,10 +26150,10 @@
       </c>
     </row>
     <row r="25" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A25" s="77" t="s">
+      <c r="A25" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="B25" s="78"/>
+      <c r="B25" s="60"/>
       <c r="C25" s="9" t="s">
         <v>7</v>
       </c>
@@ -26234,10 +26234,10 @@
       </c>
     </row>
     <row r="26" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A26" s="77" t="s">
+      <c r="A26" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="B26" s="78"/>
+      <c r="B26" s="60"/>
       <c r="C26" s="9" t="s">
         <v>7</v>
       </c>
@@ -26318,10 +26318,10 @@
       </c>
     </row>
     <row r="27" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A27" s="77" t="s">
+      <c r="A27" s="59" t="s">
         <v>145</v>
       </c>
-      <c r="B27" s="78"/>
+      <c r="B27" s="60"/>
       <c r="C27" s="9" t="s">
         <v>7</v>
       </c>
@@ -26402,10 +26402,10 @@
       </c>
     </row>
     <row r="28" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A28" s="77" t="s">
+      <c r="A28" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="B28" s="78"/>
+      <c r="B28" s="60"/>
       <c r="C28" s="9" t="s">
         <v>7</v>
       </c>
@@ -26486,10 +26486,10 @@
       </c>
     </row>
     <row r="29" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A29" s="77" t="s">
+      <c r="A29" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="B29" s="78"/>
+      <c r="B29" s="60"/>
       <c r="C29" s="9" t="s">
         <v>7</v>
       </c>
@@ -26570,10 +26570,10 @@
       </c>
     </row>
     <row r="30" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A30" s="77" t="s">
+      <c r="A30" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="B30" s="78"/>
+      <c r="B30" s="60"/>
       <c r="C30" s="9" t="s">
         <v>7</v>
       </c>
@@ -26654,10 +26654,10 @@
       </c>
     </row>
     <row r="31" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A31" s="77" t="s">
+      <c r="A31" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="B31" s="78"/>
+      <c r="B31" s="60"/>
       <c r="C31" s="9" t="s">
         <v>7</v>
       </c>
@@ -26738,10 +26738,10 @@
       </c>
     </row>
     <row r="32" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A32" s="77" t="s">
+      <c r="A32" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="B32" s="78"/>
+      <c r="B32" s="60"/>
       <c r="C32" s="9" t="s">
         <v>7</v>
       </c>
@@ -26822,10 +26822,10 @@
       </c>
     </row>
     <row r="33" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A33" s="77" t="s">
+      <c r="A33" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="B33" s="78"/>
+      <c r="B33" s="60"/>
       <c r="C33" s="9" t="s">
         <v>7</v>
       </c>
@@ -26906,10 +26906,10 @@
       </c>
     </row>
     <row r="34" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A34" s="77" t="s">
+      <c r="A34" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="B34" s="78"/>
+      <c r="B34" s="60"/>
       <c r="C34" s="9" t="s">
         <v>7</v>
       </c>
@@ -26990,10 +26990,10 @@
       </c>
     </row>
     <row r="35" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A35" s="77" t="s">
+      <c r="A35" s="59" t="s">
         <v>131</v>
       </c>
-      <c r="B35" s="78"/>
+      <c r="B35" s="60"/>
       <c r="C35" s="9" t="s">
         <v>7</v>
       </c>
@@ -27074,10 +27074,10 @@
       </c>
     </row>
     <row r="36" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A36" s="77" t="s">
+      <c r="A36" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="B36" s="78"/>
+      <c r="B36" s="60"/>
       <c r="C36" s="9" t="s">
         <v>7</v>
       </c>
@@ -27158,10 +27158,10 @@
       </c>
     </row>
     <row r="37" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A37" s="77" t="s">
+      <c r="A37" s="59" t="s">
         <v>133</v>
       </c>
-      <c r="B37" s="78"/>
+      <c r="B37" s="60"/>
       <c r="C37" s="9" t="s">
         <v>7</v>
       </c>
@@ -27242,10 +27242,10 @@
       </c>
     </row>
     <row r="38" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A38" s="77" t="s">
+      <c r="A38" s="59" t="s">
         <v>134</v>
       </c>
-      <c r="B38" s="78"/>
+      <c r="B38" s="60"/>
       <c r="C38" s="9" t="s">
         <v>7</v>
       </c>
@@ -27326,10 +27326,10 @@
       </c>
     </row>
     <row r="39" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A39" s="77" t="s">
+      <c r="A39" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="B39" s="78"/>
+      <c r="B39" s="60"/>
       <c r="C39" s="9" t="s">
         <v>7</v>
       </c>
@@ -27410,10 +27410,10 @@
       </c>
     </row>
     <row r="40" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A40" s="77" t="s">
+      <c r="A40" s="59" t="s">
         <v>136</v>
       </c>
-      <c r="B40" s="78"/>
+      <c r="B40" s="60"/>
       <c r="C40" s="9" t="s">
         <v>7</v>
       </c>
@@ -27494,10 +27494,10 @@
       </c>
     </row>
     <row r="41" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A41" s="77" t="s">
+      <c r="A41" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="B41" s="78"/>
+      <c r="B41" s="60"/>
       <c r="C41" s="9" t="s">
         <v>7</v>
       </c>
@@ -27578,10 +27578,10 @@
       </c>
     </row>
     <row r="42" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A42" s="77" t="s">
+      <c r="A42" s="59" t="s">
         <v>137</v>
       </c>
-      <c r="B42" s="78"/>
+      <c r="B42" s="60"/>
       <c r="C42" s="9" t="s">
         <v>7</v>
       </c>
@@ -27662,10 +27662,10 @@
       </c>
     </row>
     <row r="43" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A43" s="77" t="s">
+      <c r="A43" s="59" t="s">
         <v>144</v>
       </c>
-      <c r="B43" s="78"/>
+      <c r="B43" s="60"/>
       <c r="C43" s="9" t="s">
         <v>7</v>
       </c>
@@ -27746,10 +27746,10 @@
       </c>
     </row>
     <row r="44" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A44" s="77" t="s">
+      <c r="A44" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="B44" s="78"/>
+      <c r="B44" s="60"/>
       <c r="C44" s="9" t="s">
         <v>7</v>
       </c>
@@ -27830,10 +27830,10 @@
       </c>
     </row>
     <row r="45" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A45" s="77" t="s">
+      <c r="A45" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="B45" s="78"/>
+      <c r="B45" s="60"/>
       <c r="C45" s="9" t="s">
         <v>7</v>
       </c>
@@ -27914,7 +27914,7 @@
       </c>
     </row>
     <row r="46" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A46" s="81" t="s">
+      <c r="A46" s="61" t="s">
         <v>140</v>
       </c>
       <c r="B46" s="10" t="s">
@@ -28000,7 +28000,7 @@
       </c>
     </row>
     <row r="47" spans="1:28" ht="14" x14ac:dyDescent="0.2">
-      <c r="A47" s="82"/>
+      <c r="A47" s="62"/>
       <c r="B47" s="10" t="s">
         <v>141</v>
       </c>
@@ -28090,11 +28090,36 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:AB3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:AB4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:AB6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:AB7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A30:B30"/>
@@ -28108,36 +28133,11 @@
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:AB6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:AB7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:AB3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:AB4"/>
-    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:A47"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=PDBI_I4&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{F0FA221C-8D52-450D-A80C-3B35379E4478}"/>
